--- a/结果.xlsx
+++ b/结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dassl2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BF12B4-26E7-4697-83E2-D3055E79271D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01736053-165B-456A-8E23-4BAD03858D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{79195763-0B37-44CA-843D-BD2B45EE2572}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="29">
   <si>
     <t>实验版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>V1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SplitNet_V1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,19 +83,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V1 第一种分割网络</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>详细描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>首先得到特征提取器得到的特征（未经过最后的AdaptiveAvePool），按照H划分，之后进行上述的池化，一个特征用于类标签预测，一个用于领域标签预测，总损失就是两个分类器的损失，所有的网络都是一起训练的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp-SOTA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp-Base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SplitNet V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将两个子向量都用于标签预测，最终结果为二者的均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAIG(AAAI20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp-DDAIG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SplitNet_V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SplitNet_V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型的收敛程度非常有限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base(ResNet18)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领域分类器基本无法收敛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SplitNet V1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SplitNet V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,12 +194,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,59 +524,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC0E7C2-64E0-4C95-997A-A0D48152339F}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:O5"/>
+      <selection activeCell="A9" sqref="A9:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" customWidth="1"/>
+    <col min="16" max="16" width="8.5546875" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" customWidth="1"/>
+    <col min="18" max="18" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="3"/>
       <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>72.75</v>
@@ -527,30 +609,46 @@
       <c r="F2">
         <v>88.48</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
+      <c r="G2">
+        <f xml:space="preserve"> E2 - F2</f>
+        <v>-15.730000000000004</v>
+      </c>
+      <c r="H2">
+        <v>84.2</v>
+      </c>
+      <c r="I2">
+        <f>E2-H2</f>
+        <v>-11.450000000000003</v>
+      </c>
+      <c r="J2">
+        <v>75.2</v>
+      </c>
+      <c r="K2">
+        <f>E2-J2</f>
+        <v>-2.4500000000000028</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>74.06</v>
@@ -558,22 +656,38 @@
       <c r="F3">
         <v>83.83</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="G3">
+        <f t="shared" ref="G3:G7" si="0" xml:space="preserve"> E3 - F3</f>
+        <v>-9.769999999999996</v>
+      </c>
+      <c r="H3">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I6" si="1">E3-H3</f>
+        <v>-4.039999999999992</v>
+      </c>
+      <c r="J3">
+        <v>74.27</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K6" si="2">E3-J3</f>
+        <v>-0.20999999999999375</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>94.91</v>
@@ -581,22 +695,38 @@
       <c r="F4">
         <v>96.59</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>-1.6800000000000068</v>
+      </c>
+      <c r="H4">
+        <v>95.3</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>-0.39000000000000057</v>
+      </c>
+      <c r="J4">
+        <v>93.29</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>1.6199999999999903</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>66.98</v>
@@ -604,27 +734,549 @@
       <c r="F5">
         <v>82.92</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>-15.939999999999998</v>
+      </c>
+      <c r="H5">
+        <v>74.7</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>-7.7199999999999989</v>
+      </c>
+      <c r="J5">
+        <v>58.91</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>8.0700000000000074</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2">
+        <f>AVERAGE(E2:E5)</f>
+        <v>77.174999999999997</v>
+      </c>
+      <c r="F6" s="2">
+        <f>AVERAGE(F2:F5)</f>
+        <v>87.954999999999998</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>-10.780000000000001</v>
+      </c>
+      <c r="H6" s="2">
+        <f>AVERAGE(H2:H5)</f>
+        <v>83.075000000000003</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>-5.9000000000000057</v>
+      </c>
+      <c r="J6" s="2">
+        <f>AVERAGE(J2:J5)</f>
+        <v>75.41749999999999</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7575000000000074</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>78.22</v>
+      </c>
+      <c r="F9">
+        <v>88.48</v>
+      </c>
+      <c r="G9">
+        <f xml:space="preserve"> E9 - F9</f>
+        <v>-10.260000000000005</v>
+      </c>
+      <c r="H9">
+        <v>84.2</v>
+      </c>
+      <c r="I9">
+        <f xml:space="preserve"> E9 - H9</f>
+        <v>-5.980000000000004</v>
+      </c>
+      <c r="J9">
+        <v>75.2</v>
+      </c>
+      <c r="K9">
+        <f xml:space="preserve"> E9 - J9</f>
+        <v>3.019999999999996</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>75.09</v>
+      </c>
+      <c r="F10">
+        <v>83.83</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ref="G10:G13" si="3" xml:space="preserve"> E10 - F10</f>
+        <v>-8.7399999999999949</v>
+      </c>
+      <c r="H10">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ref="I10:I13" si="4" xml:space="preserve"> E10 - H10</f>
+        <v>-3.0099999999999909</v>
+      </c>
+      <c r="J10">
+        <v>74.27</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ref="K10:K13" si="5" xml:space="preserve"> E10 - J10</f>
+        <v>0.82000000000000739</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>94.61</v>
+      </c>
+      <c r="F11">
+        <v>96.59</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>-1.980000000000004</v>
+      </c>
+      <c r="H11">
+        <v>95.3</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>-0.68999999999999773</v>
+      </c>
+      <c r="J11">
+        <v>93.29</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>1.3199999999999932</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>65.27</v>
+      </c>
+      <c r="F12">
+        <v>82.92</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>-17.650000000000006</v>
+      </c>
+      <c r="H12">
+        <v>74.7</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>-9.4300000000000068</v>
+      </c>
+      <c r="J12">
+        <v>58.91</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>6.3599999999999994</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <f>AVERAGE(E9:E12)</f>
+        <v>78.297499999999999</v>
+      </c>
+      <c r="F13" s="2">
+        <f>AVERAGE(F9:F12)</f>
+        <v>87.954999999999998</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>-9.6574999999999989</v>
+      </c>
+      <c r="H13" s="2">
+        <f>AVERAGE(H9:H12)</f>
+        <v>83.075000000000003</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>-4.7775000000000034</v>
+      </c>
+      <c r="J13" s="2">
+        <f>AVERAGE(J9:J12)</f>
+        <v>75.41749999999999</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>2.8800000000000097</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>88.48</v>
+      </c>
+      <c r="H17">
+        <v>84.2</v>
+      </c>
+      <c r="J17">
+        <v>75.2</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>83.83</v>
+      </c>
+      <c r="H18">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="J18">
+        <v>74.27</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>96.59</v>
+      </c>
+      <c r="H19">
+        <v>95.3</v>
+      </c>
+      <c r="J19">
+        <v>93.29</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>82.92</v>
+      </c>
+      <c r="H20">
+        <v>74.7</v>
+      </c>
+      <c r="J20">
+        <v>58.91</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2">
+        <f>AVERAGE(F17:F20)</f>
+        <v>87.954999999999998</v>
+      </c>
+      <c r="H21" s="2">
+        <f>AVERAGE(H17:H20)</f>
+        <v>83.075000000000003</v>
+      </c>
+      <c r="J21" s="2">
+        <f>AVERAGE(J17:J20)</f>
+        <v>75.41749999999999</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I5"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="J2:O5"/>
+  <mergeCells count="24">
+    <mergeCell ref="R2:R6"/>
+    <mergeCell ref="R9:R13"/>
+    <mergeCell ref="R17:R21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="L17:Q21"/>
+    <mergeCell ref="L1:Q1"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="L2:Q6"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="L9:Q13"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/结果.xlsx
+++ b/结果.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dassl2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F368505A-DEB1-4BC0-BCA6-22A1A10AC7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA187EF-0982-46D4-8968-2E6E6BE35E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{79195763-0B37-44CA-843D-BD2B45EE2572}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{79195763-0B37-44CA-843D-BD2B45EE2572}"/>
   </bookViews>
   <sheets>
     <sheet name="SplitNet" sheetId="1" r:id="rId1"/>
-    <sheet name="模板" sheetId="2" r:id="rId2"/>
+    <sheet name="Uncertainty" sheetId="3" r:id="rId2"/>
+    <sheet name="模板" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="54">
   <si>
     <t>实验版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +182,74 @@
   </si>
   <si>
     <t>领域分类器基本无法收敛，波动幅度很大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果变得更差了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将ResNet18提取出来的特征进行随机化，得到两个特征，两个特征按照C维度连接，之后放到Bottleneck中，最后放到分类器中，增强的概率为1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uncertainty V1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uncertainty_V1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uncertainty V1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SplitNet_V1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将增强概率改成0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch=100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收敛程度低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为模型是基于多视角学习的，所以可以其中一个进行不确定建模，另一个保持不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uncertainty V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uncertainty V3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SplitNet_V3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将SplitNet与不确定建模结合，就是说将其中一半特征进行混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSU(ICRL 22)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp-DSU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -258,16 +327,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -276,10 +336,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -598,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC0E7C2-64E0-4C95-997A-A0D48152339F}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -629,14 +698,14 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="9"/>
       <c r="F2" t="s">
         <v>11</v>
       </c>
@@ -655,20 +724,20 @@
       <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" t="s">
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B3" t="s">
@@ -704,25 +773,25 @@
         <f>E3-J3</f>
         <v>-2.4500000000000028</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8" t="s">
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="S3" s="9"/>
+      <c r="S3" s="6"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
@@ -752,19 +821,19 @@
         <f t="shared" ref="K4:K7" si="2">E4-J4</f>
         <v>-0.20999999999999375</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="6"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
       <c r="D5" t="s">
         <v>9</v>
       </c>
@@ -792,19 +861,19 @@
         <f t="shared" si="2"/>
         <v>1.6199999999999903</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="9"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="6"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
       <c r="D6" t="s">
         <v>10</v>
       </c>
@@ -832,19 +901,19 @@
         <f t="shared" si="2"/>
         <v>8.0700000000000074</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="9"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="6"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
       <c r="D7" t="s">
         <v>14</v>
       </c>
@@ -876,14 +945,14 @@
         <f t="shared" si="2"/>
         <v>1.7575000000000074</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="9"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="6"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -894,43 +963,43 @@
       <c r="H8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="9"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="6"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="6"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="9"/>
       <c r="F10" t="s">
         <v>11</v>
       </c>
@@ -949,21 +1018,21 @@
       <c r="K10" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="9" t="s">
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S10" s="9"/>
+      <c r="S10" s="6"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
@@ -999,25 +1068,25 @@
         <f xml:space="preserve"> E11 - J11</f>
         <v>3.019999999999996</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8" t="s">
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="S11" s="9"/>
+      <c r="S11" s="6"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D12" t="s">
@@ -1047,19 +1116,19 @@
         <f t="shared" ref="K12:K15" si="5" xml:space="preserve"> E12 - J12</f>
         <v>0.82000000000000739</v>
       </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="9"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="6"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
       <c r="D13" t="s">
         <v>9</v>
       </c>
@@ -1087,19 +1156,19 @@
         <f t="shared" si="5"/>
         <v>1.3199999999999932</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="9"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="6"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
       <c r="D14" t="s">
         <v>10</v>
       </c>
@@ -1127,19 +1196,19 @@
         <f t="shared" si="5"/>
         <v>6.3599999999999994</v>
       </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="9"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="6"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
       <c r="D15" t="s">
         <v>14</v>
       </c>
@@ -1171,47 +1240,47 @@
         <f t="shared" si="5"/>
         <v>2.8800000000000097</v>
       </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="9"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="6"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="6"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="6"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="9"/>
       <c r="F18" t="s">
         <v>11</v>
       </c>
@@ -1230,21 +1299,21 @@
       <c r="K18" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="L18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="9" t="s">
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S18" s="9"/>
+      <c r="S18" s="6"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B19" t="s">
@@ -1280,25 +1349,25 @@
         <f>E19-J19</f>
         <v>3.7599999999999909</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="L19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8" t="s">
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="S19" s="9"/>
+      <c r="S19" s="6"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D20" t="s">
@@ -1328,19 +1397,19 @@
         <f t="shared" ref="K20:K23" si="8">E20-J20</f>
         <v>0.90000000000000568</v>
       </c>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="9"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="6"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
       <c r="D21" t="s">
         <v>9</v>
       </c>
@@ -1368,19 +1437,19 @@
         <f t="shared" si="8"/>
         <v>1.4399999999999977</v>
       </c>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="9"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="6"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
       <c r="D22" t="s">
         <v>10</v>
       </c>
@@ -1408,19 +1477,19 @@
         <f t="shared" si="8"/>
         <v>6.6400000000000006</v>
       </c>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="9"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="6"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
       <c r="D23" t="s">
         <v>14</v>
       </c>
@@ -1452,49 +1521,49 @@
         <f t="shared" si="8"/>
         <v>3.1850000000000165</v>
       </c>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="9"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="6"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="6"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="6"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="9"/>
       <c r="F26" t="s">
         <v>11</v>
       </c>
@@ -1513,21 +1582,21 @@
       <c r="K26" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="8" t="s">
+      <c r="L26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="9" t="s">
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S26" s="9"/>
+      <c r="S26" s="6"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B27" t="s">
@@ -1539,145 +1608,223 @@
       <c r="D27" t="s">
         <v>7</v>
       </c>
+      <c r="E27">
+        <v>73.83</v>
+      </c>
       <c r="F27">
         <v>88.48</v>
       </c>
+      <c r="G27">
+        <f>E27-F27</f>
+        <v>-14.650000000000006</v>
+      </c>
       <c r="H27">
         <v>84.2</v>
       </c>
+      <c r="I27">
+        <f>E27-H27</f>
+        <v>-10.370000000000005</v>
+      </c>
       <c r="J27">
         <v>75.2</v>
       </c>
-      <c r="L27" s="8" t="s">
+      <c r="K27">
+        <f>E27-J27</f>
+        <v>-1.3700000000000045</v>
+      </c>
+      <c r="L27" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="12"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S27" s="8"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
       </c>
+      <c r="E28">
+        <v>77.180000000000007</v>
+      </c>
       <c r="F28">
         <v>83.83</v>
       </c>
+      <c r="G28">
+        <f t="shared" ref="G28:G31" si="9">E28-F28</f>
+        <v>-6.6499999999999915</v>
+      </c>
       <c r="H28">
         <v>78.099999999999994</v>
       </c>
+      <c r="I28">
+        <f t="shared" ref="I28:I31" si="10">E28-H28</f>
+        <v>-0.91999999999998749</v>
+      </c>
       <c r="J28">
         <v>74.27</v>
       </c>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
+      <c r="K28">
+        <f t="shared" ref="K28:K31" si="11">E28-J28</f>
+        <v>2.9100000000000108</v>
+      </c>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
       <c r="R28" s="11"/>
-      <c r="S28" s="12"/>
+      <c r="S28" s="8"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
       <c r="D29" t="s">
         <v>9</v>
       </c>
+      <c r="E29">
+        <v>94.37</v>
+      </c>
       <c r="F29">
         <v>96.59</v>
       </c>
+      <c r="G29">
+        <f t="shared" si="9"/>
+        <v>-2.2199999999999989</v>
+      </c>
       <c r="H29">
         <v>95.3</v>
       </c>
+      <c r="I29">
+        <f t="shared" si="10"/>
+        <v>-0.92999999999999261</v>
+      </c>
       <c r="J29">
         <v>93.29</v>
       </c>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
+      <c r="K29">
+        <f t="shared" si="11"/>
+        <v>1.0799999999999983</v>
+      </c>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
       <c r="R29" s="11"/>
-      <c r="S29" s="12"/>
+      <c r="S29" s="8"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
       <c r="D30" t="s">
         <v>10</v>
       </c>
+      <c r="E30">
+        <v>62.27</v>
+      </c>
       <c r="F30">
         <v>82.92</v>
       </c>
+      <c r="G30">
+        <f t="shared" si="9"/>
+        <v>-20.65</v>
+      </c>
       <c r="H30">
         <v>74.7</v>
       </c>
+      <c r="I30">
+        <f t="shared" si="10"/>
+        <v>-12.43</v>
+      </c>
       <c r="J30">
         <v>58.91</v>
       </c>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
+      <c r="K30">
+        <f t="shared" si="11"/>
+        <v>3.3600000000000065</v>
+      </c>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
       <c r="R30" s="11"/>
-      <c r="S30" s="12"/>
+      <c r="S30" s="8"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
       <c r="D31" t="s">
         <v>14</v>
+      </c>
+      <c r="E31">
+        <f>AVERAGE(E27:E30)</f>
+        <v>76.912499999999994</v>
       </c>
       <c r="F31" s="2">
         <f>AVERAGE(F27:F30)</f>
         <v>87.954999999999998</v>
       </c>
+      <c r="G31">
+        <f t="shared" si="9"/>
+        <v>-11.042500000000004</v>
+      </c>
       <c r="H31" s="2">
         <f>AVERAGE(H27:H30)</f>
         <v>83.075000000000003</v>
       </c>
+      <c r="I31">
+        <f t="shared" si="10"/>
+        <v>-6.1625000000000085</v>
+      </c>
       <c r="J31" s="2">
         <f>AVERAGE(J27:J30)</f>
         <v>75.41749999999999</v>
       </c>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
+      <c r="K31">
+        <f t="shared" si="11"/>
+        <v>1.4950000000000045</v>
+      </c>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
       <c r="R31" s="11"/>
-      <c r="S31" s="12"/>
+      <c r="S31" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="L27:Q31"/>
-    <mergeCell ref="R27:R31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="L26:Q26"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="L19:Q23"/>
+    <mergeCell ref="R3:R7"/>
+    <mergeCell ref="R11:R15"/>
+    <mergeCell ref="R19:R23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="L18:Q18"/>
     <mergeCell ref="L2:Q2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="L3:Q7"/>
@@ -1690,16 +1837,16 @@
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="C4:C7"/>
-    <mergeCell ref="R3:R7"/>
-    <mergeCell ref="R11:R15"/>
-    <mergeCell ref="R19:R23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="L19:Q23"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="L27:Q31"/>
+    <mergeCell ref="R27:R31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1707,6 +1854,1586 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7C918E-EA30-432D-A1C4-E9136D7B3B39}">
+  <dimension ref="A1:U39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="6" max="6" width="6.21875" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>75.290000000000006</v>
+      </c>
+      <c r="F2">
+        <v>88.48</v>
+      </c>
+      <c r="G2">
+        <f>E2-F2</f>
+        <v>-13.189999999999998</v>
+      </c>
+      <c r="H2">
+        <v>84.2</v>
+      </c>
+      <c r="I2">
+        <f>E2-H2</f>
+        <v>-8.9099999999999966</v>
+      </c>
+      <c r="J2">
+        <v>83.6</v>
+      </c>
+      <c r="K2">
+        <f>E2 - J2</f>
+        <v>-8.3099999999999881</v>
+      </c>
+      <c r="L2">
+        <v>75.2</v>
+      </c>
+      <c r="M2">
+        <f>E2-L2</f>
+        <v>9.0000000000003411E-2</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="12"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>73.040000000000006</v>
+      </c>
+      <c r="F3">
+        <v>83.83</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G6" si="0">E3-F3</f>
+        <v>-10.789999999999992</v>
+      </c>
+      <c r="H3">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="I3">
+        <f>E3-H3</f>
+        <v>-5.0599999999999881</v>
+      </c>
+      <c r="J3">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K6" si="1">E3 - J3</f>
+        <v>-6.5599999999999881</v>
+      </c>
+      <c r="L3">
+        <v>74.27</v>
+      </c>
+      <c r="M3">
+        <f>E3-L3</f>
+        <v>-1.2299999999999898</v>
+      </c>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>95.63</v>
+      </c>
+      <c r="F4">
+        <v>96.59</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>-0.96000000000000796</v>
+      </c>
+      <c r="H4">
+        <v>95.3</v>
+      </c>
+      <c r="I4">
+        <f>E4-H4</f>
+        <v>0.32999999999999829</v>
+      </c>
+      <c r="J4">
+        <v>95.8</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>-0.17000000000000171</v>
+      </c>
+      <c r="L4">
+        <v>93.29</v>
+      </c>
+      <c r="M4">
+        <f>E4-L4</f>
+        <v>2.3399999999999892</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>67.44</v>
+      </c>
+      <c r="F5">
+        <v>82.92</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>-15.480000000000004</v>
+      </c>
+      <c r="H5">
+        <v>74.7</v>
+      </c>
+      <c r="I5">
+        <f>E5-H5</f>
+        <v>-7.2600000000000051</v>
+      </c>
+      <c r="J5">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>-10.159999999999997</v>
+      </c>
+      <c r="L5">
+        <v>58.91</v>
+      </c>
+      <c r="M5">
+        <f>E5-L5</f>
+        <v>8.5300000000000011</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <f>AVERAGE(E2:E5)</f>
+        <v>77.849999999999994</v>
+      </c>
+      <c r="F6" s="2">
+        <f>AVERAGE(F2:F5)</f>
+        <v>87.954999999999998</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>-10.105000000000004</v>
+      </c>
+      <c r="H6" s="2">
+        <f>AVERAGE(H2:H5)</f>
+        <v>83.075000000000003</v>
+      </c>
+      <c r="I6">
+        <f>E6-H6</f>
+        <v>-5.2250000000000085</v>
+      </c>
+      <c r="J6">
+        <v>84.1</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>-6.25</v>
+      </c>
+      <c r="L6" s="2">
+        <f>AVERAGE(L2:L5)</f>
+        <v>75.41749999999999</v>
+      </c>
+      <c r="M6">
+        <f>E6-L6</f>
+        <v>2.4325000000000045</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>76.66</v>
+      </c>
+      <c r="F10">
+        <v>88.48</v>
+      </c>
+      <c r="G10">
+        <f>E10-F10</f>
+        <v>-11.820000000000007</v>
+      </c>
+      <c r="H10">
+        <v>84.2</v>
+      </c>
+      <c r="I10">
+        <f>E10 - H10</f>
+        <v>-7.5400000000000063</v>
+      </c>
+      <c r="J10">
+        <v>83.6</v>
+      </c>
+      <c r="K10">
+        <f>E10 - J10</f>
+        <v>-6.9399999999999977</v>
+      </c>
+      <c r="L10">
+        <v>75.2</v>
+      </c>
+      <c r="M10">
+        <f>E10-L10</f>
+        <v>1.4599999999999937</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>76.11</v>
+      </c>
+      <c r="F11">
+        <v>83.83</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:G14" si="2">E11-F11</f>
+        <v>-7.7199999999999989</v>
+      </c>
+      <c r="H11">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="I11">
+        <f>E11 - H11</f>
+        <v>-1.9899999999999949</v>
+      </c>
+      <c r="J11">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ref="K11:K14" si="3">E11 - J11</f>
+        <v>-3.4899999999999949</v>
+      </c>
+      <c r="L11">
+        <v>74.27</v>
+      </c>
+      <c r="M11">
+        <f>E11-L11</f>
+        <v>1.8400000000000034</v>
+      </c>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>94.97</v>
+      </c>
+      <c r="F12">
+        <v>96.59</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>-1.6200000000000045</v>
+      </c>
+      <c r="H12">
+        <v>95.3</v>
+      </c>
+      <c r="I12">
+        <f>E12 - H12</f>
+        <v>-0.32999999999999829</v>
+      </c>
+      <c r="J12">
+        <v>95.8</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>-0.82999999999999829</v>
+      </c>
+      <c r="L12">
+        <v>93.29</v>
+      </c>
+      <c r="M12">
+        <f>E12-L12</f>
+        <v>1.6799999999999926</v>
+      </c>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>65.48</v>
+      </c>
+      <c r="F13">
+        <v>82.92</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>-17.439999999999998</v>
+      </c>
+      <c r="H13">
+        <v>74.7</v>
+      </c>
+      <c r="I13">
+        <f>E13 - H13</f>
+        <v>-9.2199999999999989</v>
+      </c>
+      <c r="J13">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>-12.11999999999999</v>
+      </c>
+      <c r="L13">
+        <v>58.91</v>
+      </c>
+      <c r="M13">
+        <f>E13-L13</f>
+        <v>6.5700000000000074</v>
+      </c>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <f>AVERAGE(E10:E13)</f>
+        <v>78.304999999999993</v>
+      </c>
+      <c r="F14" s="2">
+        <f>AVERAGE(F10:F13)</f>
+        <v>87.954999999999998</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>-9.6500000000000057</v>
+      </c>
+      <c r="H14" s="2">
+        <f>AVERAGE(H10:H13)</f>
+        <v>83.075000000000003</v>
+      </c>
+      <c r="I14">
+        <f>E14 - H14</f>
+        <v>-4.7700000000000102</v>
+      </c>
+      <c r="J14">
+        <v>84.1</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>-5.7950000000000017</v>
+      </c>
+      <c r="L14" s="2">
+        <f>AVERAGE(L10:L13)</f>
+        <v>75.41749999999999</v>
+      </c>
+      <c r="M14">
+        <f>E14-L14</f>
+        <v>2.8875000000000028</v>
+      </c>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>77.58</v>
+      </c>
+      <c r="F18">
+        <v>88.48</v>
+      </c>
+      <c r="G18">
+        <f>E18-F18</f>
+        <v>-10.900000000000006</v>
+      </c>
+      <c r="H18">
+        <v>84.2</v>
+      </c>
+      <c r="I18">
+        <f>E18 - H18</f>
+        <v>-6.6200000000000045</v>
+      </c>
+      <c r="J18">
+        <v>83.6</v>
+      </c>
+      <c r="K18">
+        <f>E18 - J18</f>
+        <v>-6.019999999999996</v>
+      </c>
+      <c r="L18">
+        <v>75.2</v>
+      </c>
+      <c r="M18">
+        <f>E18-L18</f>
+        <v>2.3799999999999955</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>76.11</v>
+      </c>
+      <c r="F19">
+        <v>83.83</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ref="G19:G22" si="4">E19-F19</f>
+        <v>-7.7199999999999989</v>
+      </c>
+      <c r="H19">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="I19">
+        <f>E19 - H19</f>
+        <v>-1.9899999999999949</v>
+      </c>
+      <c r="J19">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ref="K19:K22" si="5">E19 - J19</f>
+        <v>-3.4899999999999949</v>
+      </c>
+      <c r="L19">
+        <v>74.27</v>
+      </c>
+      <c r="M19">
+        <f>E19-L19</f>
+        <v>1.8400000000000034</v>
+      </c>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>94.97</v>
+      </c>
+      <c r="F20">
+        <v>96.59</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>-1.6200000000000045</v>
+      </c>
+      <c r="H20">
+        <v>95.3</v>
+      </c>
+      <c r="I20">
+        <f>E20 - H20</f>
+        <v>-0.32999999999999829</v>
+      </c>
+      <c r="J20">
+        <v>95.8</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="5"/>
+        <v>-0.82999999999999829</v>
+      </c>
+      <c r="L20">
+        <v>93.29</v>
+      </c>
+      <c r="M20">
+        <f>E20-L20</f>
+        <v>1.6799999999999926</v>
+      </c>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>65.48</v>
+      </c>
+      <c r="F21">
+        <v>82.92</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>-17.439999999999998</v>
+      </c>
+      <c r="H21">
+        <v>74.7</v>
+      </c>
+      <c r="I21">
+        <f>E21 - H21</f>
+        <v>-9.2199999999999989</v>
+      </c>
+      <c r="J21">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="5"/>
+        <v>-12.11999999999999</v>
+      </c>
+      <c r="L21">
+        <v>58.91</v>
+      </c>
+      <c r="M21">
+        <f>E21-L21</f>
+        <v>6.5700000000000074</v>
+      </c>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <f>AVERAGE(E18:E21)</f>
+        <v>78.534999999999997</v>
+      </c>
+      <c r="F22" s="2">
+        <f>AVERAGE(F18:F21)</f>
+        <v>87.954999999999998</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>-9.4200000000000017</v>
+      </c>
+      <c r="H22" s="2">
+        <f>AVERAGE(H18:H21)</f>
+        <v>83.075000000000003</v>
+      </c>
+      <c r="I22">
+        <f>E22 - H22</f>
+        <v>-4.5400000000000063</v>
+      </c>
+      <c r="J22">
+        <v>84.1</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="5"/>
+        <v>-5.5649999999999977</v>
+      </c>
+      <c r="L22" s="2">
+        <f>AVERAGE(L18:L21)</f>
+        <v>75.41749999999999</v>
+      </c>
+      <c r="M22">
+        <f>E22-L22</f>
+        <v>3.1175000000000068</v>
+      </c>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" t="s">
+        <v>53</v>
+      </c>
+      <c r="L25" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" t="s">
+        <v>16</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>77.58</v>
+      </c>
+      <c r="F26">
+        <v>88.48</v>
+      </c>
+      <c r="G26">
+        <f>E26-F26</f>
+        <v>-10.900000000000006</v>
+      </c>
+      <c r="H26">
+        <v>84.2</v>
+      </c>
+      <c r="I26">
+        <f>E26 - H26</f>
+        <v>-6.6200000000000045</v>
+      </c>
+      <c r="J26">
+        <v>83.6</v>
+      </c>
+      <c r="K26">
+        <f>E26 - J26</f>
+        <v>-6.019999999999996</v>
+      </c>
+      <c r="L26">
+        <v>75.2</v>
+      </c>
+      <c r="M26">
+        <f>E26-L26</f>
+        <v>2.3799999999999955</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>76.11</v>
+      </c>
+      <c r="F27">
+        <v>83.83</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27:G30" si="6">E27-F27</f>
+        <v>-7.7199999999999989</v>
+      </c>
+      <c r="H27">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="I27">
+        <f>E27 - H27</f>
+        <v>-1.9899999999999949</v>
+      </c>
+      <c r="J27">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ref="K27:K30" si="7">E27 - J27</f>
+        <v>-3.4899999999999949</v>
+      </c>
+      <c r="L27">
+        <v>74.27</v>
+      </c>
+      <c r="M27">
+        <f>E27-L27</f>
+        <v>1.8400000000000034</v>
+      </c>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28">
+        <v>94.97</v>
+      </c>
+      <c r="F28">
+        <v>96.59</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="6"/>
+        <v>-1.6200000000000045</v>
+      </c>
+      <c r="H28">
+        <v>95.3</v>
+      </c>
+      <c r="I28">
+        <f>E28 - H28</f>
+        <v>-0.32999999999999829</v>
+      </c>
+      <c r="J28">
+        <v>95.8</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="7"/>
+        <v>-0.82999999999999829</v>
+      </c>
+      <c r="L28">
+        <v>93.29</v>
+      </c>
+      <c r="M28">
+        <f>E28-L28</f>
+        <v>1.6799999999999926</v>
+      </c>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>65.48</v>
+      </c>
+      <c r="F29">
+        <v>82.92</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="6"/>
+        <v>-17.439999999999998</v>
+      </c>
+      <c r="H29">
+        <v>74.7</v>
+      </c>
+      <c r="I29">
+        <f>E29 - H29</f>
+        <v>-9.2199999999999989</v>
+      </c>
+      <c r="J29">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="7"/>
+        <v>-12.11999999999999</v>
+      </c>
+      <c r="L29">
+        <v>58.91</v>
+      </c>
+      <c r="M29">
+        <f>E29-L29</f>
+        <v>6.5700000000000074</v>
+      </c>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30">
+        <f>AVERAGE(E26:E29)</f>
+        <v>78.534999999999997</v>
+      </c>
+      <c r="F30" s="2">
+        <f>AVERAGE(F26:F29)</f>
+        <v>87.954999999999998</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="6"/>
+        <v>-9.4200000000000017</v>
+      </c>
+      <c r="H30" s="2">
+        <f>AVERAGE(H26:H29)</f>
+        <v>83.075000000000003</v>
+      </c>
+      <c r="I30">
+        <f>E30 - H30</f>
+        <v>-4.5400000000000063</v>
+      </c>
+      <c r="J30">
+        <v>84.1</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="7"/>
+        <v>-5.5649999999999977</v>
+      </c>
+      <c r="L30" s="2">
+        <f>AVERAGE(L26:L29)</f>
+        <v>75.41749999999999</v>
+      </c>
+      <c r="M30">
+        <f>E30-L30</f>
+        <v>3.1175000000000068</v>
+      </c>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" t="s">
+        <v>52</v>
+      </c>
+      <c r="K34" t="s">
+        <v>53</v>
+      </c>
+      <c r="L34" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34" t="s">
+        <v>16</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>77.58</v>
+      </c>
+      <c r="F35">
+        <v>88.48</v>
+      </c>
+      <c r="G35">
+        <f>E35-F35</f>
+        <v>-10.900000000000006</v>
+      </c>
+      <c r="H35">
+        <v>84.2</v>
+      </c>
+      <c r="I35">
+        <f>E35 - H35</f>
+        <v>-6.6200000000000045</v>
+      </c>
+      <c r="J35">
+        <v>83.6</v>
+      </c>
+      <c r="K35">
+        <f>E35 - J35</f>
+        <v>-6.019999999999996</v>
+      </c>
+      <c r="L35">
+        <v>75.2</v>
+      </c>
+      <c r="M35">
+        <f>E35-L35</f>
+        <v>2.3799999999999955</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>76.11</v>
+      </c>
+      <c r="F36">
+        <v>83.83</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ref="G36:G39" si="8">E36-F36</f>
+        <v>-7.7199999999999989</v>
+      </c>
+      <c r="H36">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="I36">
+        <f>E36 - H36</f>
+        <v>-1.9899999999999949</v>
+      </c>
+      <c r="J36">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ref="K36:K39" si="9">E36 - J36</f>
+        <v>-3.4899999999999949</v>
+      </c>
+      <c r="L36">
+        <v>74.27</v>
+      </c>
+      <c r="M36">
+        <f>E36-L36</f>
+        <v>1.8400000000000034</v>
+      </c>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>94.97</v>
+      </c>
+      <c r="F37">
+        <v>96.59</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="8"/>
+        <v>-1.6200000000000045</v>
+      </c>
+      <c r="H37">
+        <v>95.3</v>
+      </c>
+      <c r="I37">
+        <f>E37 - H37</f>
+        <v>-0.32999999999999829</v>
+      </c>
+      <c r="J37">
+        <v>95.8</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="9"/>
+        <v>-0.82999999999999829</v>
+      </c>
+      <c r="L37">
+        <v>93.29</v>
+      </c>
+      <c r="M37">
+        <f>E37-L37</f>
+        <v>1.6799999999999926</v>
+      </c>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>65.48</v>
+      </c>
+      <c r="F38">
+        <v>82.92</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="8"/>
+        <v>-17.439999999999998</v>
+      </c>
+      <c r="H38">
+        <v>74.7</v>
+      </c>
+      <c r="I38">
+        <f>E38 - H38</f>
+        <v>-9.2199999999999989</v>
+      </c>
+      <c r="J38">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="9"/>
+        <v>-12.11999999999999</v>
+      </c>
+      <c r="L38">
+        <v>58.91</v>
+      </c>
+      <c r="M38">
+        <f>E38-L38</f>
+        <v>6.5700000000000074</v>
+      </c>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <f>AVERAGE(E35:E38)</f>
+        <v>78.534999999999997</v>
+      </c>
+      <c r="F39" s="2">
+        <f>AVERAGE(F35:F38)</f>
+        <v>87.954999999999998</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="8"/>
+        <v>-9.4200000000000017</v>
+      </c>
+      <c r="H39" s="2">
+        <f>AVERAGE(H35:H38)</f>
+        <v>83.075000000000003</v>
+      </c>
+      <c r="I39">
+        <f>E39 - H39</f>
+        <v>-4.5400000000000063</v>
+      </c>
+      <c r="J39">
+        <v>84.1</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="9"/>
+        <v>-5.5649999999999977</v>
+      </c>
+      <c r="L39" s="2">
+        <f>AVERAGE(L35:L38)</f>
+        <v>75.41749999999999</v>
+      </c>
+      <c r="M39">
+        <f>E39-L39</f>
+        <v>3.1175000000000068</v>
+      </c>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="T35:U39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="N34:S34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="N35:S39"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="N26:S30"/>
+    <mergeCell ref="T26:U30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="T18:U22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="N25:S25"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="N17:S17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="N18:S22"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="N10:S14"/>
+    <mergeCell ref="T10:U14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="T2:U6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="N2:S6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609EF84C-C153-47BA-9E02-DFC161A00D11}">
   <dimension ref="A1:S6"/>
   <sheetViews>
@@ -1724,14 +3451,14 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="9"/>
       <c r="F1" t="s">
         <v>11</v>
       </c>
@@ -1750,20 +3477,20 @@
       <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
       <c r="R1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B2" t="s">
@@ -1784,21 +3511,21 @@
       <c r="J2">
         <v>75.2</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
@@ -1813,19 +3540,19 @@
       <c r="J3">
         <v>74.27</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
       <c r="D4" t="s">
         <v>9</v>
       </c>
@@ -1838,19 +3565,19 @@
       <c r="J4">
         <v>93.29</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
       <c r="D5" t="s">
         <v>10</v>
       </c>
@@ -1863,19 +3590,19 @@
       <c r="J5">
         <v>58.91</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
       <c r="D6" t="s">
         <v>14</v>
       </c>
@@ -1891,25 +3618,25 @@
         <f>AVERAGE(J2:J5)</f>
         <v>75.41749999999999</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="L1:Q1"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="L2:Q6"/>
     <mergeCell ref="R2:S6"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="L1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/结果.xlsx
+++ b/结果.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dassl2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA187EF-0982-46D4-8968-2E6E6BE35E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DC71B8-BAC9-4259-BCE3-5AEF06AA1B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{79195763-0B37-44CA-843D-BD2B45EE2572}"/>
   </bookViews>
   <sheets>
     <sheet name="SplitNet" sheetId="1" r:id="rId1"/>
     <sheet name="Uncertainty" sheetId="3" r:id="rId2"/>
-    <sheet name="模板" sheetId="2" r:id="rId3"/>
+    <sheet name="其他" sheetId="5" r:id="rId3"/>
+    <sheet name="Reimplement" sheetId="4" r:id="rId4"/>
+    <sheet name="模板" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="82">
   <si>
     <t>实验版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,10 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>因为模型是基于多视角学习的，所以可以其中一个进行不确定建模，另一个保持不变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Uncertainty V2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,6 +248,122 @@
   </si>
   <si>
     <t>Exp-DSU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAIG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与论文中的差距有点大了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch=25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为模型是基于多视角学习的，所以可以其中一个进行不确定建模，另一个保持不变.增强概率为100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uncertainty V2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即将混淆概率设置成0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收敛程度有限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SplitNet V3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epoch = 25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对单一空间维度划分,使用分割的概率为0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SplitNet V4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SplitNet_V4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对单一空间维度进行划分，最终结果是两个分类器对整体特征进行分类的结果的均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果变好，但是有限，这似乎与训练过程中的特征多样性相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO：多随机种子实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO：收敛性实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uncertainty V2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SplitNet_V2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多样化混淆样式，50%进行混淆，其中的50%两个都进行混淆，剩下的50%只混淆其中一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也许这种随机化方法并不能生成足够多样的样本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-stylemix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch=50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波动值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准确度%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uncertainty V2.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SplitNet_V2.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用论文中的混淆方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原先的方法在推断的时候使用了混淆，这可能导致性能下降，但是测试发现并没有</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -260,7 +374,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,21 +398,82 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -310,7 +485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -327,7 +502,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -341,6 +522,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -349,6 +536,21 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -665,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC0E7C2-64E0-4C95-997A-A0D48152339F}">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -698,14 +900,14 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="13"/>
       <c r="F2" t="s">
         <v>11</v>
       </c>
@@ -724,20 +926,20 @@
       <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
       <c r="R2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B3" t="s">
@@ -773,25 +975,25 @@
         <f>E3-J3</f>
         <v>-2.4500000000000028</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10" t="s">
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="S3" s="6"/>
+      <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
@@ -821,19 +1023,19 @@
         <f t="shared" ref="K4:K7" si="2">E4-J4</f>
         <v>-0.20999999999999375</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="6"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
       <c r="D5" t="s">
         <v>9</v>
       </c>
@@ -861,19 +1063,19 @@
         <f t="shared" si="2"/>
         <v>1.6199999999999903</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="6"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="8"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
       <c r="D6" t="s">
         <v>10</v>
       </c>
@@ -901,19 +1103,19 @@
         <f t="shared" si="2"/>
         <v>8.0700000000000074</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="6"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
       <c r="D7" t="s">
         <v>14</v>
       </c>
@@ -945,14 +1147,14 @@
         <f t="shared" si="2"/>
         <v>1.7575000000000074</v>
       </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="6"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="8"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -963,43 +1165,43 @@
       <c r="H8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="6"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="8"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="6"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="13"/>
       <c r="F10" t="s">
         <v>11</v>
       </c>
@@ -1018,21 +1220,21 @@
       <c r="K10" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="7" t="s">
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="S10" s="6"/>
+      <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
@@ -1068,25 +1270,25 @@
         <f xml:space="preserve"> E11 - J11</f>
         <v>3.019999999999996</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10" t="s">
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="S11" s="6"/>
+      <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D12" t="s">
@@ -1116,19 +1318,19 @@
         <f t="shared" ref="K12:K15" si="5" xml:space="preserve"> E12 - J12</f>
         <v>0.82000000000000739</v>
       </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="6"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
       <c r="D13" t="s">
         <v>9</v>
       </c>
@@ -1156,19 +1358,19 @@
         <f t="shared" si="5"/>
         <v>1.3199999999999932</v>
       </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="6"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="8"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
       <c r="D14" t="s">
         <v>10</v>
       </c>
@@ -1196,19 +1398,19 @@
         <f t="shared" si="5"/>
         <v>6.3599999999999994</v>
       </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="6"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="8"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
       <c r="D15" t="s">
         <v>14</v>
       </c>
@@ -1240,47 +1442,47 @@
         <f t="shared" si="5"/>
         <v>2.8800000000000097</v>
       </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="6"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="8"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="6"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="8"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="6"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="8"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="13"/>
       <c r="F18" t="s">
         <v>11</v>
       </c>
@@ -1299,21 +1501,21 @@
       <c r="K18" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="L18" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="7" t="s">
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="S18" s="6"/>
+      <c r="S18" s="8"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B19" t="s">
@@ -1349,25 +1551,25 @@
         <f>E19-J19</f>
         <v>3.7599999999999909</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10" t="s">
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="S19" s="6"/>
+      <c r="S19" s="8"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D20" t="s">
@@ -1397,19 +1599,19 @@
         <f t="shared" ref="K20:K23" si="8">E20-J20</f>
         <v>0.90000000000000568</v>
       </c>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="6"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="8"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
       <c r="D21" t="s">
         <v>9</v>
       </c>
@@ -1437,19 +1639,19 @@
         <f t="shared" si="8"/>
         <v>1.4399999999999977</v>
       </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="6"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="8"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
       <c r="D22" t="s">
         <v>10</v>
       </c>
@@ -1477,19 +1679,19 @@
         <f t="shared" si="8"/>
         <v>6.6400000000000006</v>
       </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="6"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="8"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
       <c r="D23" t="s">
         <v>14</v>
       </c>
@@ -1521,49 +1723,49 @@
         <f t="shared" si="8"/>
         <v>3.1850000000000165</v>
       </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="6"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="8"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="6"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="8"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="6"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="8"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9" t="s">
+      <c r="C26" s="13"/>
+      <c r="D26" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="9"/>
+      <c r="E26" s="13"/>
       <c r="F26" t="s">
         <v>11</v>
       </c>
@@ -1582,21 +1784,21 @@
       <c r="K26" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="10" t="s">
+      <c r="L26" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="7" t="s">
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="S26" s="6"/>
+      <c r="S26" s="8"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B27" t="s">
@@ -1632,25 +1834,25 @@
         <f>E27-J27</f>
         <v>-1.3700000000000045</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="L27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="11" t="s">
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="S27" s="8"/>
+      <c r="S27" s="10"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D28" t="s">
@@ -1680,19 +1882,19 @@
         <f t="shared" ref="K28:K31" si="11">E28-J28</f>
         <v>2.9100000000000108</v>
       </c>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="8"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="10"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
       <c r="D29" t="s">
         <v>9</v>
       </c>
@@ -1720,19 +1922,19 @@
         <f t="shared" si="11"/>
         <v>1.0799999999999983</v>
       </c>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="8"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="10"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
       <c r="D30" t="s">
         <v>10</v>
       </c>
@@ -1760,19 +1962,19 @@
         <f t="shared" si="11"/>
         <v>3.3600000000000065</v>
       </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="8"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="10"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
       <c r="D31" t="s">
         <v>14</v>
       </c>
@@ -1804,27 +2006,549 @@
         <f t="shared" si="11"/>
         <v>1.4950000000000045</v>
       </c>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="8"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="10"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>73.83</v>
+      </c>
+      <c r="F35">
+        <v>88.48</v>
+      </c>
+      <c r="G35">
+        <f>E35-F35</f>
+        <v>-14.650000000000006</v>
+      </c>
+      <c r="H35">
+        <v>84.2</v>
+      </c>
+      <c r="I35">
+        <f>E35-H35</f>
+        <v>-10.370000000000005</v>
+      </c>
+      <c r="J35">
+        <v>75.2</v>
+      </c>
+      <c r="K35">
+        <f>E35-J35</f>
+        <v>-1.3700000000000045</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="15"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>77.180000000000007</v>
+      </c>
+      <c r="F36">
+        <v>83.83</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ref="G36:G39" si="12">E36-F36</f>
+        <v>-6.6499999999999915</v>
+      </c>
+      <c r="H36">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ref="I36:I39" si="13">E36-H36</f>
+        <v>-0.91999999999998749</v>
+      </c>
+      <c r="J36">
+        <v>74.27</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ref="K36:K39" si="14">E36-J36</f>
+        <v>2.9100000000000108</v>
+      </c>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="15"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>94.37</v>
+      </c>
+      <c r="F37">
+        <v>96.59</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="12"/>
+        <v>-2.2199999999999989</v>
+      </c>
+      <c r="H37">
+        <v>95.3</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="13"/>
+        <v>-0.92999999999999261</v>
+      </c>
+      <c r="J37">
+        <v>93.29</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="14"/>
+        <v>1.0799999999999983</v>
+      </c>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="15"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>62.27</v>
+      </c>
+      <c r="F38">
+        <v>82.92</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="12"/>
+        <v>-20.65</v>
+      </c>
+      <c r="H38">
+        <v>74.7</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="13"/>
+        <v>-12.43</v>
+      </c>
+      <c r="J38">
+        <v>58.91</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="14"/>
+        <v>3.3600000000000065</v>
+      </c>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="15"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <f>AVERAGE(E35:E38)</f>
+        <v>76.912499999999994</v>
+      </c>
+      <c r="F39" s="2">
+        <f>AVERAGE(F35:F38)</f>
+        <v>87.954999999999998</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="12"/>
+        <v>-11.042500000000004</v>
+      </c>
+      <c r="H39" s="2">
+        <f>AVERAGE(H35:H38)</f>
+        <v>83.075000000000003</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="13"/>
+        <v>-6.1625000000000085</v>
+      </c>
+      <c r="J39" s="2">
+        <f>AVERAGE(J35:J38)</f>
+        <v>75.41749999999999</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="14"/>
+        <v>1.4950000000000045</v>
+      </c>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="15"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <v>73.83</v>
+      </c>
+      <c r="F43">
+        <v>88.48</v>
+      </c>
+      <c r="G43">
+        <f>E43-F43</f>
+        <v>-14.650000000000006</v>
+      </c>
+      <c r="H43">
+        <v>84.2</v>
+      </c>
+      <c r="I43">
+        <f>E43-H43</f>
+        <v>-10.370000000000005</v>
+      </c>
+      <c r="J43">
+        <v>75.2</v>
+      </c>
+      <c r="K43">
+        <f>E43-J43</f>
+        <v>-1.3700000000000045</v>
+      </c>
+      <c r="L43" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="15"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <v>77.180000000000007</v>
+      </c>
+      <c r="F44">
+        <v>83.83</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ref="G44:G47" si="15">E44-F44</f>
+        <v>-6.6499999999999915</v>
+      </c>
+      <c r="H44">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="I44">
+        <f t="shared" ref="I44:I47" si="16">E44-H44</f>
+        <v>-0.91999999999998749</v>
+      </c>
+      <c r="J44">
+        <v>74.27</v>
+      </c>
+      <c r="K44">
+        <f t="shared" ref="K44:K47" si="17">E44-J44</f>
+        <v>2.9100000000000108</v>
+      </c>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="15"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45">
+        <v>94.37</v>
+      </c>
+      <c r="F45">
+        <v>96.59</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="15"/>
+        <v>-2.2199999999999989</v>
+      </c>
+      <c r="H45">
+        <v>95.3</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="16"/>
+        <v>-0.92999999999999261</v>
+      </c>
+      <c r="J45">
+        <v>93.29</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="17"/>
+        <v>1.0799999999999983</v>
+      </c>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="15"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <v>62.27</v>
+      </c>
+      <c r="F46">
+        <v>82.92</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="15"/>
+        <v>-20.65</v>
+      </c>
+      <c r="H46">
+        <v>74.7</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="16"/>
+        <v>-12.43</v>
+      </c>
+      <c r="J46">
+        <v>58.91</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="17"/>
+        <v>3.3600000000000065</v>
+      </c>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="15"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47">
+        <f>AVERAGE(E43:E46)</f>
+        <v>76.912499999999994</v>
+      </c>
+      <c r="F47" s="2">
+        <f>AVERAGE(F43:F46)</f>
+        <v>87.954999999999998</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="15"/>
+        <v>-11.042500000000004</v>
+      </c>
+      <c r="H47" s="2">
+        <f>AVERAGE(H43:H46)</f>
+        <v>83.075000000000003</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="16"/>
+        <v>-6.1625000000000085</v>
+      </c>
+      <c r="J47" s="2">
+        <f>AVERAGE(J43:J46)</f>
+        <v>75.41749999999999</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="17"/>
+        <v>1.4950000000000045</v>
+      </c>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="R3:R7"/>
-    <mergeCell ref="R11:R15"/>
-    <mergeCell ref="R19:R23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="L18:Q18"/>
+  <mergeCells count="48">
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="L27:Q31"/>
+    <mergeCell ref="R27:R31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="L19:Q23"/>
     <mergeCell ref="L2:Q2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="L3:Q7"/>
@@ -1837,16 +2561,32 @@
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="C4:C7"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="L26:Q26"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="L19:Q23"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="L27:Q31"/>
-    <mergeCell ref="R27:R31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="R3:R7"/>
+    <mergeCell ref="R11:R15"/>
+    <mergeCell ref="R19:R23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="L34:Q34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="L35:Q39"/>
+    <mergeCell ref="R35:R39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="L42:Q42"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="L43:Q47"/>
+    <mergeCell ref="R43:R47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1855,10 +2595,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7C918E-EA30-432D-A1C4-E9136D7B3B39}">
-  <dimension ref="A1:U39"/>
+  <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="N51" sqref="N51:S55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1877,14 +2617,14 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9"/>
+      <c r="E1" s="13"/>
       <c r="F1" t="s">
         <v>11</v>
       </c>
@@ -1898,10 +2638,10 @@
         <v>20</v>
       </c>
       <c r="J1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" t="s">
         <v>52</v>
-      </c>
-      <c r="K1" t="s">
-        <v>53</v>
       </c>
       <c r="L1" t="s">
         <v>25</v>
@@ -1909,20 +2649,20 @@
       <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
       <c r="T1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B2" t="s">
@@ -1965,25 +2705,25 @@
         <f>E2-L2</f>
         <v>9.0000000000003411E-2</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="12" t="s">
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="U2" s="12"/>
+      <c r="U2" s="16"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
@@ -2020,19 +2760,19 @@
         <f>E3-L3</f>
         <v>-1.2299999999999898</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
       <c r="D4" t="s">
         <v>9</v>
       </c>
@@ -2067,19 +2807,19 @@
         <f>E4-L4</f>
         <v>2.3399999999999892</v>
       </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
       <c r="D5" t="s">
         <v>10</v>
       </c>
@@ -2114,19 +2854,19 @@
         <f>E5-L5</f>
         <v>8.5300000000000011</v>
       </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
       <c r="D6" t="s">
         <v>14</v>
       </c>
@@ -2165,27 +2905,27 @@
         <f>E6-L6</f>
         <v>2.4325000000000045</v>
       </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="13"/>
       <c r="F9" t="s">
         <v>11</v>
       </c>
@@ -2199,10 +2939,10 @@
         <v>20</v>
       </c>
       <c r="J9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" t="s">
         <v>52</v>
-      </c>
-      <c r="K9" t="s">
-        <v>53</v>
       </c>
       <c r="L9" t="s">
         <v>25</v>
@@ -2210,20 +2950,20 @@
       <c r="M9" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
       <c r="T9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B10" t="s">
@@ -2266,23 +3006,23 @@
         <f>E10-L10</f>
         <v>1.4599999999999937</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
@@ -2319,19 +3059,19 @@
         <f>E11-L11</f>
         <v>1.8400000000000034</v>
       </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
       <c r="D12" t="s">
         <v>9</v>
       </c>
@@ -2366,19 +3106,19 @@
         <f>E12-L12</f>
         <v>1.6799999999999926</v>
       </c>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
       <c r="D13" t="s">
         <v>10</v>
       </c>
@@ -2413,19 +3153,19 @@
         <f>E13-L13</f>
         <v>6.5700000000000074</v>
       </c>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
       <c r="D14" t="s">
         <v>14</v>
       </c>
@@ -2464,14 +3204,14 @@
         <f>E14-L14</f>
         <v>2.8875000000000028</v>
       </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2482,14 +3222,14 @@
       <c r="A17" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="13"/>
       <c r="F17" t="s">
         <v>11</v>
       </c>
@@ -2503,10 +3243,10 @@
         <v>20</v>
       </c>
       <c r="J17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" t="s">
         <v>52</v>
-      </c>
-      <c r="K17" t="s">
-        <v>53</v>
       </c>
       <c r="L17" t="s">
         <v>25</v>
@@ -2514,20 +3254,20 @@
       <c r="M17" t="s">
         <v>16</v>
       </c>
-      <c r="N17" s="9" t="s">
+      <c r="N17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
       <c r="T17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B18" t="s">
@@ -2540,202 +3280,204 @@
         <v>7</v>
       </c>
       <c r="E18">
-        <v>77.58</v>
+        <v>77.540000000000006</v>
       </c>
       <c r="F18">
         <v>88.48</v>
       </c>
       <c r="G18">
         <f>E18-F18</f>
-        <v>-10.900000000000006</v>
+        <v>-10.939999999999998</v>
       </c>
       <c r="H18">
         <v>84.2</v>
       </c>
       <c r="I18">
         <f>E18 - H18</f>
-        <v>-6.6200000000000045</v>
+        <v>-6.6599999999999966</v>
       </c>
       <c r="J18">
         <v>83.6</v>
       </c>
       <c r="K18">
         <f>E18 - J18</f>
-        <v>-6.019999999999996</v>
+        <v>-6.0599999999999881</v>
       </c>
       <c r="L18">
         <v>75.2</v>
       </c>
       <c r="M18">
         <f>E18-L18</f>
-        <v>2.3799999999999955</v>
-      </c>
-      <c r="N18" s="9" t="s">
+        <v>2.3400000000000034</v>
+      </c>
+      <c r="N18" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U18" s="16"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
       <c r="E19">
-        <v>76.11</v>
+        <v>77.52</v>
       </c>
       <c r="F19">
         <v>83.83</v>
       </c>
       <c r="G19">
         <f t="shared" ref="G19:G22" si="4">E19-F19</f>
-        <v>-7.7199999999999989</v>
+        <v>-6.3100000000000023</v>
       </c>
       <c r="H19">
         <v>78.099999999999994</v>
       </c>
       <c r="I19">
         <f>E19 - H19</f>
-        <v>-1.9899999999999949</v>
+        <v>-0.57999999999999829</v>
       </c>
       <c r="J19">
         <v>79.599999999999994</v>
       </c>
       <c r="K19">
         <f t="shared" ref="K19:K22" si="5">E19 - J19</f>
-        <v>-3.4899999999999949</v>
+        <v>-2.0799999999999983</v>
       </c>
       <c r="L19">
         <v>74.27</v>
       </c>
       <c r="M19">
         <f>E19-L19</f>
-        <v>1.8400000000000034</v>
-      </c>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
+        <v>3.25</v>
+      </c>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
       <c r="D20" t="s">
         <v>9</v>
       </c>
       <c r="E20">
-        <v>94.97</v>
+        <v>95.63</v>
       </c>
       <c r="F20">
         <v>96.59</v>
       </c>
       <c r="G20">
         <f t="shared" si="4"/>
-        <v>-1.6200000000000045</v>
+        <v>-0.96000000000000796</v>
       </c>
       <c r="H20">
         <v>95.3</v>
       </c>
       <c r="I20">
         <f>E20 - H20</f>
-        <v>-0.32999999999999829</v>
+        <v>0.32999999999999829</v>
       </c>
       <c r="J20">
         <v>95.8</v>
       </c>
       <c r="K20">
         <f t="shared" si="5"/>
-        <v>-0.82999999999999829</v>
+        <v>-0.17000000000000171</v>
       </c>
       <c r="L20">
         <v>93.29</v>
       </c>
       <c r="M20">
         <f>E20-L20</f>
-        <v>1.6799999999999926</v>
-      </c>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
+        <v>2.3399999999999892</v>
+      </c>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
       <c r="D21" t="s">
         <v>10</v>
       </c>
       <c r="E21">
-        <v>65.48</v>
+        <v>66.5</v>
       </c>
       <c r="F21">
         <v>82.92</v>
       </c>
       <c r="G21">
         <f t="shared" si="4"/>
-        <v>-17.439999999999998</v>
+        <v>-16.420000000000002</v>
       </c>
       <c r="H21">
         <v>74.7</v>
       </c>
       <c r="I21">
         <f>E21 - H21</f>
-        <v>-9.2199999999999989</v>
+        <v>-8.2000000000000028</v>
       </c>
       <c r="J21">
         <v>77.599999999999994</v>
       </c>
       <c r="K21">
         <f t="shared" si="5"/>
-        <v>-12.11999999999999</v>
+        <v>-11.099999999999994</v>
       </c>
       <c r="L21">
         <v>58.91</v>
       </c>
       <c r="M21">
         <f>E21-L21</f>
-        <v>6.5700000000000074</v>
-      </c>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
+        <v>7.5900000000000034</v>
+      </c>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
       <c r="D22" t="s">
         <v>14</v>
       </c>
       <c r="E22">
         <f>AVERAGE(E18:E21)</f>
-        <v>78.534999999999997</v>
+        <v>79.297499999999999</v>
       </c>
       <c r="F22" s="2">
         <f>AVERAGE(F18:F21)</f>
@@ -2743,7 +3485,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="4"/>
-        <v>-9.4200000000000017</v>
+        <v>-8.6574999999999989</v>
       </c>
       <c r="H22" s="2">
         <f>AVERAGE(H18:H21)</f>
@@ -2751,14 +3493,14 @@
       </c>
       <c r="I22">
         <f>E22 - H22</f>
-        <v>-4.5400000000000063</v>
+        <v>-3.7775000000000034</v>
       </c>
       <c r="J22">
         <v>84.1</v>
       </c>
       <c r="K22">
         <f t="shared" si="5"/>
-        <v>-5.5649999999999977</v>
+        <v>-4.8024999999999949</v>
       </c>
       <c r="L22" s="2">
         <f>AVERAGE(L18:L21)</f>
@@ -2766,34 +3508,35 @@
       </c>
       <c r="M22">
         <f>E22-L22</f>
-        <v>3.1175000000000068</v>
-      </c>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
+        <v>3.8800000000000097</v>
+      </c>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>51</v>
+      <c r="A24" s="12"/>
+      <c r="B24" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9" t="s">
+      <c r="C25" s="13"/>
+      <c r="D25" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="9"/>
+      <c r="E25" s="13"/>
       <c r="F25" t="s">
         <v>11</v>
       </c>
@@ -2807,10 +3550,10 @@
         <v>20</v>
       </c>
       <c r="J25" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25" t="s">
         <v>52</v>
-      </c>
-      <c r="K25" t="s">
-        <v>53</v>
       </c>
       <c r="L25" t="s">
         <v>25</v>
@@ -2818,21 +3561,21 @@
       <c r="M25" t="s">
         <v>16</v>
       </c>
-      <c r="N25" s="9" t="s">
+      <c r="N25" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
       <c r="T25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>47</v>
+      <c r="A26" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
@@ -2844,202 +3587,204 @@
         <v>7</v>
       </c>
       <c r="E26">
-        <v>77.58</v>
+        <v>76.510000000000005</v>
       </c>
       <c r="F26">
         <v>88.48</v>
       </c>
       <c r="G26">
         <f>E26-F26</f>
-        <v>-10.900000000000006</v>
+        <v>-11.969999999999999</v>
       </c>
       <c r="H26">
         <v>84.2</v>
       </c>
       <c r="I26">
         <f>E26 - H26</f>
-        <v>-6.6200000000000045</v>
+        <v>-7.6899999999999977</v>
       </c>
       <c r="J26">
         <v>83.6</v>
       </c>
       <c r="K26">
         <f>E26 - J26</f>
-        <v>-6.019999999999996</v>
+        <v>-7.0899999999999892</v>
       </c>
       <c r="L26">
         <v>75.2</v>
       </c>
       <c r="M26">
         <f>E26-L26</f>
-        <v>2.3799999999999955</v>
-      </c>
-      <c r="N26" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
+        <v>1.3100000000000023</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U26" s="16"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
       </c>
       <c r="E27">
-        <v>76.11</v>
+        <v>75.17</v>
       </c>
       <c r="F27">
         <v>83.83</v>
       </c>
       <c r="G27">
         <f t="shared" ref="G27:G30" si="6">E27-F27</f>
-        <v>-7.7199999999999989</v>
+        <v>-8.6599999999999966</v>
       </c>
       <c r="H27">
         <v>78.099999999999994</v>
       </c>
       <c r="I27">
         <f>E27 - H27</f>
-        <v>-1.9899999999999949</v>
+        <v>-2.9299999999999926</v>
       </c>
       <c r="J27">
         <v>79.599999999999994</v>
       </c>
       <c r="K27">
         <f t="shared" ref="K27:K30" si="7">E27 - J27</f>
-        <v>-3.4899999999999949</v>
+        <v>-4.4299999999999926</v>
       </c>
       <c r="L27">
         <v>74.27</v>
       </c>
       <c r="M27">
         <f>E27-L27</f>
-        <v>1.8400000000000034</v>
-      </c>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
+        <v>0.90000000000000568</v>
+      </c>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
       <c r="D28" t="s">
         <v>9</v>
       </c>
       <c r="E28">
-        <v>94.97</v>
+        <v>94.67</v>
       </c>
       <c r="F28">
         <v>96.59</v>
       </c>
       <c r="G28">
         <f t="shared" si="6"/>
-        <v>-1.6200000000000045</v>
+        <v>-1.9200000000000017</v>
       </c>
       <c r="H28">
         <v>95.3</v>
       </c>
       <c r="I28">
         <f>E28 - H28</f>
-        <v>-0.32999999999999829</v>
+        <v>-0.62999999999999545</v>
       </c>
       <c r="J28">
         <v>95.8</v>
       </c>
       <c r="K28">
         <f t="shared" si="7"/>
-        <v>-0.82999999999999829</v>
+        <v>-1.1299999999999955</v>
       </c>
       <c r="L28">
         <v>93.29</v>
       </c>
       <c r="M28">
         <f>E28-L28</f>
-        <v>1.6799999999999926</v>
-      </c>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
+        <v>1.3799999999999955</v>
+      </c>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
       <c r="D29" t="s">
         <v>10</v>
       </c>
       <c r="E29">
-        <v>65.48</v>
+        <v>67.849999999999994</v>
       </c>
       <c r="F29">
         <v>82.92</v>
       </c>
       <c r="G29">
         <f t="shared" si="6"/>
-        <v>-17.439999999999998</v>
+        <v>-15.070000000000007</v>
       </c>
       <c r="H29">
         <v>74.7</v>
       </c>
       <c r="I29">
         <f>E29 - H29</f>
-        <v>-9.2199999999999989</v>
+        <v>-6.8500000000000085</v>
       </c>
       <c r="J29">
         <v>77.599999999999994</v>
       </c>
       <c r="K29">
         <f t="shared" si="7"/>
-        <v>-12.11999999999999</v>
+        <v>-9.75</v>
       </c>
       <c r="L29">
         <v>58.91</v>
       </c>
       <c r="M29">
         <f>E29-L29</f>
-        <v>6.5700000000000074</v>
-      </c>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
+        <v>8.9399999999999977</v>
+      </c>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
       <c r="D30" t="s">
         <v>14</v>
       </c>
       <c r="E30">
         <f>AVERAGE(E26:E29)</f>
-        <v>78.534999999999997</v>
+        <v>78.550000000000011</v>
       </c>
       <c r="F30" s="2">
         <f>AVERAGE(F26:F29)</f>
@@ -3047,7 +3792,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="6"/>
-        <v>-9.4200000000000017</v>
+        <v>-9.4049999999999869</v>
       </c>
       <c r="H30" s="2">
         <f>AVERAGE(H26:H29)</f>
@@ -3055,14 +3800,14 @@
       </c>
       <c r="I30">
         <f>E30 - H30</f>
-        <v>-4.5400000000000063</v>
+        <v>-4.5249999999999915</v>
       </c>
       <c r="J30">
         <v>84.1</v>
       </c>
       <c r="K30">
         <f t="shared" si="7"/>
-        <v>-5.5649999999999977</v>
+        <v>-5.5499999999999829</v>
       </c>
       <c r="L30" s="2">
         <f>AVERAGE(L26:L29)</f>
@@ -3070,363 +3815,1344 @@
       </c>
       <c r="M30">
         <f>E30-L30</f>
-        <v>3.1175000000000068</v>
-      </c>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.1325000000000216</v>
+      </c>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="K33" t="s">
         <v>52</v>
       </c>
-      <c r="K34" t="s">
-        <v>53</v>
-      </c>
-      <c r="L34" t="s">
+      <c r="L33" t="s">
         <v>25</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M33" t="s">
         <v>16</v>
       </c>
-      <c r="N34" s="9" t="s">
+      <c r="N33" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" t="s">
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="V33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
         <v>4</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C34" t="s">
         <v>5</v>
       </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34">
+        <v>79.59</v>
+      </c>
+      <c r="F34">
+        <v>88.48</v>
+      </c>
+      <c r="G34">
+        <f>E34-F34</f>
+        <v>-8.89</v>
+      </c>
+      <c r="H34">
+        <v>84.2</v>
+      </c>
+      <c r="I34">
+        <f>E34 - H34</f>
+        <v>-4.6099999999999994</v>
+      </c>
+      <c r="J34">
+        <v>83.6</v>
+      </c>
+      <c r="K34">
+        <f>E34 - J34</f>
+        <v>-4.0099999999999909</v>
+      </c>
+      <c r="L34">
+        <v>75.2</v>
+      </c>
+      <c r="M34">
+        <f>E34-L34</f>
+        <v>4.3900000000000006</v>
+      </c>
+      <c r="N34" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="U34" s="15"/>
+      <c r="V34">
+        <v>78.81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>6</v>
+      </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E35">
-        <v>77.58</v>
+        <v>77.52</v>
       </c>
       <c r="F35">
-        <v>88.48</v>
+        <v>83.83</v>
       </c>
       <c r="G35">
-        <f>E35-F35</f>
-        <v>-10.900000000000006</v>
+        <f t="shared" ref="G35:G38" si="8">E35-F35</f>
+        <v>-6.3100000000000023</v>
       </c>
       <c r="H35">
-        <v>84.2</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="I35">
         <f>E35 - H35</f>
-        <v>-6.6200000000000045</v>
+        <v>-0.57999999999999829</v>
       </c>
       <c r="J35">
-        <v>83.6</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="K35">
-        <f>E35 - J35</f>
-        <v>-6.019999999999996</v>
+        <f t="shared" ref="K35:K38" si="9">E35 - J35</f>
+        <v>-2.0799999999999983</v>
       </c>
       <c r="L35">
-        <v>75.2</v>
+        <v>74.27</v>
       </c>
       <c r="M35">
         <f>E35-L35</f>
-        <v>2.3799999999999955</v>
-      </c>
-      <c r="N35" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>6</v>
-      </c>
+        <v>3.25</v>
+      </c>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35">
+        <v>74.66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="17"/>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E36">
-        <v>76.11</v>
+        <v>95.39</v>
       </c>
       <c r="F36">
-        <v>83.83</v>
+        <v>96.59</v>
       </c>
       <c r="G36">
-        <f t="shared" ref="G36:G39" si="8">E36-F36</f>
-        <v>-7.7199999999999989</v>
+        <f t="shared" si="8"/>
+        <v>-1.2000000000000028</v>
       </c>
       <c r="H36">
-        <v>78.099999999999994</v>
+        <v>95.3</v>
       </c>
       <c r="I36">
         <f>E36 - H36</f>
-        <v>-1.9899999999999949</v>
+        <v>9.0000000000003411E-2</v>
       </c>
       <c r="J36">
-        <v>79.599999999999994</v>
+        <v>95.8</v>
       </c>
       <c r="K36">
-        <f t="shared" ref="K36:K39" si="9">E36 - J36</f>
-        <v>-3.4899999999999949</v>
+        <f t="shared" si="9"/>
+        <v>-0.40999999999999659</v>
       </c>
       <c r="L36">
-        <v>74.27</v>
+        <v>93.29</v>
       </c>
       <c r="M36">
         <f>E36-L36</f>
-        <v>1.8400000000000034</v>
-      </c>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
+        <v>2.0999999999999943</v>
+      </c>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
+      <c r="V36">
+        <v>95.33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="17"/>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37">
-        <v>94.97</v>
+        <v>70.62</v>
       </c>
       <c r="F37">
-        <v>96.59</v>
+        <v>82.92</v>
       </c>
       <c r="G37">
         <f t="shared" si="8"/>
-        <v>-1.6200000000000045</v>
+        <v>-12.299999999999997</v>
       </c>
       <c r="H37">
-        <v>95.3</v>
+        <v>74.7</v>
       </c>
       <c r="I37">
         <f>E37 - H37</f>
-        <v>-0.32999999999999829</v>
+        <v>-4.0799999999999983</v>
       </c>
       <c r="J37">
-        <v>95.8</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="K37">
         <f t="shared" si="9"/>
-        <v>-0.82999999999999829</v>
+        <v>-6.9799999999999898</v>
       </c>
       <c r="L37">
-        <v>93.29</v>
+        <v>58.91</v>
       </c>
       <c r="M37">
         <f>E37-L37</f>
-        <v>1.6799999999999926</v>
-      </c>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
+        <v>11.710000000000008</v>
+      </c>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="15"/>
+      <c r="V37">
+        <v>68.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="17"/>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E38">
-        <v>65.48</v>
-      </c>
-      <c r="F38">
-        <v>82.92</v>
+        <f>AVERAGE(E34:E37)</f>
+        <v>80.78</v>
+      </c>
+      <c r="F38" s="2">
+        <f>AVERAGE(F34:F37)</f>
+        <v>87.954999999999998</v>
       </c>
       <c r="G38">
         <f t="shared" si="8"/>
-        <v>-17.439999999999998</v>
-      </c>
-      <c r="H38">
-        <v>74.7</v>
+        <v>-7.1749999999999972</v>
+      </c>
+      <c r="H38" s="2">
+        <f>AVERAGE(H34:H37)</f>
+        <v>83.075000000000003</v>
       </c>
       <c r="I38">
         <f>E38 - H38</f>
-        <v>-9.2199999999999989</v>
+        <v>-2.2950000000000017</v>
       </c>
       <c r="J38">
-        <v>77.599999999999994</v>
+        <v>84.1</v>
       </c>
       <c r="K38">
         <f t="shared" si="9"/>
-        <v>-12.11999999999999</v>
-      </c>
-      <c r="L38">
-        <v>58.91</v>
+        <v>-3.3199999999999932</v>
+      </c>
+      <c r="L38" s="2">
+        <f>AVERAGE(L34:L37)</f>
+        <v>75.41749999999999</v>
       </c>
       <c r="M38">
         <f>E38-L38</f>
+        <v>5.3625000000000114</v>
+      </c>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="15"/>
+      <c r="V38">
+        <f>AVERAGE(V34:V37)</f>
+        <v>79.275000000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="F39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" t="s">
+        <v>51</v>
+      </c>
+      <c r="K41" t="s">
+        <v>52</v>
+      </c>
+      <c r="L41" t="s">
+        <v>25</v>
+      </c>
+      <c r="M41" t="s">
+        <v>16</v>
+      </c>
+      <c r="N41" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42">
+        <v>79.83</v>
+      </c>
+      <c r="F42">
+        <v>88.48</v>
+      </c>
+      <c r="G42">
+        <f>E42-F42</f>
+        <v>-8.6500000000000057</v>
+      </c>
+      <c r="H42">
+        <v>84.2</v>
+      </c>
+      <c r="I42">
+        <f>E42 - H42</f>
+        <v>-4.3700000000000045</v>
+      </c>
+      <c r="J42">
+        <v>83.6</v>
+      </c>
+      <c r="K42">
+        <f>E42 - J42</f>
+        <v>-3.769999999999996</v>
+      </c>
+      <c r="L42">
+        <v>75.2</v>
+      </c>
+      <c r="M42">
+        <f>E42-L42</f>
+        <v>4.6299999999999955</v>
+      </c>
+      <c r="N42" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="U42" s="15"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43">
+        <v>74.569999999999993</v>
+      </c>
+      <c r="F43">
+        <v>83.83</v>
+      </c>
+      <c r="G43">
+        <f t="shared" ref="G43:G46" si="10">E43-F43</f>
+        <v>-9.2600000000000051</v>
+      </c>
+      <c r="H43">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="I43">
+        <f>E43 - H43</f>
+        <v>-3.5300000000000011</v>
+      </c>
+      <c r="J43">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="K43">
+        <f t="shared" ref="K43:K46" si="11">E43 - J43</f>
+        <v>-5.0300000000000011</v>
+      </c>
+      <c r="L43">
+        <v>74.27</v>
+      </c>
+      <c r="M43">
+        <f>E43-L43</f>
+        <v>0.29999999999999716</v>
+      </c>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="15"/>
+      <c r="U43" s="15"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44">
+        <v>95.45</v>
+      </c>
+      <c r="F44">
+        <v>96.59</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="10"/>
+        <v>-1.1400000000000006</v>
+      </c>
+      <c r="H44">
+        <v>95.3</v>
+      </c>
+      <c r="I44">
+        <f>E44 - H44</f>
+        <v>0.15000000000000568</v>
+      </c>
+      <c r="J44">
+        <v>95.8</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="11"/>
+        <v>-0.34999999999999432</v>
+      </c>
+      <c r="L44">
+        <v>93.29</v>
+      </c>
+      <c r="M44">
+        <f>E44-L44</f>
+        <v>2.1599999999999966</v>
+      </c>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="15"/>
+      <c r="U44" s="15"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45">
+        <v>69.349999999999994</v>
+      </c>
+      <c r="F45">
+        <v>82.92</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="10"/>
+        <v>-13.570000000000007</v>
+      </c>
+      <c r="H45">
+        <v>74.7</v>
+      </c>
+      <c r="I45">
+        <f>E45 - H45</f>
+        <v>-5.3500000000000085</v>
+      </c>
+      <c r="J45">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="11"/>
+        <v>-8.25</v>
+      </c>
+      <c r="L45">
+        <v>58.91</v>
+      </c>
+      <c r="M45">
+        <f>E45-L45</f>
+        <v>10.439999999999998</v>
+      </c>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="15"/>
+      <c r="U45" s="15"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46">
+        <f>AVERAGE(E42:E45)</f>
+        <v>79.799999999999983</v>
+      </c>
+      <c r="F46" s="2">
+        <f>AVERAGE(F42:F45)</f>
+        <v>87.954999999999998</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="10"/>
+        <v>-8.1550000000000153</v>
+      </c>
+      <c r="H46" s="2">
+        <f>AVERAGE(H42:H45)</f>
+        <v>83.075000000000003</v>
+      </c>
+      <c r="I46">
+        <f>E46 - H46</f>
+        <v>-3.2750000000000199</v>
+      </c>
+      <c r="J46">
+        <v>84.1</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="11"/>
+        <v>-4.3000000000000114</v>
+      </c>
+      <c r="L46" s="2">
+        <f>AVERAGE(L42:L45)</f>
+        <v>75.41749999999999</v>
+      </c>
+      <c r="M46">
+        <f>E46-L46</f>
+        <v>4.3824999999999932</v>
+      </c>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="15"/>
+      <c r="U46" s="15"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="13"/>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" t="s">
+        <v>51</v>
+      </c>
+      <c r="K50" t="s">
+        <v>52</v>
+      </c>
+      <c r="L50" t="s">
+        <v>25</v>
+      </c>
+      <c r="M50" t="s">
+        <v>16</v>
+      </c>
+      <c r="N50" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51">
+        <v>79.83</v>
+      </c>
+      <c r="F51">
+        <v>88.48</v>
+      </c>
+      <c r="G51">
+        <f>E51-F51</f>
+        <v>-8.6500000000000057</v>
+      </c>
+      <c r="H51">
+        <v>84.2</v>
+      </c>
+      <c r="I51">
+        <f>E51 - H51</f>
+        <v>-4.3700000000000045</v>
+      </c>
+      <c r="J51">
+        <v>83.6</v>
+      </c>
+      <c r="K51">
+        <f>E51 - J51</f>
+        <v>-3.769999999999996</v>
+      </c>
+      <c r="L51">
+        <v>75.2</v>
+      </c>
+      <c r="M51">
+        <f>E51-L51</f>
+        <v>4.6299999999999955</v>
+      </c>
+      <c r="N51" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="U51" s="21"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52">
+        <v>74.569999999999993</v>
+      </c>
+      <c r="F52">
+        <v>83.83</v>
+      </c>
+      <c r="G52">
+        <f t="shared" ref="G52:G55" si="12">E52-F52</f>
+        <v>-9.2600000000000051</v>
+      </c>
+      <c r="H52">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="I52">
+        <f>E52 - H52</f>
+        <v>-3.5300000000000011</v>
+      </c>
+      <c r="J52">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="K52">
+        <f t="shared" ref="K52:K55" si="13">E52 - J52</f>
+        <v>-5.0300000000000011</v>
+      </c>
+      <c r="L52">
+        <v>74.27</v>
+      </c>
+      <c r="M52">
+        <f>E52-L52</f>
+        <v>0.29999999999999716</v>
+      </c>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="21"/>
+      <c r="U52" s="21"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53">
+        <v>95.45</v>
+      </c>
+      <c r="F53">
+        <v>96.59</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="12"/>
+        <v>-1.1400000000000006</v>
+      </c>
+      <c r="H53">
+        <v>95.3</v>
+      </c>
+      <c r="I53">
+        <f>E53 - H53</f>
+        <v>0.15000000000000568</v>
+      </c>
+      <c r="J53">
+        <v>95.8</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="13"/>
+        <v>-0.34999999999999432</v>
+      </c>
+      <c r="L53">
+        <v>93.29</v>
+      </c>
+      <c r="M53">
+        <f>E53-L53</f>
+        <v>2.1599999999999966</v>
+      </c>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="21"/>
+      <c r="U53" s="21"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54">
+        <v>69.349999999999994</v>
+      </c>
+      <c r="F54">
+        <v>82.92</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="12"/>
+        <v>-13.570000000000007</v>
+      </c>
+      <c r="H54">
+        <v>74.7</v>
+      </c>
+      <c r="I54">
+        <f>E54 - H54</f>
+        <v>-5.3500000000000085</v>
+      </c>
+      <c r="J54">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="13"/>
+        <v>-8.25</v>
+      </c>
+      <c r="L54">
+        <v>58.91</v>
+      </c>
+      <c r="M54">
+        <f>E54-L54</f>
+        <v>10.439999999999998</v>
+      </c>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="21"/>
+      <c r="U54" s="21"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55">
+        <f>AVERAGE(E51:E54)</f>
+        <v>79.799999999999983</v>
+      </c>
+      <c r="F55" s="2">
+        <f>AVERAGE(F51:F54)</f>
+        <v>87.954999999999998</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="12"/>
+        <v>-8.1550000000000153</v>
+      </c>
+      <c r="H55" s="2">
+        <f>AVERAGE(H51:H54)</f>
+        <v>83.075000000000003</v>
+      </c>
+      <c r="I55">
+        <f>E55 - H55</f>
+        <v>-3.2750000000000199</v>
+      </c>
+      <c r="J55">
+        <v>84.1</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="13"/>
+        <v>-4.3000000000000114</v>
+      </c>
+      <c r="L55" s="2">
+        <f>AVERAGE(L51:L54)</f>
+        <v>75.41749999999999</v>
+      </c>
+      <c r="M55">
+        <f>E55-L55</f>
+        <v>4.3824999999999932</v>
+      </c>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="21"/>
+      <c r="U55" s="21"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="13"/>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" t="s">
+        <v>51</v>
+      </c>
+      <c r="K58" t="s">
+        <v>52</v>
+      </c>
+      <c r="L58" t="s">
+        <v>25</v>
+      </c>
+      <c r="M58" t="s">
+        <v>16</v>
+      </c>
+      <c r="N58" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
+      <c r="T58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59">
+        <v>77.58</v>
+      </c>
+      <c r="F59">
+        <v>88.48</v>
+      </c>
+      <c r="G59">
+        <f>E59-F59</f>
+        <v>-10.900000000000006</v>
+      </c>
+      <c r="H59">
+        <v>84.2</v>
+      </c>
+      <c r="I59">
+        <f>E59 - H59</f>
+        <v>-6.6200000000000045</v>
+      </c>
+      <c r="J59">
+        <v>83.6</v>
+      </c>
+      <c r="K59">
+        <f>E59 - J59</f>
+        <v>-6.019999999999996</v>
+      </c>
+      <c r="L59">
+        <v>75.2</v>
+      </c>
+      <c r="M59">
+        <f>E59-L59</f>
+        <v>2.3799999999999955</v>
+      </c>
+      <c r="N59" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="O59" s="14"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="14"/>
+      <c r="R59" s="14"/>
+      <c r="S59" s="14"/>
+      <c r="T59" s="16"/>
+      <c r="U59" s="16"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60">
+        <v>76.11</v>
+      </c>
+      <c r="F60">
+        <v>83.83</v>
+      </c>
+      <c r="G60">
+        <f t="shared" ref="G60:G63" si="14">E60-F60</f>
+        <v>-7.7199999999999989</v>
+      </c>
+      <c r="H60">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="I60">
+        <f>E60 - H60</f>
+        <v>-1.9899999999999949</v>
+      </c>
+      <c r="J60">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="K60">
+        <f t="shared" ref="K60:K63" si="15">E60 - J60</f>
+        <v>-3.4899999999999949</v>
+      </c>
+      <c r="L60">
+        <v>74.27</v>
+      </c>
+      <c r="M60">
+        <f>E60-L60</f>
+        <v>1.8400000000000034</v>
+      </c>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="14"/>
+      <c r="R60" s="14"/>
+      <c r="S60" s="14"/>
+      <c r="T60" s="16"/>
+      <c r="U60" s="16"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61">
+        <v>94.97</v>
+      </c>
+      <c r="F61">
+        <v>96.59</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="14"/>
+        <v>-1.6200000000000045</v>
+      </c>
+      <c r="H61">
+        <v>95.3</v>
+      </c>
+      <c r="I61">
+        <f>E61 - H61</f>
+        <v>-0.32999999999999829</v>
+      </c>
+      <c r="J61">
+        <v>95.8</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="15"/>
+        <v>-0.82999999999999829</v>
+      </c>
+      <c r="L61">
+        <v>93.29</v>
+      </c>
+      <c r="M61">
+        <f>E61-L61</f>
+        <v>1.6799999999999926</v>
+      </c>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14"/>
+      <c r="Q61" s="14"/>
+      <c r="R61" s="14"/>
+      <c r="S61" s="14"/>
+      <c r="T61" s="16"/>
+      <c r="U61" s="16"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62">
+        <v>65.48</v>
+      </c>
+      <c r="F62">
+        <v>82.92</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="14"/>
+        <v>-17.439999999999998</v>
+      </c>
+      <c r="H62">
+        <v>74.7</v>
+      </c>
+      <c r="I62">
+        <f>E62 - H62</f>
+        <v>-9.2199999999999989</v>
+      </c>
+      <c r="J62">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="15"/>
+        <v>-12.11999999999999</v>
+      </c>
+      <c r="L62">
+        <v>58.91</v>
+      </c>
+      <c r="M62">
+        <f>E62-L62</f>
         <v>6.5700000000000074</v>
       </c>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="12"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" t="s">
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="14"/>
+      <c r="S62" s="14"/>
+      <c r="T62" s="16"/>
+      <c r="U62" s="16"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" t="s">
         <v>14</v>
       </c>
-      <c r="E39">
-        <f>AVERAGE(E35:E38)</f>
+      <c r="E63">
+        <f>AVERAGE(E59:E62)</f>
         <v>78.534999999999997</v>
       </c>
-      <c r="F39" s="2">
-        <f>AVERAGE(F35:F38)</f>
+      <c r="F63" s="2">
+        <f>AVERAGE(F59:F62)</f>
         <v>87.954999999999998</v>
       </c>
-      <c r="G39">
-        <f t="shared" si="8"/>
+      <c r="G63">
+        <f t="shared" si="14"/>
         <v>-9.4200000000000017</v>
       </c>
-      <c r="H39" s="2">
-        <f>AVERAGE(H35:H38)</f>
+      <c r="H63" s="2">
+        <f>AVERAGE(H59:H62)</f>
         <v>83.075000000000003</v>
       </c>
-      <c r="I39">
-        <f>E39 - H39</f>
+      <c r="I63">
+        <f>E63 - H63</f>
         <v>-4.5400000000000063</v>
       </c>
-      <c r="J39">
+      <c r="J63">
         <v>84.1</v>
       </c>
-      <c r="K39">
-        <f t="shared" si="9"/>
+      <c r="K63">
+        <f t="shared" si="15"/>
         <v>-5.5649999999999977</v>
       </c>
-      <c r="L39" s="2">
-        <f>AVERAGE(L35:L38)</f>
+      <c r="L63" s="2">
+        <f>AVERAGE(L59:L62)</f>
         <v>75.41749999999999</v>
       </c>
-      <c r="M39">
-        <f>E39-L39</f>
+      <c r="M63">
+        <f>E63-L63</f>
         <v>3.1175000000000068</v>
       </c>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="12"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="14"/>
+      <c r="T63" s="16"/>
+      <c r="U63" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="T35:U39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="N34:S34"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="N35:S39"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="N26:S30"/>
-    <mergeCell ref="T26:U30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
+  <mergeCells count="64">
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="N51:S55"/>
+    <mergeCell ref="T51:U55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="N2:S6"/>
+    <mergeCell ref="T2:U6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="N10:S14"/>
+    <mergeCell ref="T10:U14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="N17:S17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="N18:S22"/>
     <mergeCell ref="T18:U22"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="N25:S25"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="N17:S17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="N18:S22"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="N10:S14"/>
-    <mergeCell ref="T10:U14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="T2:U6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="N9:S9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="N2:S6"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="N59:S63"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="N26:S30"/>
+    <mergeCell ref="T26:U30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="N42:S46"/>
+    <mergeCell ref="T42:U46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="T59:U63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="N58:S58"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="N50:S50"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="N34:S38"/>
+    <mergeCell ref="T34:U38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3434,11 +5160,441 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B52319-5FD7-4FB2-A641-E7D363D73C7E}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="11">
+        <v>82.94</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="11">
+        <v>79.28</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="11">
+        <v>96</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="11">
+        <v>71.41</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="20">
+        <f>AVERAGE(B3:B6)</f>
+        <v>82.407499999999999</v>
+      </c>
+      <c r="C7" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3134A1F0-7395-4EB0-AA44-174216742379}">
+  <dimension ref="A1:U7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>78.86</v>
+      </c>
+      <c r="F3">
+        <v>88.48</v>
+      </c>
+      <c r="G3">
+        <f>E3-F3</f>
+        <v>-9.6200000000000045</v>
+      </c>
+      <c r="H3">
+        <v>84.2</v>
+      </c>
+      <c r="I3">
+        <f>E3 - H3</f>
+        <v>-5.3400000000000034</v>
+      </c>
+      <c r="J3">
+        <v>83.6</v>
+      </c>
+      <c r="K3">
+        <f>E3 - J3</f>
+        <v>-4.7399999999999949</v>
+      </c>
+      <c r="L3">
+        <v>75.2</v>
+      </c>
+      <c r="M3">
+        <f>E3-L3</f>
+        <v>3.6599999999999966</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>75.28</v>
+      </c>
+      <c r="F4">
+        <v>83.83</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G7" si="0">E4-F4</f>
+        <v>-8.5499999999999972</v>
+      </c>
+      <c r="H4">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="I4">
+        <f>E4 - H4</f>
+        <v>-2.8199999999999932</v>
+      </c>
+      <c r="J4">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K7" si="1">E4 - J4</f>
+        <v>-4.3199999999999932</v>
+      </c>
+      <c r="L4">
+        <v>74.27</v>
+      </c>
+      <c r="M4">
+        <f>E4-L4</f>
+        <v>1.0100000000000051</v>
+      </c>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>92.8</v>
+      </c>
+      <c r="F5">
+        <v>96.59</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>-3.7900000000000063</v>
+      </c>
+      <c r="H5">
+        <v>95.3</v>
+      </c>
+      <c r="I5">
+        <f>E5 - H5</f>
+        <v>-2.5</v>
+      </c>
+      <c r="J5">
+        <v>95.8</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="L5">
+        <v>93.29</v>
+      </c>
+      <c r="M5">
+        <f>E5-L5</f>
+        <v>-0.49000000000000909</v>
+      </c>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>74.430000000000007</v>
+      </c>
+      <c r="F6">
+        <v>82.92</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>-8.4899999999999949</v>
+      </c>
+      <c r="H6">
+        <v>74.7</v>
+      </c>
+      <c r="I6">
+        <f>E6 - H6</f>
+        <v>-0.26999999999999602</v>
+      </c>
+      <c r="J6">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>-3.1699999999999875</v>
+      </c>
+      <c r="L6">
+        <v>58.91</v>
+      </c>
+      <c r="M6">
+        <f>E6-L6</f>
+        <v>15.52000000000001</v>
+      </c>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <f>AVERAGE(E3:E6)</f>
+        <v>80.342500000000001</v>
+      </c>
+      <c r="F7" s="2">
+        <f>AVERAGE(F3:F6)</f>
+        <v>87.954999999999998</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>-7.6124999999999972</v>
+      </c>
+      <c r="H7" s="2">
+        <f>AVERAGE(H3:H6)</f>
+        <v>83.075000000000003</v>
+      </c>
+      <c r="I7">
+        <f>E7 - H7</f>
+        <v>-2.7325000000000017</v>
+      </c>
+      <c r="J7">
+        <v>84.1</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>-3.7574999999999932</v>
+      </c>
+      <c r="L7" s="2">
+        <f>AVERAGE(L3:L6)</f>
+        <v>75.41749999999999</v>
+      </c>
+      <c r="M7">
+        <f>E7-L7</f>
+        <v>4.9250000000000114</v>
+      </c>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="T3:U7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="N3:S7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609EF84C-C153-47BA-9E02-DFC161A00D11}">
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="A1:S6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3451,14 +5607,14 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9"/>
+      <c r="E1" s="13"/>
       <c r="F1" t="s">
         <v>11</v>
       </c>
@@ -3477,20 +5633,20 @@
       <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
       <c r="R1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B2" t="s">
@@ -3511,21 +5667,21 @@
       <c r="J2">
         <v>75.2</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
@@ -3540,19 +5696,19 @@
       <c r="J3">
         <v>74.27</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
       <c r="D4" t="s">
         <v>9</v>
       </c>
@@ -3565,19 +5721,19 @@
       <c r="J4">
         <v>93.29</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
       <c r="D5" t="s">
         <v>10</v>
       </c>
@@ -3590,19 +5746,19 @@
       <c r="J5">
         <v>58.91</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
       <c r="D6" t="s">
         <v>14</v>
       </c>
@@ -3618,25 +5774,25 @@
         <f>AVERAGE(J2:J5)</f>
         <v>75.41749999999999</v>
       </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="R2:S6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="L1:Q1"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="L2:Q6"/>
-    <mergeCell ref="R2:S6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/结果.xlsx
+++ b/结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dassl2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DC71B8-BAC9-4259-BCE3-5AEF06AA1B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0040613F-9221-4942-B5B4-B0899FB157C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{79195763-0B37-44CA-843D-BD2B45EE2572}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="94">
   <si>
     <t>实验版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -364,6 +364,54 @@
   </si>
   <si>
     <t>原先的方法在推断的时候使用了混淆，这可能导致性能下降，但是测试发现并没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uncertainty V2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SplitNet_V2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于发现当进行概率的时候模型的训练中的准确度不太好，所以增强不确定建模的概率(p=0.8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将其中一半使用SFA方法，另一半使用Uncertainty，每一个使用的概率都是0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uncertainty V4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uncertainty modeling ± 1.5 shift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>±1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5 + epoch=50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果变差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5 + σ=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5 + σ=1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5+σ=0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,7 +533,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -525,6 +573,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -534,19 +591,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -869,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC0E7C2-64E0-4C95-997A-A0D48152339F}">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -900,14 +954,14 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="16"/>
       <c r="F2" t="s">
         <v>11</v>
       </c>
@@ -926,20 +980,20 @@
       <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
       <c r="R2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B3" t="s">
@@ -975,25 +1029,25 @@
         <f>E3-J3</f>
         <v>-2.4500000000000028</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14" t="s">
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17" t="s">
         <v>36</v>
       </c>
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
@@ -1023,19 +1077,19 @@
         <f t="shared" ref="K4:K7" si="2">E4-J4</f>
         <v>-0.20999999999999375</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
       <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
       <c r="D5" t="s">
         <v>9</v>
       </c>
@@ -1063,19 +1117,19 @@
         <f t="shared" si="2"/>
         <v>1.6199999999999903</v>
       </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
       <c r="S5" s="8"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
       <c r="D6" t="s">
         <v>10</v>
       </c>
@@ -1103,19 +1157,19 @@
         <f t="shared" si="2"/>
         <v>8.0700000000000074</v>
       </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
       <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
       <c r="D7" t="s">
         <v>14</v>
       </c>
@@ -1147,13 +1201,13 @@
         <f t="shared" si="2"/>
         <v>1.7575000000000074</v>
       </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
       <c r="S7" s="8"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1194,14 +1248,14 @@
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="16"/>
       <c r="F10" t="s">
         <v>11</v>
       </c>
@@ -1220,21 +1274,21 @@
       <c r="K10" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
       <c r="R10" s="9" t="s">
         <v>23</v>
       </c>
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
@@ -1270,25 +1324,25 @@
         <f xml:space="preserve"> E11 - J11</f>
         <v>3.019999999999996</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14" t="s">
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17" t="s">
         <v>24</v>
       </c>
       <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D12" t="s">
@@ -1318,19 +1372,19 @@
         <f t="shared" ref="K12:K15" si="5" xml:space="preserve"> E12 - J12</f>
         <v>0.82000000000000739</v>
       </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
       <c r="D13" t="s">
         <v>9</v>
       </c>
@@ -1358,19 +1412,19 @@
         <f t="shared" si="5"/>
         <v>1.3199999999999932</v>
       </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
       <c r="S13" s="8"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
       <c r="D14" t="s">
         <v>10</v>
       </c>
@@ -1398,19 +1452,19 @@
         <f t="shared" si="5"/>
         <v>6.3599999999999994</v>
       </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
       <c r="S14" s="8"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
       <c r="D15" t="s">
         <v>14</v>
       </c>
@@ -1442,13 +1496,13 @@
         <f t="shared" si="5"/>
         <v>2.8800000000000097</v>
       </c>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
       <c r="S15" s="8"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1475,14 +1529,14 @@
       <c r="A18" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13" t="s">
+      <c r="C18" s="16"/>
+      <c r="D18" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="13"/>
+      <c r="E18" s="16"/>
       <c r="F18" t="s">
         <v>11</v>
       </c>
@@ -1501,21 +1555,21 @@
       <c r="K18" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="14" t="s">
+      <c r="L18" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
       <c r="R18" s="9" t="s">
         <v>23</v>
       </c>
       <c r="S18" s="8"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B19" t="s">
@@ -1551,25 +1605,25 @@
         <f>E19-J19</f>
         <v>3.7599999999999909</v>
       </c>
-      <c r="L19" s="14" t="s">
+      <c r="L19" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14" t="s">
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17" t="s">
         <v>35</v>
       </c>
       <c r="S19" s="8"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D20" t="s">
@@ -1599,19 +1653,19 @@
         <f t="shared" ref="K20:K23" si="8">E20-J20</f>
         <v>0.90000000000000568</v>
       </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
       <c r="S20" s="8"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
       <c r="D21" t="s">
         <v>9</v>
       </c>
@@ -1639,19 +1693,19 @@
         <f t="shared" si="8"/>
         <v>1.4399999999999977</v>
       </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
       <c r="S21" s="8"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
       <c r="D22" t="s">
         <v>10</v>
       </c>
@@ -1679,19 +1733,19 @@
         <f t="shared" si="8"/>
         <v>6.6400000000000006</v>
       </c>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
       <c r="S22" s="8"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
       <c r="D23" t="s">
         <v>14</v>
       </c>
@@ -1723,13 +1777,13 @@
         <f t="shared" si="8"/>
         <v>3.1850000000000165</v>
       </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
       <c r="S23" s="8"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -1758,14 +1812,14 @@
       <c r="A26" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="16"/>
+      <c r="D26" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="13"/>
+      <c r="E26" s="16"/>
       <c r="F26" t="s">
         <v>11</v>
       </c>
@@ -1784,21 +1838,21 @@
       <c r="K26" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="14" t="s">
+      <c r="L26" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
       <c r="R26" s="9" t="s">
         <v>23</v>
       </c>
       <c r="S26" s="8"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B27" t="s">
@@ -1834,25 +1888,25 @@
         <f>E27-J27</f>
         <v>-1.3700000000000045</v>
       </c>
-      <c r="L27" s="14" t="s">
+      <c r="L27" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="15" t="s">
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="18" t="s">
         <v>37</v>
       </c>
       <c r="S27" s="10"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D28" t="s">
@@ -1882,19 +1936,19 @@
         <f t="shared" ref="K28:K31" si="11">E28-J28</f>
         <v>2.9100000000000108</v>
       </c>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="15"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="18"/>
       <c r="S28" s="10"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
       <c r="D29" t="s">
         <v>9</v>
       </c>
@@ -1922,19 +1976,19 @@
         <f t="shared" si="11"/>
         <v>1.0799999999999983</v>
       </c>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="15"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="18"/>
       <c r="S29" s="10"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
       <c r="D30" t="s">
         <v>10</v>
       </c>
@@ -1962,19 +2016,19 @@
         <f t="shared" si="11"/>
         <v>3.3600000000000065</v>
       </c>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="15"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="18"/>
       <c r="S30" s="10"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
       <c r="D31" t="s">
         <v>14</v>
       </c>
@@ -2006,17 +2060,17 @@
         <f t="shared" si="11"/>
         <v>1.4950000000000045</v>
       </c>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="15"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="18"/>
       <c r="S31" s="10"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B33" t="s">
@@ -2027,14 +2081,14 @@
       <c r="A34" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13" t="s">
+      <c r="C34" s="16"/>
+      <c r="D34" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="13"/>
+      <c r="E34" s="16"/>
       <c r="F34" t="s">
         <v>11</v>
       </c>
@@ -2053,20 +2107,20 @@
       <c r="K34" t="s">
         <v>16</v>
       </c>
-      <c r="L34" s="14" t="s">
+      <c r="L34" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
       <c r="R34" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="16" t="s">
         <v>60</v>
       </c>
       <c r="B35" t="s">
@@ -2102,22 +2156,22 @@
         <f>E35-J35</f>
         <v>-1.3700000000000045</v>
       </c>
-      <c r="L35" s="14" t="s">
+      <c r="L35" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="15"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="18"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13" t="s">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D36" t="s">
@@ -2147,18 +2201,18 @@
         <f t="shared" ref="K36:K39" si="14">E36-J36</f>
         <v>2.9100000000000108</v>
       </c>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="15"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="18"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
       <c r="D37" t="s">
         <v>9</v>
       </c>
@@ -2186,18 +2240,18 @@
         <f t="shared" si="14"/>
         <v>1.0799999999999983</v>
       </c>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="15"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="18"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
       <c r="D38" t="s">
         <v>10</v>
       </c>
@@ -2225,18 +2279,18 @@
         <f t="shared" si="14"/>
         <v>3.3600000000000065</v>
       </c>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="15"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="18"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
       <c r="D39" t="s">
         <v>14</v>
       </c>
@@ -2268,16 +2322,16 @@
         <f t="shared" si="14"/>
         <v>1.4950000000000045</v>
       </c>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="15"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="18"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B41" t="s">
@@ -2288,14 +2342,14 @@
       <c r="A42" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13" t="s">
+      <c r="C42" s="16"/>
+      <c r="D42" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="13"/>
+      <c r="E42" s="16"/>
       <c r="F42" t="s">
         <v>11</v>
       </c>
@@ -2314,20 +2368,20 @@
       <c r="K42" t="s">
         <v>16</v>
       </c>
-      <c r="L42" s="14" t="s">
+      <c r="L42" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
       <c r="R42" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B43" t="s">
@@ -2363,22 +2417,22 @@
         <f>E43-J43</f>
         <v>-1.3700000000000045</v>
       </c>
-      <c r="L43" s="14" t="s">
+      <c r="L43" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="15"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="18"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13" t="s">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D44" t="s">
@@ -2408,18 +2462,18 @@
         <f t="shared" ref="K44:K47" si="17">E44-J44</f>
         <v>2.9100000000000108</v>
       </c>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="15"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="18"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
       <c r="D45" t="s">
         <v>9</v>
       </c>
@@ -2447,18 +2501,18 @@
         <f t="shared" si="17"/>
         <v>1.0799999999999983</v>
       </c>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="15"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="18"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
       <c r="D46" t="s">
         <v>10</v>
       </c>
@@ -2486,18 +2540,18 @@
         <f t="shared" si="17"/>
         <v>3.3600000000000065</v>
       </c>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="15"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="18"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
       <c r="D47" t="s">
         <v>14</v>
       </c>
@@ -2529,13 +2583,13 @@
         <f t="shared" si="17"/>
         <v>1.4950000000000045</v>
       </c>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="15"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="48">
@@ -2595,10 +2649,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7C918E-EA30-432D-A1C4-E9136D7B3B39}">
-  <dimension ref="A1:V63"/>
+  <dimension ref="A1:Z105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="N51" sqref="N51:S55"/>
+    <sheetView tabSelected="1" topLeftCell="F61" workbookViewId="0">
+      <selection activeCell="Z77" sqref="Z77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2611,20 +2665,22 @@
     <col min="8" max="8" width="14.33203125" customWidth="1"/>
     <col min="9" max="9" width="10.5546875" customWidth="1"/>
     <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="23" max="23" width="14.5546875" customWidth="1"/>
+    <col min="24" max="24" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13"/>
+      <c r="E1" s="16"/>
       <c r="F1" t="s">
         <v>11</v>
       </c>
@@ -2649,20 +2705,20 @@
       <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
       <c r="T1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B2" t="s">
@@ -2705,25 +2761,25 @@
         <f>E2-L2</f>
         <v>9.0000000000003411E-2</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="16" t="s">
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="U2" s="16"/>
+      <c r="U2" s="22"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
@@ -2760,19 +2816,19 @@
         <f>E3-L3</f>
         <v>-1.2299999999999898</v>
       </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
       <c r="D4" t="s">
         <v>9</v>
       </c>
@@ -2807,19 +2863,19 @@
         <f>E4-L4</f>
         <v>2.3399999999999892</v>
       </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
       <c r="D5" t="s">
         <v>10</v>
       </c>
@@ -2854,19 +2910,19 @@
         <f>E5-L5</f>
         <v>8.5300000000000011</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
       <c r="D6" t="s">
         <v>14</v>
       </c>
@@ -2905,27 +2961,27 @@
         <f>E6-L6</f>
         <v>2.4325000000000045</v>
       </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="16"/>
       <c r="F9" t="s">
         <v>11</v>
       </c>
@@ -2950,20 +3006,20 @@
       <c r="M9" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
       <c r="T9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B10" t="s">
@@ -3006,23 +3062,23 @@
         <f>E10-L10</f>
         <v>1.4599999999999937</v>
       </c>
-      <c r="N10" s="13" t="s">
+      <c r="N10" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
@@ -3059,19 +3115,19 @@
         <f>E11-L11</f>
         <v>1.8400000000000034</v>
       </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
       <c r="D12" t="s">
         <v>9</v>
       </c>
@@ -3106,19 +3162,19 @@
         <f>E12-L12</f>
         <v>1.6799999999999926</v>
       </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
       <c r="D13" t="s">
         <v>10</v>
       </c>
@@ -3153,19 +3209,19 @@
         <f>E13-L13</f>
         <v>6.5700000000000074</v>
       </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
       <c r="D14" t="s">
         <v>14</v>
       </c>
@@ -3204,14 +3260,14 @@
         <f>E14-L14</f>
         <v>2.8875000000000028</v>
       </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3222,14 +3278,14 @@
       <c r="A17" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="13"/>
+      <c r="E17" s="16"/>
       <c r="F17" t="s">
         <v>11</v>
       </c>
@@ -3254,20 +3310,20 @@
       <c r="M17" t="s">
         <v>16</v>
       </c>
-      <c r="N17" s="13" t="s">
+      <c r="N17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
       <c r="T17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B18" t="s">
@@ -3310,25 +3366,25 @@
         <f>E18-L18</f>
         <v>2.3400000000000034</v>
       </c>
-      <c r="N18" s="13" t="s">
+      <c r="N18" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="16" t="s">
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="U18" s="16"/>
+      <c r="U18" s="22"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D19" t="s">
@@ -3365,19 +3421,19 @@
         <f>E19-L19</f>
         <v>3.25</v>
       </c>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
       <c r="D20" t="s">
         <v>9</v>
       </c>
@@ -3412,19 +3468,19 @@
         <f>E20-L20</f>
         <v>2.3399999999999892</v>
       </c>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
       <c r="D21" t="s">
         <v>10</v>
       </c>
@@ -3459,19 +3515,19 @@
         <f>E21-L21</f>
         <v>7.5900000000000034</v>
       </c>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
       <c r="D22" t="s">
         <v>14</v>
       </c>
@@ -3510,14 +3566,14 @@
         <f>E22-L22</f>
         <v>3.8800000000000097</v>
       </c>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
@@ -3529,14 +3585,14 @@
       <c r="A25" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13" t="s">
+      <c r="C25" s="16"/>
+      <c r="D25" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="16"/>
       <c r="F25" t="s">
         <v>11</v>
       </c>
@@ -3561,20 +3617,20 @@
       <c r="M25" t="s">
         <v>16</v>
       </c>
-      <c r="N25" s="13" t="s">
+      <c r="N25" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
       <c r="T25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="16" t="s">
         <v>46</v>
       </c>
       <c r="B26" t="s">
@@ -3617,25 +3673,25 @@
         <f>E26-L26</f>
         <v>1.3100000000000023</v>
       </c>
-      <c r="N26" s="14" t="s">
+      <c r="N26" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="16" t="s">
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="U26" s="16"/>
+      <c r="U26" s="22"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D27" t="s">
@@ -3672,19 +3728,19 @@
         <f>E27-L27</f>
         <v>0.90000000000000568</v>
       </c>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
       <c r="D28" t="s">
         <v>9</v>
       </c>
@@ -3719,19 +3775,19 @@
         <f>E28-L28</f>
         <v>1.3799999999999955</v>
       </c>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
       <c r="D29" t="s">
         <v>10</v>
       </c>
@@ -3766,19 +3822,19 @@
         <f>E29-L29</f>
         <v>8.9399999999999977</v>
       </c>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
       <c r="D30" t="s">
         <v>14</v>
       </c>
@@ -3817,14 +3873,14 @@
         <f>E30-L30</f>
         <v>3.1325000000000216</v>
       </c>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -3842,14 +3898,14 @@
       <c r="A33" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13" t="s">
+      <c r="C33" s="16"/>
+      <c r="D33" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="13"/>
+      <c r="E33" s="16"/>
       <c r="F33" t="s">
         <v>11</v>
       </c>
@@ -3874,14 +3930,14 @@
       <c r="M33" t="s">
         <v>16</v>
       </c>
-      <c r="N33" s="13" t="s">
+      <c r="N33" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
       <c r="T33" t="s">
         <v>23</v>
       </c>
@@ -3890,7 +3946,7 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="19" t="s">
         <v>57</v>
       </c>
       <c r="B34" t="s">
@@ -3933,28 +3989,28 @@
         <f>E34-L34</f>
         <v>4.3900000000000006</v>
       </c>
-      <c r="N34" s="14" t="s">
+      <c r="N34" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="15" t="s">
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="U34" s="15"/>
+      <c r="U34" s="18"/>
       <c r="V34">
         <v>78.81</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="19" t="s">
+      <c r="A35" s="19"/>
+      <c r="B35" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D35" t="s">
@@ -3991,22 +4047,22 @@
         <f>E35-L35</f>
         <v>3.25</v>
       </c>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
-      <c r="T35" s="15"/>
-      <c r="U35" s="15"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
       <c r="V35">
         <v>74.66</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="17"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="21"/>
       <c r="D36" t="s">
         <v>9</v>
       </c>
@@ -4041,22 +4097,22 @@
         <f>E36-L36</f>
         <v>2.0999999999999943</v>
       </c>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="15"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="18"/>
       <c r="V36">
         <v>95.33</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="17"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="21"/>
       <c r="D37" t="s">
         <v>10</v>
       </c>
@@ -4091,22 +4147,22 @@
         <f>E37-L37</f>
         <v>11.710000000000008</v>
       </c>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="14"/>
-      <c r="T37" s="15"/>
-      <c r="U37" s="15"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
       <c r="V37">
         <v>68.3</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="17"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="21"/>
       <c r="D38" t="s">
         <v>14</v>
       </c>
@@ -4145,14 +4201,14 @@
         <f>E38-L38</f>
         <v>5.3625000000000114</v>
       </c>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="15"/>
-      <c r="U38" s="15"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
       <c r="V38">
         <f>AVERAGE(V34:V37)</f>
         <v>79.275000000000006</v>
@@ -4184,14 +4240,14 @@
       <c r="A41" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13" t="s">
+      <c r="C41" s="16"/>
+      <c r="D41" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="13"/>
+      <c r="E41" s="16"/>
       <c r="F41" t="s">
         <v>11</v>
       </c>
@@ -4216,20 +4272,20 @@
       <c r="M41" t="s">
         <v>16</v>
       </c>
-      <c r="N41" s="13" t="s">
+      <c r="N41" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
       <c r="T41" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="16" t="s">
         <v>70</v>
       </c>
       <c r="B42" t="s">
@@ -4272,25 +4328,25 @@
         <f>E42-L42</f>
         <v>4.6299999999999955</v>
       </c>
-      <c r="N42" s="14" t="s">
+      <c r="N42" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
-      <c r="T42" s="15" t="s">
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="U42" s="15"/>
+      <c r="U42" s="18"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13" t="s">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D43" t="s">
@@ -4327,19 +4383,19 @@
         <f>E43-L43</f>
         <v>0.29999999999999716</v>
       </c>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14"/>
-      <c r="T43" s="15"/>
-      <c r="U43" s="15"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="18"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
       <c r="D44" t="s">
         <v>9</v>
       </c>
@@ -4374,19 +4430,19 @@
         <f>E44-L44</f>
         <v>2.1599999999999966</v>
       </c>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
-      <c r="T44" s="15"/>
-      <c r="U44" s="15"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="18"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
       <c r="D45" t="s">
         <v>10</v>
       </c>
@@ -4421,19 +4477,19 @@
         <f>E45-L45</f>
         <v>10.439999999999998</v>
       </c>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="14"/>
-      <c r="T45" s="15"/>
-      <c r="U45" s="15"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="18"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
       <c r="D46" t="s">
         <v>14</v>
       </c>
@@ -4472,33 +4528,33 @@
         <f>E46-L46</f>
         <v>4.3824999999999932</v>
       </c>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="14"/>
-      <c r="T46" s="15"/>
-      <c r="U46" s="15"/>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="18"/>
+      <c r="U46" s="18"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13" t="s">
+      <c r="C50" s="16"/>
+      <c r="D50" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E50" s="13"/>
+      <c r="E50" s="16"/>
       <c r="F50" t="s">
         <v>11</v>
       </c>
@@ -4523,20 +4579,20 @@
       <c r="M50" t="s">
         <v>16</v>
       </c>
-      <c r="N50" s="13" t="s">
+      <c r="N50" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="13"/>
-      <c r="S50" s="13"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="16"/>
+      <c r="S50" s="16"/>
       <c r="T50" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
         <v>78</v>
       </c>
       <c r="B51" t="s">
@@ -4549,204 +4605,204 @@
         <v>7</v>
       </c>
       <c r="E51">
-        <v>79.83</v>
+        <v>79.790000000000006</v>
       </c>
       <c r="F51">
         <v>88.48</v>
       </c>
       <c r="G51">
         <f>E51-F51</f>
-        <v>-8.6500000000000057</v>
+        <v>-8.6899999999999977</v>
       </c>
       <c r="H51">
         <v>84.2</v>
       </c>
       <c r="I51">
         <f>E51 - H51</f>
-        <v>-4.3700000000000045</v>
+        <v>-4.4099999999999966</v>
       </c>
       <c r="J51">
         <v>83.6</v>
       </c>
       <c r="K51">
         <f>E51 - J51</f>
-        <v>-3.769999999999996</v>
+        <v>-3.8099999999999881</v>
       </c>
       <c r="L51">
         <v>75.2</v>
       </c>
       <c r="M51">
         <f>E51-L51</f>
-        <v>4.6299999999999955</v>
-      </c>
-      <c r="N51" s="14" t="s">
+        <v>4.5900000000000034</v>
+      </c>
+      <c r="N51" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="O51" s="14"/>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="14"/>
-      <c r="S51" s="14"/>
-      <c r="T51" s="21" t="s">
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="U51" s="21"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13" t="s">
+      <c r="U51" s="23"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A52" s="16"/>
+      <c r="B52" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
       </c>
       <c r="E52">
-        <v>74.569999999999993</v>
+        <v>75.209999999999994</v>
       </c>
       <c r="F52">
         <v>83.83</v>
       </c>
       <c r="G52">
         <f t="shared" ref="G52:G55" si="12">E52-F52</f>
-        <v>-9.2600000000000051</v>
+        <v>-8.6200000000000045</v>
       </c>
       <c r="H52">
         <v>78.099999999999994</v>
       </c>
       <c r="I52">
         <f>E52 - H52</f>
-        <v>-3.5300000000000011</v>
+        <v>-2.8900000000000006</v>
       </c>
       <c r="J52">
         <v>79.599999999999994</v>
       </c>
       <c r="K52">
         <f t="shared" ref="K52:K55" si="13">E52 - J52</f>
-        <v>-5.0300000000000011</v>
+        <v>-4.3900000000000006</v>
       </c>
       <c r="L52">
         <v>74.27</v>
       </c>
       <c r="M52">
         <f>E52-L52</f>
-        <v>0.29999999999999716</v>
-      </c>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="14"/>
-      <c r="R52" s="14"/>
-      <c r="S52" s="14"/>
-      <c r="T52" s="21"/>
-      <c r="U52" s="21"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
+        <v>0.93999999999999773</v>
+      </c>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="17"/>
+      <c r="S52" s="17"/>
+      <c r="T52" s="23"/>
+      <c r="U52" s="23"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
       <c r="D53" t="s">
         <v>9</v>
       </c>
       <c r="E53">
-        <v>95.45</v>
+        <v>95.69</v>
       </c>
       <c r="F53">
         <v>96.59</v>
       </c>
       <c r="G53">
         <f t="shared" si="12"/>
-        <v>-1.1400000000000006</v>
+        <v>-0.90000000000000568</v>
       </c>
       <c r="H53">
         <v>95.3</v>
       </c>
       <c r="I53">
         <f>E53 - H53</f>
-        <v>0.15000000000000568</v>
+        <v>0.39000000000000057</v>
       </c>
       <c r="J53">
         <v>95.8</v>
       </c>
       <c r="K53">
         <f t="shared" si="13"/>
-        <v>-0.34999999999999432</v>
+        <v>-0.10999999999999943</v>
       </c>
       <c r="L53">
         <v>93.29</v>
       </c>
       <c r="M53">
         <f>E53-L53</f>
-        <v>2.1599999999999966</v>
-      </c>
-      <c r="N53" s="14"/>
-      <c r="O53" s="14"/>
-      <c r="P53" s="14"/>
-      <c r="Q53" s="14"/>
-      <c r="R53" s="14"/>
-      <c r="S53" s="14"/>
-      <c r="T53" s="21"/>
-      <c r="U53" s="21"/>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
+        <v>2.3999999999999915</v>
+      </c>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="17"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="23"/>
+      <c r="U53" s="23"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
       <c r="D54" t="s">
         <v>10</v>
       </c>
       <c r="E54">
-        <v>69.349999999999994</v>
+        <v>66.12</v>
       </c>
       <c r="F54">
         <v>82.92</v>
       </c>
       <c r="G54">
         <f t="shared" si="12"/>
-        <v>-13.570000000000007</v>
+        <v>-16.799999999999997</v>
       </c>
       <c r="H54">
         <v>74.7</v>
       </c>
       <c r="I54">
         <f>E54 - H54</f>
-        <v>-5.3500000000000085</v>
+        <v>-8.5799999999999983</v>
       </c>
       <c r="J54">
         <v>77.599999999999994</v>
       </c>
       <c r="K54">
         <f t="shared" si="13"/>
-        <v>-8.25</v>
+        <v>-11.47999999999999</v>
       </c>
       <c r="L54">
         <v>58.91</v>
       </c>
       <c r="M54">
         <f>E54-L54</f>
-        <v>10.439999999999998</v>
-      </c>
-      <c r="N54" s="14"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="14"/>
-      <c r="R54" s="14"/>
-      <c r="S54" s="14"/>
-      <c r="T54" s="21"/>
-      <c r="U54" s="21"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
+        <v>7.210000000000008</v>
+      </c>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="17"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="23"/>
+      <c r="U54" s="23"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
       <c r="D55" t="s">
         <v>14</v>
       </c>
       <c r="E55">
         <f>AVERAGE(E51:E54)</f>
-        <v>79.799999999999983</v>
+        <v>79.202500000000001</v>
       </c>
       <c r="F55" s="2">
         <f>AVERAGE(F51:F54)</f>
@@ -4754,7 +4810,7 @@
       </c>
       <c r="G55">
         <f t="shared" si="12"/>
-        <v>-8.1550000000000153</v>
+        <v>-8.7524999999999977</v>
       </c>
       <c r="H55" s="2">
         <f>AVERAGE(H51:H54)</f>
@@ -4762,14 +4818,14 @@
       </c>
       <c r="I55">
         <f>E55 - H55</f>
-        <v>-3.2750000000000199</v>
+        <v>-3.8725000000000023</v>
       </c>
       <c r="J55">
         <v>84.1</v>
       </c>
       <c r="K55">
         <f t="shared" si="13"/>
-        <v>-4.3000000000000114</v>
+        <v>-4.8974999999999937</v>
       </c>
       <c r="L55" s="2">
         <f>AVERAGE(L51:L54)</f>
@@ -4777,29 +4833,35 @@
       </c>
       <c r="M55">
         <f>E55-L55</f>
-        <v>4.3824999999999932</v>
-      </c>
-      <c r="N55" s="14"/>
-      <c r="O55" s="14"/>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="14"/>
-      <c r="R55" s="14"/>
-      <c r="S55" s="14"/>
-      <c r="T55" s="21"/>
-      <c r="U55" s="21"/>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.7850000000000108</v>
+      </c>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="17"/>
+      <c r="S55" s="17"/>
+      <c r="T55" s="23"/>
+      <c r="U55" s="23"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A57" s="12"/>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13" t="s">
+      <c r="C58" s="16"/>
+      <c r="D58" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E58" s="13"/>
+      <c r="E58" s="16"/>
       <c r="F58" t="s">
         <v>11</v>
       </c>
@@ -4824,21 +4886,24 @@
       <c r="M58" t="s">
         <v>16</v>
       </c>
-      <c r="N58" s="13" t="s">
+      <c r="N58" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="13"/>
-      <c r="S58" s="13"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="16"/>
+      <c r="S58" s="16"/>
       <c r="T58" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
-        <v>47</v>
+      <c r="V58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A59" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="B59" t="s">
         <v>4</v>
@@ -4850,202 +4915,214 @@
         <v>7</v>
       </c>
       <c r="E59">
-        <v>77.58</v>
+        <v>79.150000000000006</v>
       </c>
       <c r="F59">
         <v>88.48</v>
       </c>
       <c r="G59">
         <f>E59-F59</f>
-        <v>-10.900000000000006</v>
+        <v>-9.3299999999999983</v>
       </c>
       <c r="H59">
         <v>84.2</v>
       </c>
       <c r="I59">
         <f>E59 - H59</f>
-        <v>-6.6200000000000045</v>
+        <v>-5.0499999999999972</v>
       </c>
       <c r="J59">
         <v>83.6</v>
       </c>
       <c r="K59">
         <f>E59 - J59</f>
-        <v>-6.019999999999996</v>
+        <v>-4.4499999999999886</v>
       </c>
       <c r="L59">
         <v>75.2</v>
       </c>
       <c r="M59">
         <f>E59-L59</f>
-        <v>2.3799999999999955</v>
-      </c>
-      <c r="N59" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="O59" s="14"/>
-      <c r="P59" s="14"/>
-      <c r="Q59" s="14"/>
-      <c r="R59" s="14"/>
-      <c r="S59" s="14"/>
-      <c r="T59" s="16"/>
-      <c r="U59" s="16"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C60" s="13" t="s">
+        <v>3.9500000000000028</v>
+      </c>
+      <c r="N59" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="17"/>
+      <c r="S59" s="17"/>
+      <c r="T59" s="18"/>
+      <c r="U59" s="18"/>
+      <c r="V59">
+        <v>79.25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D60" t="s">
         <v>8</v>
       </c>
       <c r="E60">
-        <v>76.11</v>
+        <v>76.75</v>
       </c>
       <c r="F60">
         <v>83.83</v>
       </c>
       <c r="G60">
         <f t="shared" ref="G60:G63" si="14">E60-F60</f>
-        <v>-7.7199999999999989</v>
+        <v>-7.0799999999999983</v>
       </c>
       <c r="H60">
         <v>78.099999999999994</v>
       </c>
       <c r="I60">
         <f>E60 - H60</f>
-        <v>-1.9899999999999949</v>
+        <v>-1.3499999999999943</v>
       </c>
       <c r="J60">
         <v>79.599999999999994</v>
       </c>
       <c r="K60">
         <f t="shared" ref="K60:K63" si="15">E60 - J60</f>
-        <v>-3.4899999999999949</v>
+        <v>-2.8499999999999943</v>
       </c>
       <c r="L60">
         <v>74.27</v>
       </c>
       <c r="M60">
         <f>E60-L60</f>
-        <v>1.8400000000000034</v>
-      </c>
-      <c r="N60" s="14"/>
-      <c r="O60" s="14"/>
-      <c r="P60" s="14"/>
-      <c r="Q60" s="14"/>
-      <c r="R60" s="14"/>
-      <c r="S60" s="14"/>
-      <c r="T60" s="16"/>
-      <c r="U60" s="16"/>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
+        <v>2.480000000000004</v>
+      </c>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="17"/>
+      <c r="T60" s="18"/>
+      <c r="U60" s="18"/>
+      <c r="V60">
+        <v>76.540000000000006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
       <c r="D61" t="s">
         <v>9</v>
       </c>
       <c r="E61">
-        <v>94.97</v>
+        <v>96.05</v>
       </c>
       <c r="F61">
         <v>96.59</v>
       </c>
       <c r="G61">
         <f t="shared" si="14"/>
-        <v>-1.6200000000000045</v>
+        <v>-0.54000000000000625</v>
       </c>
       <c r="H61">
         <v>95.3</v>
       </c>
       <c r="I61">
         <f>E61 - H61</f>
-        <v>-0.32999999999999829</v>
+        <v>0.75</v>
       </c>
       <c r="J61">
         <v>95.8</v>
       </c>
       <c r="K61">
         <f t="shared" si="15"/>
-        <v>-0.82999999999999829</v>
+        <v>0.25</v>
       </c>
       <c r="L61">
         <v>93.29</v>
       </c>
       <c r="M61">
         <f>E61-L61</f>
-        <v>1.6799999999999926</v>
-      </c>
-      <c r="N61" s="14"/>
-      <c r="O61" s="14"/>
-      <c r="P61" s="14"/>
-      <c r="Q61" s="14"/>
-      <c r="R61" s="14"/>
-      <c r="S61" s="14"/>
-      <c r="T61" s="16"/>
-      <c r="U61" s="16"/>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
+        <v>2.7599999999999909</v>
+      </c>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="17"/>
+      <c r="S61" s="17"/>
+      <c r="T61" s="18"/>
+      <c r="U61" s="18"/>
+      <c r="V61">
+        <v>95.87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
       <c r="D62" t="s">
         <v>10</v>
       </c>
       <c r="E62">
-        <v>65.48</v>
+        <v>70.37</v>
       </c>
       <c r="F62">
         <v>82.92</v>
       </c>
       <c r="G62">
         <f t="shared" si="14"/>
-        <v>-17.439999999999998</v>
+        <v>-12.549999999999997</v>
       </c>
       <c r="H62">
         <v>74.7</v>
       </c>
       <c r="I62">
         <f>E62 - H62</f>
-        <v>-9.2199999999999989</v>
+        <v>-4.3299999999999983</v>
       </c>
       <c r="J62">
         <v>77.599999999999994</v>
       </c>
       <c r="K62">
         <f t="shared" si="15"/>
-        <v>-12.11999999999999</v>
+        <v>-7.2299999999999898</v>
       </c>
       <c r="L62">
         <v>58.91</v>
       </c>
       <c r="M62">
         <f>E62-L62</f>
-        <v>6.5700000000000074</v>
-      </c>
-      <c r="N62" s="14"/>
-      <c r="O62" s="14"/>
-      <c r="P62" s="14"/>
-      <c r="Q62" s="14"/>
-      <c r="R62" s="14"/>
-      <c r="S62" s="14"/>
-      <c r="T62" s="16"/>
-      <c r="U62" s="16"/>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
+        <v>11.460000000000008</v>
+      </c>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="18"/>
+      <c r="U62" s="18"/>
+      <c r="V62">
+        <v>69.930000000000007</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
       <c r="D63" t="s">
         <v>14</v>
       </c>
       <c r="E63">
         <f>AVERAGE(E59:E62)</f>
-        <v>78.534999999999997</v>
+        <v>80.58</v>
       </c>
       <c r="F63" s="2">
         <f>AVERAGE(F59:F62)</f>
@@ -5053,7 +5130,7 @@
       </c>
       <c r="G63">
         <f t="shared" si="14"/>
-        <v>-9.4200000000000017</v>
+        <v>-7.375</v>
       </c>
       <c r="H63" s="2">
         <f>AVERAGE(H59:H62)</f>
@@ -5061,14 +5138,14 @@
       </c>
       <c r="I63">
         <f>E63 - H63</f>
-        <v>-4.5400000000000063</v>
+        <v>-2.4950000000000045</v>
       </c>
       <c r="J63">
         <v>84.1</v>
       </c>
       <c r="K63">
         <f t="shared" si="15"/>
-        <v>-5.5649999999999977</v>
+        <v>-3.519999999999996</v>
       </c>
       <c r="L63" s="2">
         <f>AVERAGE(L59:L62)</f>
@@ -5076,19 +5153,1052 @@
       </c>
       <c r="M63">
         <f>E63-L63</f>
+        <v>5.1625000000000085</v>
+      </c>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
+      <c r="R63" s="17"/>
+      <c r="S63" s="17"/>
+      <c r="T63" s="18"/>
+      <c r="U63" s="18"/>
+      <c r="V63">
+        <f>AVERAGE(V59:V62)</f>
+        <v>80.397500000000008</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A66" s="12"/>
+      <c r="B66" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="16"/>
+      <c r="F67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" t="s">
+        <v>51</v>
+      </c>
+      <c r="K67" t="s">
+        <v>52</v>
+      </c>
+      <c r="L67" t="s">
+        <v>25</v>
+      </c>
+      <c r="M67" t="s">
+        <v>16</v>
+      </c>
+      <c r="N67" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="16"/>
+      <c r="R67" s="16"/>
+      <c r="S67" s="16"/>
+      <c r="T67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A68" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="F68">
+        <v>88.48</v>
+      </c>
+      <c r="G68">
+        <f>E68-F68</f>
+        <v>-7.3800000000000097</v>
+      </c>
+      <c r="H68">
+        <v>84.2</v>
+      </c>
+      <c r="I68">
+        <f>E68 - H68</f>
+        <v>-3.1000000000000085</v>
+      </c>
+      <c r="J68">
+        <v>83.6</v>
+      </c>
+      <c r="K68">
+        <f>E68 - J68</f>
+        <v>-2.5</v>
+      </c>
+      <c r="L68">
+        <v>75.2</v>
+      </c>
+      <c r="M68">
+        <f>E68-L68</f>
+        <v>5.8999999999999915</v>
+      </c>
+      <c r="N68" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
+      <c r="R68" s="17"/>
+      <c r="S68" s="17"/>
+      <c r="T68" s="18"/>
+      <c r="U68" s="18"/>
+      <c r="V68">
+        <v>81.64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A69" s="16"/>
+      <c r="B69" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69">
+        <v>78.459999999999994</v>
+      </c>
+      <c r="F69">
+        <v>83.83</v>
+      </c>
+      <c r="G69">
+        <f t="shared" ref="G69:G72" si="16">E69-F69</f>
+        <v>-5.3700000000000045</v>
+      </c>
+      <c r="H69">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="I69">
+        <f>E69 - H69</f>
+        <v>0.35999999999999943</v>
+      </c>
+      <c r="J69">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="K69">
+        <f t="shared" ref="K69:K72" si="17">E69 - J69</f>
+        <v>-1.1400000000000006</v>
+      </c>
+      <c r="L69">
+        <v>74.27</v>
+      </c>
+      <c r="M69">
+        <f>E69-L69</f>
+        <v>4.1899999999999977</v>
+      </c>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
+      <c r="R69" s="17"/>
+      <c r="S69" s="17"/>
+      <c r="T69" s="18"/>
+      <c r="U69" s="18"/>
+      <c r="V69">
+        <v>78.8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70">
+        <v>95.59</v>
+      </c>
+      <c r="F70">
+        <v>96.59</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="H70">
+        <v>95.3</v>
+      </c>
+      <c r="I70">
+        <f>E70 - H70</f>
+        <v>0.29000000000000625</v>
+      </c>
+      <c r="J70">
+        <v>95.8</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="17"/>
+        <v>-0.20999999999999375</v>
+      </c>
+      <c r="L70">
+        <v>93.29</v>
+      </c>
+      <c r="M70">
+        <f>E70-L70</f>
+        <v>2.2999999999999972</v>
+      </c>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
+      <c r="R70" s="17"/>
+      <c r="S70" s="17"/>
+      <c r="T70" s="18"/>
+      <c r="U70" s="18"/>
+      <c r="V70">
+        <v>95.75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="F71">
+        <v>82.92</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="16"/>
+        <v>-16.320000000000007</v>
+      </c>
+      <c r="H71">
+        <v>74.7</v>
+      </c>
+      <c r="I71">
+        <f>E71 - H71</f>
+        <v>-8.1000000000000085</v>
+      </c>
+      <c r="J71">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="17"/>
+        <v>-11</v>
+      </c>
+      <c r="L71">
+        <v>58.91</v>
+      </c>
+      <c r="M71">
+        <f>E71-L71</f>
+        <v>7.6899999999999977</v>
+      </c>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
+      <c r="R71" s="17"/>
+      <c r="S71" s="17"/>
+      <c r="T71" s="18"/>
+      <c r="U71" s="18"/>
+      <c r="V71">
+        <v>66.900000000000006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72">
+        <f>AVERAGE(E68:E71)</f>
+        <v>80.4375</v>
+      </c>
+      <c r="F72" s="2">
+        <f>AVERAGE(F68:F71)</f>
+        <v>87.954999999999998</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="16"/>
+        <v>-7.5174999999999983</v>
+      </c>
+      <c r="H72" s="2">
+        <f>AVERAGE(H68:H71)</f>
+        <v>83.075000000000003</v>
+      </c>
+      <c r="I72">
+        <f>E72 - H72</f>
+        <v>-2.6375000000000028</v>
+      </c>
+      <c r="J72">
+        <v>84.1</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="17"/>
+        <v>-3.6624999999999943</v>
+      </c>
+      <c r="L72" s="2">
+        <f>AVERAGE(L68:L71)</f>
+        <v>75.41749999999999</v>
+      </c>
+      <c r="M72">
+        <f>E72-L72</f>
+        <v>5.0200000000000102</v>
+      </c>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
+      <c r="R72" s="17"/>
+      <c r="S72" s="17"/>
+      <c r="T72" s="18"/>
+      <c r="U72" s="18"/>
+      <c r="V72">
+        <f>AVERAGE(V68:V71)</f>
+        <v>80.772500000000008</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A75" s="12"/>
+      <c r="B75" t="s">
+        <v>55</v>
+      </c>
+      <c r="W75" t="s">
+        <v>90</v>
+      </c>
+      <c r="X75" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" s="16"/>
+      <c r="F76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" t="s">
+        <v>19</v>
+      </c>
+      <c r="I76" t="s">
+        <v>20</v>
+      </c>
+      <c r="J76" t="s">
+        <v>51</v>
+      </c>
+      <c r="K76" t="s">
+        <v>52</v>
+      </c>
+      <c r="L76" t="s">
+        <v>25</v>
+      </c>
+      <c r="M76" t="s">
+        <v>16</v>
+      </c>
+      <c r="N76" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="O76" s="16"/>
+      <c r="P76" s="16"/>
+      <c r="Q76" s="16"/>
+      <c r="R76" s="16"/>
+      <c r="S76" s="16"/>
+      <c r="T76" t="s">
+        <v>23</v>
+      </c>
+      <c r="V76" t="s">
+        <v>88</v>
+      </c>
+      <c r="W76" t="s">
+        <v>89</v>
+      </c>
+      <c r="X76" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A77" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77">
+        <v>78.760000000000005</v>
+      </c>
+      <c r="F77">
+        <v>88.48</v>
+      </c>
+      <c r="G77">
+        <f>E77-F77</f>
+        <v>-9.7199999999999989</v>
+      </c>
+      <c r="H77">
+        <v>84.2</v>
+      </c>
+      <c r="I77">
+        <f>E77 - H77</f>
+        <v>-5.4399999999999977</v>
+      </c>
+      <c r="J77">
+        <v>83.6</v>
+      </c>
+      <c r="K77">
+        <f>E77 - J77</f>
+        <v>-4.8399999999999892</v>
+      </c>
+      <c r="L77">
+        <v>75.2</v>
+      </c>
+      <c r="M77">
+        <f>E77-L77</f>
+        <v>3.5600000000000023</v>
+      </c>
+      <c r="N77" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
+      <c r="R77" s="17"/>
+      <c r="S77" s="17"/>
+      <c r="T77" s="18"/>
+      <c r="U77" s="18"/>
+      <c r="V77">
+        <v>80.709999999999994</v>
+      </c>
+      <c r="W77">
+        <v>77.44</v>
+      </c>
+      <c r="X77">
+        <v>70.8</v>
+      </c>
+      <c r="Y77">
+        <v>75.489999999999995</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78">
+        <v>80.59</v>
+      </c>
+      <c r="F78">
+        <v>83.83</v>
+      </c>
+      <c r="G78">
+        <f t="shared" ref="G78:G81" si="18">E78-F78</f>
+        <v>-3.2399999999999949</v>
+      </c>
+      <c r="H78">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="I78">
+        <f>E78 - H78</f>
+        <v>2.4900000000000091</v>
+      </c>
+      <c r="J78">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="K78">
+        <f t="shared" ref="K78:K81" si="19">E78 - J78</f>
+        <v>0.99000000000000909</v>
+      </c>
+      <c r="L78">
+        <v>74.27</v>
+      </c>
+      <c r="M78">
+        <f>E78-L78</f>
+        <v>6.3200000000000074</v>
+      </c>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
+      <c r="R78" s="17"/>
+      <c r="S78" s="17"/>
+      <c r="T78" s="18"/>
+      <c r="U78" s="18"/>
+      <c r="V78">
+        <v>80.38</v>
+      </c>
+      <c r="W78">
+        <v>80.12</v>
+      </c>
+      <c r="X78">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="Y78">
+        <v>78.97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79">
+        <v>93.05</v>
+      </c>
+      <c r="F79">
+        <v>96.59</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="18"/>
+        <v>-3.5400000000000063</v>
+      </c>
+      <c r="H79">
+        <v>95.3</v>
+      </c>
+      <c r="I79">
+        <f>E79 - H79</f>
+        <v>-2.25</v>
+      </c>
+      <c r="J79">
+        <v>95.8</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="19"/>
+        <v>-2.75</v>
+      </c>
+      <c r="L79">
+        <v>93.29</v>
+      </c>
+      <c r="M79">
+        <f>E79-L79</f>
+        <v>-0.24000000000000909</v>
+      </c>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
+      <c r="R79" s="17"/>
+      <c r="S79" s="17"/>
+      <c r="T79" s="18"/>
+      <c r="U79" s="18"/>
+      <c r="V79">
+        <v>94.07</v>
+      </c>
+      <c r="W79">
+        <v>92.16</v>
+      </c>
+      <c r="X79">
+        <v>87.49</v>
+      </c>
+      <c r="Y79">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80">
+        <v>82.82</v>
+      </c>
+      <c r="F80">
+        <v>82.92</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="18"/>
+        <v>-0.10000000000000853</v>
+      </c>
+      <c r="H80">
+        <v>74.7</v>
+      </c>
+      <c r="I80" s="15">
+        <f>E80 - H80</f>
+        <v>8.1199999999999903</v>
+      </c>
+      <c r="J80">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="K80" s="15">
+        <f>E80 - J80</f>
+        <v>5.2199999999999989</v>
+      </c>
+      <c r="L80">
+        <v>58.91</v>
+      </c>
+      <c r="M80">
+        <f>E80-L80</f>
+        <v>23.909999999999997</v>
+      </c>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
+      <c r="R80" s="17"/>
+      <c r="S80" s="17"/>
+      <c r="T80" s="18"/>
+      <c r="U80" s="18"/>
+      <c r="V80">
+        <v>80.55</v>
+      </c>
+      <c r="W80">
+        <v>82.89</v>
+      </c>
+      <c r="X80">
+        <v>82.13</v>
+      </c>
+      <c r="Y80">
+        <v>83.35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81">
+        <f>AVERAGE(E77:E80)</f>
+        <v>83.805000000000007</v>
+      </c>
+      <c r="F81" s="2">
+        <f>AVERAGE(F77:F80)</f>
+        <v>87.954999999999998</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="18"/>
+        <v>-4.1499999999999915</v>
+      </c>
+      <c r="H81" s="2">
+        <f>AVERAGE(H77:H80)</f>
+        <v>83.075000000000003</v>
+      </c>
+      <c r="I81">
+        <f>E81 - H81</f>
+        <v>0.73000000000000398</v>
+      </c>
+      <c r="J81">
+        <v>84.1</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="19"/>
+        <v>-0.29499999999998749</v>
+      </c>
+      <c r="L81" s="2">
+        <f>AVERAGE(L77:L80)</f>
+        <v>75.41749999999999</v>
+      </c>
+      <c r="M81">
+        <f>E81-L81</f>
+        <v>8.3875000000000171</v>
+      </c>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
+      <c r="R81" s="17"/>
+      <c r="S81" s="17"/>
+      <c r="T81" s="18"/>
+      <c r="U81" s="18"/>
+      <c r="V81">
+        <f>AVERAGE(V77:V80)</f>
+        <v>83.927499999999995</v>
+      </c>
+      <c r="W81">
+        <f>AVERAGE(W77:W80)</f>
+        <v>83.152500000000003</v>
+      </c>
+      <c r="X81">
+        <f>AVERAGE(X77:X80)</f>
+        <v>78.704999999999998</v>
+      </c>
+      <c r="Y81">
+        <f>AVERAGE(Y77:Y80)</f>
+        <v>82.402500000000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" s="16"/>
+      <c r="F100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" t="s">
+        <v>15</v>
+      </c>
+      <c r="H100" t="s">
+        <v>19</v>
+      </c>
+      <c r="I100" t="s">
+        <v>20</v>
+      </c>
+      <c r="J100" t="s">
+        <v>51</v>
+      </c>
+      <c r="K100" t="s">
+        <v>52</v>
+      </c>
+      <c r="L100" t="s">
+        <v>25</v>
+      </c>
+      <c r="M100" t="s">
+        <v>16</v>
+      </c>
+      <c r="N100" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="O100" s="16"/>
+      <c r="P100" s="16"/>
+      <c r="Q100" s="16"/>
+      <c r="R100" s="16"/>
+      <c r="S100" s="16"/>
+      <c r="T100" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A101" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101">
+        <v>77.58</v>
+      </c>
+      <c r="F101">
+        <v>88.48</v>
+      </c>
+      <c r="G101">
+        <f>E101-F101</f>
+        <v>-10.900000000000006</v>
+      </c>
+      <c r="H101">
+        <v>84.2</v>
+      </c>
+      <c r="I101">
+        <f>E101 - H101</f>
+        <v>-6.6200000000000045</v>
+      </c>
+      <c r="J101">
+        <v>83.6</v>
+      </c>
+      <c r="K101">
+        <f>E101 - J101</f>
+        <v>-6.019999999999996</v>
+      </c>
+      <c r="L101">
+        <v>75.2</v>
+      </c>
+      <c r="M101">
+        <f>E101-L101</f>
+        <v>2.3799999999999955</v>
+      </c>
+      <c r="N101" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
+      <c r="R101" s="17"/>
+      <c r="S101" s="17"/>
+      <c r="T101" s="22"/>
+      <c r="U101" s="22"/>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A102" s="16"/>
+      <c r="B102" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102">
+        <v>76.11</v>
+      </c>
+      <c r="F102">
+        <v>83.83</v>
+      </c>
+      <c r="G102">
+        <f t="shared" ref="G102:G105" si="20">E102-F102</f>
+        <v>-7.7199999999999989</v>
+      </c>
+      <c r="H102">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="I102">
+        <f>E102 - H102</f>
+        <v>-1.9899999999999949</v>
+      </c>
+      <c r="J102">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="K102">
+        <f t="shared" ref="K102:K105" si="21">E102 - J102</f>
+        <v>-3.4899999999999949</v>
+      </c>
+      <c r="L102">
+        <v>74.27</v>
+      </c>
+      <c r="M102">
+        <f>E102-L102</f>
+        <v>1.8400000000000034</v>
+      </c>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
+      <c r="R102" s="17"/>
+      <c r="S102" s="17"/>
+      <c r="T102" s="22"/>
+      <c r="U102" s="22"/>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A103" s="16"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103">
+        <v>94.97</v>
+      </c>
+      <c r="F103">
+        <v>96.59</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="20"/>
+        <v>-1.6200000000000045</v>
+      </c>
+      <c r="H103">
+        <v>95.3</v>
+      </c>
+      <c r="I103">
+        <f>E103 - H103</f>
+        <v>-0.32999999999999829</v>
+      </c>
+      <c r="J103">
+        <v>95.8</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="21"/>
+        <v>-0.82999999999999829</v>
+      </c>
+      <c r="L103">
+        <v>93.29</v>
+      </c>
+      <c r="M103">
+        <f>E103-L103</f>
+        <v>1.6799999999999926</v>
+      </c>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
+      <c r="R103" s="17"/>
+      <c r="S103" s="17"/>
+      <c r="T103" s="22"/>
+      <c r="U103" s="22"/>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A104" s="16"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104">
+        <v>65.48</v>
+      </c>
+      <c r="F104">
+        <v>82.92</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="20"/>
+        <v>-17.439999999999998</v>
+      </c>
+      <c r="H104">
+        <v>74.7</v>
+      </c>
+      <c r="I104">
+        <f>E104 - H104</f>
+        <v>-9.2199999999999989</v>
+      </c>
+      <c r="J104">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="21"/>
+        <v>-12.11999999999999</v>
+      </c>
+      <c r="L104">
+        <v>58.91</v>
+      </c>
+      <c r="M104">
+        <f>E104-L104</f>
+        <v>6.5700000000000074</v>
+      </c>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
+      <c r="R104" s="17"/>
+      <c r="S104" s="17"/>
+      <c r="T104" s="22"/>
+      <c r="U104" s="22"/>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A105" s="16"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105">
+        <f>AVERAGE(E101:E104)</f>
+        <v>78.534999999999997</v>
+      </c>
+      <c r="F105" s="2">
+        <f>AVERAGE(F101:F104)</f>
+        <v>87.954999999999998</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="20"/>
+        <v>-9.4200000000000017</v>
+      </c>
+      <c r="H105" s="2">
+        <f>AVERAGE(H101:H104)</f>
+        <v>83.075000000000003</v>
+      </c>
+      <c r="I105">
+        <f>E105 - H105</f>
+        <v>-4.5400000000000063</v>
+      </c>
+      <c r="J105">
+        <v>84.1</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="21"/>
+        <v>-5.5649999999999977</v>
+      </c>
+      <c r="L105" s="2">
+        <f>AVERAGE(L101:L104)</f>
+        <v>75.41749999999999</v>
+      </c>
+      <c r="M105">
+        <f>E105-L105</f>
         <v>3.1175000000000068</v>
       </c>
-      <c r="N63" s="14"/>
-      <c r="O63" s="14"/>
-      <c r="P63" s="14"/>
-      <c r="Q63" s="14"/>
-      <c r="R63" s="14"/>
-      <c r="S63" s="14"/>
-      <c r="T63" s="16"/>
-      <c r="U63" s="16"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
+      <c r="R105" s="17"/>
+      <c r="S105" s="17"/>
+      <c r="T105" s="22"/>
+      <c r="U105" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="64">
+  <mergeCells count="88">
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="N76:S76"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="N77:S81"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="N59:S63"/>
+    <mergeCell ref="T59:U63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="N67:S67"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="N68:S72"/>
+    <mergeCell ref="T68:U72"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="C69:C72"/>
+    <mergeCell ref="T77:U81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C78:C81"/>
     <mergeCell ref="A51:A55"/>
     <mergeCell ref="N51:S55"/>
     <mergeCell ref="T51:U55"/>
@@ -5121,8 +6231,8 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="N25:S25"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="N59:S63"/>
+    <mergeCell ref="A101:A105"/>
+    <mergeCell ref="N101:S105"/>
     <mergeCell ref="A26:A30"/>
     <mergeCell ref="N26:S30"/>
     <mergeCell ref="T26:U30"/>
@@ -5137,17 +6247,22 @@
     <mergeCell ref="B43:B46"/>
     <mergeCell ref="C43:C46"/>
     <mergeCell ref="B50:C50"/>
-    <mergeCell ref="T59:U63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="T101:U105"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="C102:C105"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="N33:S33"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="N100:S100"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="N50:S50"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="N58:S58"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="N50:S50"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="N34:S38"/>
     <mergeCell ref="T34:U38"/>
@@ -5240,7 +6355,7 @@
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="13">
         <f>AVERAGE(B3:B6)</f>
         <v>82.407499999999999</v>
       </c>
@@ -5278,14 +6393,14 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="16"/>
       <c r="F2" t="s">
         <v>11</v>
       </c>
@@ -5310,20 +6425,20 @@
       <c r="M2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
       <c r="T2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B3" t="s">
@@ -5366,23 +6481,23 @@
         <f>E3-L3</f>
         <v>3.6599999999999966</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
@@ -5419,19 +6534,19 @@
         <f>E4-L4</f>
         <v>1.0100000000000051</v>
       </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
       <c r="D5" t="s">
         <v>9</v>
       </c>
@@ -5466,19 +6581,19 @@
         <f>E5-L5</f>
         <v>-0.49000000000000909</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
       <c r="D6" t="s">
         <v>10</v>
       </c>
@@ -5513,19 +6628,19 @@
         <f>E6-L6</f>
         <v>15.52000000000001</v>
       </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
       <c r="D7" t="s">
         <v>14</v>
       </c>
@@ -5564,14 +6679,14 @@
         <f>E7-L7</f>
         <v>4.9250000000000114</v>
       </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5607,14 +6722,14 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13"/>
+      <c r="E1" s="16"/>
       <c r="F1" t="s">
         <v>11</v>
       </c>
@@ -5633,20 +6748,20 @@
       <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
       <c r="R1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B2" t="s">
@@ -5667,21 +6782,21 @@
       <c r="J2">
         <v>75.2</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
@@ -5696,19 +6811,19 @@
       <c r="J3">
         <v>74.27</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
       <c r="D4" t="s">
         <v>9</v>
       </c>
@@ -5721,19 +6836,19 @@
       <c r="J4">
         <v>93.29</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
       <c r="D5" t="s">
         <v>10</v>
       </c>
@@ -5746,19 +6861,19 @@
       <c r="J5">
         <v>58.91</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
       <c r="D6" t="s">
         <v>14</v>
       </c>
@@ -5774,14 +6889,14 @@
         <f>AVERAGE(J2:J5)</f>
         <v>75.41749999999999</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/结果.xlsx
+++ b/结果.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dassl2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0040613F-9221-4942-B5B4-B0899FB157C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F24BE5-9A33-4BD6-BAEB-65D617BA1169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{79195763-0B37-44CA-843D-BD2B45EE2572}"/>
   </bookViews>
@@ -36,8 +36,125 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>USTCer</author>
+  </authors>
+  <commentList>
+    <comment ref="Q110" authorId="0" shapeId="0" xr:uid="{C62125A6-B781-40D0-B38D-81E4D6994376}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>USTCer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+存在异样，catoon中目标预测曲线波动很大，而sketch中的波动很小
+实际上，这是因为刻度的原因导致曲线的波动被放大</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X111" authorId="0" shapeId="0" xr:uid="{4297E206-7EDD-4584-8C7B-94106877418A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>USTCer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+存在异样，catoon中目标预测曲线波动很大，而sketch中的波动很小
+实际上，这是因为刻度的原因导致曲线的波动被放大</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R124" authorId="0" shapeId="0" xr:uid="{84B3D058-F7EB-4B44-9741-AF715D71C2D4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>USTCer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+由图像发现，在epoch到达10的时候，模型在验证集上的表现出现明显下滑（除了第三个数据集）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B132" authorId="0" shapeId="0" xr:uid="{B50A8947-6EF4-41CD-9C5D-0A58B5B56BF7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>USTCer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+存在异样，catoon中目标预测曲线波动很大，而sketch中的波动很小
+实际上，这是因为刻度的原因导致曲线的波动被放大</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="181">
   <si>
     <t>实验版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,10 +324,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SplitNet_V1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>将增强概率改成0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,10 +436,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SplitNet_V2.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>多样化混淆样式，50%进行混淆，其中的50%两个都进行混淆，剩下的50%只混淆其中一个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -355,10 +464,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SplitNet_V2.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>使用论文中的混淆方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -371,10 +476,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SplitNet_V2.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>由于发现当进行概率的时候模型的训练中的准确度不太好，所以增强不确定建模的概率(p=0.8)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -383,14 +484,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Uncertainty V4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uncertainty modeling ± 1.5 shift</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>±1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -412,6 +505,470 @@
   </si>
   <si>
     <t>1.5+σ=0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uncertainty V5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SplitNet_V5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50 - SFA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始二分特征网络.uncertainty modeling ± 1.5 shift +SFA  （SFA(Uncertainty(x))）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uncertainty_V4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uncertainty_V3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uncertainty_V2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uncertainty_V2.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uncertainty_V2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uncertainty_V2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uncertainty_V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uncertainty_V1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消融实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全添加1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+2+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除1、5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏移效果似乎与batch的大小相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batchsize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch=125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收敛速度慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sketch(batch=25)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1batch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decrease 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不进行shift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0、2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0、1、2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、2、3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Office-Home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clipart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Real</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2A-OT(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mixstyle(21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSU(22)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift+1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单侧偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据截断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要记得检查服务器上的代码是否正确修改了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift-1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpoch=50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-0.5, 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift±1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift±2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对标准正态分布进行筛选（概率密度后50%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原先采用静态偏移产生的优势消失了， 劣势也消失了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选pdf前50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epochs = 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lr=0.001, b=32</t>
+  </si>
+  <si>
+    <t>lr=0.001, b=32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整使用概率epoch/max_epoch 其他与右边相似</t>
+  </si>
+  <si>
+    <t>调整使用概率epoch/max_epoch 其他与右边相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l=0.005, b=128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照p值扩展采样范围1，2，3，4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1.5/3/6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1.5/3/6</t>
+  </si>
+  <si>
+    <t>1+10*p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+10*p//方差=2</t>
+  </si>
+  <si>
+    <t>1+10*p + 01234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+5p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+10*p + 012345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01235</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+3p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSU(ICLR 22)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lr=0.008, b=128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lr=1e-3,b=32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lr=0.005, batch=128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数滑动平均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>lamb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>layer_dic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'mean'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>lamb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mean_de</t>
+    </r>
+  </si>
+  <si>
+    <t>λ=.3，1+10p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>λ=.3，1+3p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>λ=.7，1+10p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不对均值进行操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VLCS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|–– CALTECH/</t>
+  </si>
+  <si>
+    <t>|–– LABELME/</t>
+  </si>
+  <si>
+    <t>|–– PASCAL/</t>
+  </si>
+  <si>
+    <t>|–– SUN/</t>
+  </si>
+  <si>
+    <t>λ=.5，1+10p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>λ=0.7， 1+10p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先利用原始数据标准化， 均值变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均值不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>λ=0.7， 1+2p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lr=0.001; epoch=64; b=32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEED1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEED2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEED3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,7 +979,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,8 +1020,76 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFF0F3F6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,8 +1114,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -524,6 +1155,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -533,7 +1244,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -591,6 +1302,81 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -600,11 +1386,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -622,6 +1417,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>60961</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>125073</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B417867A-4069-4353-BFF5-A24C424FF4FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7566661" y="15621000"/>
+          <a:ext cx="1493519" cy="978513"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -923,7 +1767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC0E7C2-64E0-4C95-997A-A0D48152339F}">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
@@ -954,14 +1798,14 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16"/>
+      <c r="E2" s="41"/>
       <c r="F2" t="s">
         <v>11</v>
       </c>
@@ -980,20 +1824,20 @@
       <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
       <c r="R2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="41" t="s">
         <v>26</v>
       </c>
       <c r="B3" t="s">
@@ -1029,25 +1873,25 @@
         <f>E3-J3</f>
         <v>-2.4500000000000028</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17" t="s">
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42" t="s">
         <v>36</v>
       </c>
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
@@ -1077,19 +1921,19 @@
         <f t="shared" ref="K4:K7" si="2">E4-J4</f>
         <v>-0.20999999999999375</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
       <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
       <c r="D5" t="s">
         <v>9</v>
       </c>
@@ -1117,19 +1961,19 @@
         <f t="shared" si="2"/>
         <v>1.6199999999999903</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
       <c r="S5" s="8"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
       <c r="D6" t="s">
         <v>10</v>
       </c>
@@ -1157,19 +2001,19 @@
         <f t="shared" si="2"/>
         <v>8.0700000000000074</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
       <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
       <c r="D7" t="s">
         <v>14</v>
       </c>
@@ -1201,13 +2045,13 @@
         <f t="shared" si="2"/>
         <v>1.7575000000000074</v>
       </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
       <c r="S7" s="8"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1248,14 +2092,14 @@
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16" t="s">
+      <c r="C10" s="41"/>
+      <c r="D10" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="41"/>
       <c r="F10" t="s">
         <v>11</v>
       </c>
@@ -1274,21 +2118,21 @@
       <c r="K10" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
       <c r="R10" s="9" t="s">
         <v>23</v>
       </c>
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="41" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
@@ -1324,25 +2168,25 @@
         <f xml:space="preserve"> E11 - J11</f>
         <v>3.019999999999996</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17" t="s">
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42" t="s">
         <v>24</v>
       </c>
       <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D12" t="s">
@@ -1372,19 +2216,19 @@
         <f t="shared" ref="K12:K15" si="5" xml:space="preserve"> E12 - J12</f>
         <v>0.82000000000000739</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
       <c r="D13" t="s">
         <v>9</v>
       </c>
@@ -1412,19 +2256,19 @@
         <f t="shared" si="5"/>
         <v>1.3199999999999932</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
       <c r="S13" s="8"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
       <c r="D14" t="s">
         <v>10</v>
       </c>
@@ -1452,19 +2296,19 @@
         <f t="shared" si="5"/>
         <v>6.3599999999999994</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
       <c r="S14" s="8"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
       <c r="D15" t="s">
         <v>14</v>
       </c>
@@ -1496,13 +2340,13 @@
         <f t="shared" si="5"/>
         <v>2.8800000000000097</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
       <c r="S15" s="8"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1529,14 +2373,14 @@
       <c r="A18" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16" t="s">
+      <c r="C18" s="41"/>
+      <c r="D18" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="16"/>
+      <c r="E18" s="41"/>
       <c r="F18" t="s">
         <v>11</v>
       </c>
@@ -1555,21 +2399,21 @@
       <c r="K18" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="L18" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
       <c r="R18" s="9" t="s">
         <v>23</v>
       </c>
       <c r="S18" s="8"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="41" t="s">
         <v>29</v>
       </c>
       <c r="B19" t="s">
@@ -1605,25 +2449,25 @@
         <f>E19-J19</f>
         <v>3.7599999999999909</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="L19" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17" t="s">
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42" t="s">
         <v>35</v>
       </c>
       <c r="S19" s="8"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D20" t="s">
@@ -1653,19 +2497,19 @@
         <f t="shared" ref="K20:K23" si="8">E20-J20</f>
         <v>0.90000000000000568</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
       <c r="S20" s="8"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
       <c r="D21" t="s">
         <v>9</v>
       </c>
@@ -1693,19 +2537,19 @@
         <f t="shared" si="8"/>
         <v>1.4399999999999977</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
       <c r="S21" s="8"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
       <c r="D22" t="s">
         <v>10</v>
       </c>
@@ -1733,19 +2577,19 @@
         <f t="shared" si="8"/>
         <v>6.6400000000000006</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
       <c r="S22" s="8"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
       <c r="D23" t="s">
         <v>14</v>
       </c>
@@ -1777,13 +2621,13 @@
         <f t="shared" si="8"/>
         <v>3.1850000000000165</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
       <c r="S23" s="8"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -1812,14 +2656,14 @@
       <c r="A26" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16" t="s">
+      <c r="C26" s="41"/>
+      <c r="D26" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="16"/>
+      <c r="E26" s="41"/>
       <c r="F26" t="s">
         <v>11</v>
       </c>
@@ -1838,21 +2682,21 @@
       <c r="K26" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="17" t="s">
+      <c r="L26" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
       <c r="R26" s="9" t="s">
         <v>23</v>
       </c>
       <c r="S26" s="8"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="41" t="s">
         <v>31</v>
       </c>
       <c r="B27" t="s">
@@ -1888,25 +2732,25 @@
         <f>E27-J27</f>
         <v>-1.3700000000000045</v>
       </c>
-      <c r="L27" s="17" t="s">
+      <c r="L27" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="18" t="s">
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="43" t="s">
         <v>37</v>
       </c>
       <c r="S27" s="10"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16" t="s">
+      <c r="A28" s="41"/>
+      <c r="B28" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D28" t="s">
@@ -1936,19 +2780,19 @@
         <f t="shared" ref="K28:K31" si="11">E28-J28</f>
         <v>2.9100000000000108</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="18"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="43"/>
       <c r="S28" s="10"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
       <c r="D29" t="s">
         <v>9</v>
       </c>
@@ -1976,19 +2820,19 @@
         <f t="shared" si="11"/>
         <v>1.0799999999999983</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="18"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="43"/>
       <c r="S29" s="10"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
       <c r="D30" t="s">
         <v>10</v>
       </c>
@@ -2016,19 +2860,19 @@
         <f t="shared" si="11"/>
         <v>3.3600000000000065</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="18"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="43"/>
       <c r="S30" s="10"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
       <c r="D31" t="s">
         <v>14</v>
       </c>
@@ -2060,35 +2904,35 @@
         <f t="shared" si="11"/>
         <v>1.4950000000000045</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="18"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="43"/>
       <c r="S31" s="10"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16" t="s">
+      <c r="C34" s="41"/>
+      <c r="D34" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="16"/>
+      <c r="E34" s="41"/>
       <c r="F34" t="s">
         <v>11</v>
       </c>
@@ -2107,21 +2951,21 @@
       <c r="K34" t="s">
         <v>16</v>
       </c>
-      <c r="L34" s="17" t="s">
+      <c r="L34" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
       <c r="R34" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
-        <v>60</v>
+      <c r="A35" s="41" t="s">
+        <v>59</v>
       </c>
       <c r="B35" t="s">
         <v>4</v>
@@ -2156,22 +3000,22 @@
         <f>E35-J35</f>
         <v>-1.3700000000000045</v>
       </c>
-      <c r="L35" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="18"/>
+      <c r="L35" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="43"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="16" t="s">
+      <c r="A36" s="41"/>
+      <c r="B36" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D36" t="s">
@@ -2201,18 +3045,18 @@
         <f t="shared" ref="K36:K39" si="14">E36-J36</f>
         <v>2.9100000000000108</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="18"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="43"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
       <c r="D37" t="s">
         <v>9</v>
       </c>
@@ -2240,18 +3084,18 @@
         <f t="shared" si="14"/>
         <v>1.0799999999999983</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="18"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="43"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
       <c r="D38" t="s">
         <v>10</v>
       </c>
@@ -2279,18 +3123,18 @@
         <f t="shared" si="14"/>
         <v>3.3600000000000065</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="18"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="43"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
       <c r="D39" t="s">
         <v>14</v>
       </c>
@@ -2322,34 +3166,34 @@
         <f t="shared" si="14"/>
         <v>1.4950000000000045</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="18"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="43"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16" t="s">
+      <c r="C42" s="41"/>
+      <c r="D42" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="16"/>
+      <c r="E42" s="41"/>
       <c r="F42" t="s">
         <v>11</v>
       </c>
@@ -2368,21 +3212,21 @@
       <c r="K42" t="s">
         <v>16</v>
       </c>
-      <c r="L42" s="17" t="s">
+      <c r="L42" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
       <c r="R42" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
-        <v>63</v>
+      <c r="A43" s="41" t="s">
+        <v>62</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
@@ -2417,22 +3261,22 @@
         <f>E43-J43</f>
         <v>-1.3700000000000045</v>
       </c>
-      <c r="L43" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="18"/>
+      <c r="L43" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="43"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="16" t="s">
+      <c r="A44" s="41"/>
+      <c r="B44" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D44" t="s">
@@ -2462,18 +3306,18 @@
         <f t="shared" ref="K44:K47" si="17">E44-J44</f>
         <v>2.9100000000000108</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="18"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="43"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
       <c r="D45" t="s">
         <v>9</v>
       </c>
@@ -2501,18 +3345,18 @@
         <f t="shared" si="17"/>
         <v>1.0799999999999983</v>
       </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="18"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="43"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
       <c r="D46" t="s">
         <v>10</v>
       </c>
@@ -2540,18 +3384,18 @@
         <f t="shared" si="17"/>
         <v>3.3600000000000065</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="18"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="43"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
       <c r="D47" t="s">
         <v>14</v>
       </c>
@@ -2583,13 +3427,13 @@
         <f t="shared" si="17"/>
         <v>1.4950000000000045</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
-      <c r="R47" s="18"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="48">
@@ -2648,11 +3492,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7C918E-EA30-432D-A1C4-E9136D7B3B39}">
-  <dimension ref="A1:Z105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7C918E-EA30-432D-A1C4-E9136D7B3B39}">
+  <dimension ref="A1:AE185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F61" workbookViewId="0">
-      <selection activeCell="Z77" sqref="Z77"/>
+    <sheetView tabSelected="1" topLeftCell="J106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U126" sqref="U126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2665,7 +3509,8 @@
     <col min="8" max="8" width="14.33203125" customWidth="1"/>
     <col min="9" max="9" width="10.5546875" customWidth="1"/>
     <col min="10" max="10" width="11.5546875" customWidth="1"/>
-    <col min="23" max="23" width="14.5546875" customWidth="1"/>
+    <col min="22" max="22" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" customWidth="1"/>
     <col min="24" max="24" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2673,14 +3518,14 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16"/>
+      <c r="E1" s="41"/>
       <c r="F1" t="s">
         <v>11</v>
       </c>
@@ -2694,10 +3539,10 @@
         <v>20</v>
       </c>
       <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
         <v>51</v>
-      </c>
-      <c r="K1" t="s">
-        <v>52</v>
       </c>
       <c r="L1" t="s">
         <v>25</v>
@@ -2705,20 +3550,20 @@
       <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
       <c r="T1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="41" t="s">
         <v>39</v>
       </c>
       <c r="B2" t="s">
@@ -2761,25 +3606,25 @@
         <f>E2-L2</f>
         <v>9.0000000000003411E-2</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="U2" s="22"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" s="48"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
@@ -2816,19 +3661,19 @@
         <f>E3-L3</f>
         <v>-1.2299999999999898</v>
       </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
       <c r="D4" t="s">
         <v>9</v>
       </c>
@@ -2863,19 +3708,19 @@
         <f>E4-L4</f>
         <v>2.3399999999999892</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
       <c r="D5" t="s">
         <v>10</v>
       </c>
@@ -2910,19 +3755,19 @@
         <f>E5-L5</f>
         <v>8.5300000000000011</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
       <c r="D6" t="s">
         <v>14</v>
       </c>
@@ -2961,27 +3806,27 @@
         <f>E6-L6</f>
         <v>2.4325000000000045</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16" t="s">
+      <c r="C9" s="41"/>
+      <c r="D9" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="41"/>
       <c r="F9" t="s">
         <v>11</v>
       </c>
@@ -2995,10 +3840,10 @@
         <v>20</v>
       </c>
       <c r="J9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" t="s">
         <v>51</v>
-      </c>
-      <c r="K9" t="s">
-        <v>52</v>
       </c>
       <c r="L9" t="s">
         <v>25</v>
@@ -3006,20 +3851,20 @@
       <c r="M9" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="16" t="s">
+      <c r="N9" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
       <c r="T9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="41" t="s">
         <v>41</v>
       </c>
       <c r="B10" t="s">
@@ -3062,23 +3907,23 @@
         <f>E10-L10</f>
         <v>1.4599999999999937</v>
       </c>
-      <c r="N10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
+      <c r="N10" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
@@ -3115,19 +3960,19 @@
         <f>E11-L11</f>
         <v>1.8400000000000034</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
       <c r="D12" t="s">
         <v>9</v>
       </c>
@@ -3162,19 +4007,19 @@
         <f>E12-L12</f>
         <v>1.6799999999999926</v>
       </c>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
       <c r="D13" t="s">
         <v>10</v>
       </c>
@@ -3209,19 +4054,19 @@
         <f>E13-L13</f>
         <v>6.5700000000000074</v>
       </c>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
       <c r="D14" t="s">
         <v>14</v>
       </c>
@@ -3260,32 +4105,32 @@
         <f>E14-L14</f>
         <v>2.8875000000000028</v>
       </c>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16" t="s">
+      <c r="C17" s="41"/>
+      <c r="D17" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="41"/>
       <c r="F17" t="s">
         <v>11</v>
       </c>
@@ -3299,10 +4144,10 @@
         <v>20</v>
       </c>
       <c r="J17" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" t="s">
         <v>51</v>
-      </c>
-      <c r="K17" t="s">
-        <v>52</v>
       </c>
       <c r="L17" t="s">
         <v>25</v>
@@ -3310,20 +4155,20 @@
       <c r="M17" t="s">
         <v>16</v>
       </c>
-      <c r="N17" s="16" t="s">
+      <c r="N17" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
       <c r="T17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="41" t="s">
         <v>41</v>
       </c>
       <c r="B18" t="s">
@@ -3366,25 +4211,25 @@
         <f>E18-L18</f>
         <v>2.3400000000000034</v>
       </c>
-      <c r="N18" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="U18" s="22"/>
+      <c r="N18" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="U18" s="48"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="16" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D19" t="s">
@@ -3421,19 +4266,19 @@
         <f>E19-L19</f>
         <v>3.25</v>
       </c>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
       <c r="D20" t="s">
         <v>9</v>
       </c>
@@ -3468,19 +4313,19 @@
         <f>E20-L20</f>
         <v>2.3399999999999892</v>
       </c>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
       <c r="D21" t="s">
         <v>10</v>
       </c>
@@ -3515,19 +4360,19 @@
         <f>E21-L21</f>
         <v>7.5900000000000034</v>
       </c>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
       <c r="D22" t="s">
         <v>14</v>
       </c>
@@ -3566,33 +4411,33 @@
         <f>E22-L22</f>
         <v>3.8800000000000097</v>
       </c>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16" t="s">
+      <c r="C25" s="41"/>
+      <c r="D25" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="41"/>
       <c r="F25" t="s">
         <v>11</v>
       </c>
@@ -3606,10 +4451,10 @@
         <v>20</v>
       </c>
       <c r="J25" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25" t="s">
         <v>51</v>
-      </c>
-      <c r="K25" t="s">
-        <v>52</v>
       </c>
       <c r="L25" t="s">
         <v>25</v>
@@ -3617,21 +4462,21 @@
       <c r="M25" t="s">
         <v>16</v>
       </c>
-      <c r="N25" s="16" t="s">
+      <c r="N25" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
       <c r="T25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>46</v>
+      <c r="A26" s="41" t="s">
+        <v>45</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
@@ -3673,25 +4518,25 @@
         <f>E26-L26</f>
         <v>1.3100000000000023</v>
       </c>
-      <c r="N26" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="U26" s="22"/>
+      <c r="N26" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="U26" s="48"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="16" t="s">
+      <c r="A27" s="41"/>
+      <c r="B27" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D27" t="s">
@@ -3728,19 +4573,19 @@
         <f>E27-L27</f>
         <v>0.90000000000000568</v>
       </c>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
       <c r="D28" t="s">
         <v>9</v>
       </c>
@@ -3775,19 +4620,19 @@
         <f>E28-L28</f>
         <v>1.3799999999999955</v>
       </c>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
       <c r="D29" t="s">
         <v>10</v>
       </c>
@@ -3822,19 +4667,19 @@
         <f>E29-L29</f>
         <v>8.9399999999999977</v>
       </c>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
       <c r="D30" t="s">
         <v>14</v>
       </c>
@@ -3873,39 +4718,39 @@
         <f>E30-L30</f>
         <v>3.1325000000000216</v>
       </c>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" t="s">
         <v>68</v>
-      </c>
-      <c r="F32" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16" t="s">
+      <c r="C33" s="41"/>
+      <c r="D33" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="16"/>
+      <c r="E33" s="41"/>
       <c r="F33" t="s">
         <v>11</v>
       </c>
@@ -3919,10 +4764,10 @@
         <v>20</v>
       </c>
       <c r="J33" t="s">
+        <v>50</v>
+      </c>
+      <c r="K33" t="s">
         <v>51</v>
-      </c>
-      <c r="K33" t="s">
-        <v>52</v>
       </c>
       <c r="L33" t="s">
         <v>25</v>
@@ -3930,24 +4775,24 @@
       <c r="M33" t="s">
         <v>16</v>
       </c>
-      <c r="N33" s="16" t="s">
+      <c r="N33" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="41"/>
       <c r="T33" t="s">
         <v>23</v>
       </c>
       <c r="V33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>57</v>
+      <c r="A34" s="44" t="s">
+        <v>56</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
@@ -3989,28 +4834,28 @@
         <f>E34-L34</f>
         <v>4.3900000000000006</v>
       </c>
-      <c r="N34" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="U34" s="18"/>
+      <c r="N34" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="U34" s="43"/>
       <c r="V34">
         <v>78.81</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="21" t="s">
+      <c r="A35" s="44"/>
+      <c r="B35" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="46" t="s">
         <v>6</v>
       </c>
       <c r="D35" t="s">
@@ -4047,22 +4892,22 @@
         <f>E35-L35</f>
         <v>3.25</v>
       </c>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="18"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="42"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
       <c r="V35">
         <v>74.66</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="21"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="46"/>
       <c r="D36" t="s">
         <v>9</v>
       </c>
@@ -4097,22 +4942,22 @@
         <f>E36-L36</f>
         <v>2.0999999999999943</v>
       </c>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="43"/>
       <c r="V36">
         <v>95.33</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="21"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="46"/>
       <c r="D37" t="s">
         <v>10</v>
       </c>
@@ -4147,22 +4992,22 @@
         <f>E37-L37</f>
         <v>11.710000000000008</v>
       </c>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="42"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="43"/>
       <c r="V37">
         <v>68.3</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="21"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="46"/>
       <c r="D38" t="s">
         <v>14</v>
       </c>
@@ -4201,14 +5046,14 @@
         <f>E38-L38</f>
         <v>5.3625000000000114</v>
       </c>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
       <c r="V38">
         <f>AVERAGE(V34:V37)</f>
         <v>79.275000000000006</v>
@@ -4233,21 +5078,21 @@
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16" t="s">
+      <c r="C41" s="41"/>
+      <c r="D41" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="16"/>
+      <c r="E41" s="41"/>
       <c r="F41" t="s">
         <v>11</v>
       </c>
@@ -4261,10 +5106,10 @@
         <v>20</v>
       </c>
       <c r="J41" t="s">
+        <v>50</v>
+      </c>
+      <c r="K41" t="s">
         <v>51</v>
-      </c>
-      <c r="K41" t="s">
-        <v>52</v>
       </c>
       <c r="L41" t="s">
         <v>25</v>
@@ -4272,21 +5117,21 @@
       <c r="M41" t="s">
         <v>16</v>
       </c>
-      <c r="N41" s="16" t="s">
+      <c r="N41" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
-      <c r="S41" s="16"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="41"/>
+      <c r="S41" s="41"/>
       <c r="T41" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
-        <v>70</v>
+      <c r="A42" s="41" t="s">
+        <v>69</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
@@ -4328,25 +5173,25 @@
         <f>E42-L42</f>
         <v>4.6299999999999955</v>
       </c>
-      <c r="N42" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="U42" s="18"/>
+      <c r="N42" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="U42" s="43"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="16" t="s">
+      <c r="A43" s="41"/>
+      <c r="B43" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D43" t="s">
@@ -4383,19 +5228,19 @@
         <f>E43-L43</f>
         <v>0.29999999999999716</v>
       </c>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="18"/>
-      <c r="U43" s="18"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="42"/>
+      <c r="S43" s="42"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="43"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
       <c r="D44" t="s">
         <v>9</v>
       </c>
@@ -4430,19 +5275,19 @@
         <f>E44-L44</f>
         <v>2.1599999999999966</v>
       </c>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
-      <c r="S44" s="17"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="18"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="42"/>
+      <c r="T44" s="43"/>
+      <c r="U44" s="43"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
       <c r="D45" t="s">
         <v>10</v>
       </c>
@@ -4477,19 +5322,19 @@
         <f>E45-L45</f>
         <v>10.439999999999998</v>
       </c>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="17"/>
-      <c r="S45" s="17"/>
-      <c r="T45" s="18"/>
-      <c r="U45" s="18"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="42"/>
+      <c r="T45" s="43"/>
+      <c r="U45" s="43"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
       <c r="D46" t="s">
         <v>14</v>
       </c>
@@ -4528,33 +5373,33 @@
         <f>E46-L46</f>
         <v>4.3824999999999932</v>
       </c>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
-      <c r="S46" s="17"/>
-      <c r="T46" s="18"/>
-      <c r="U46" s="18"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="42"/>
+      <c r="T46" s="43"/>
+      <c r="U46" s="43"/>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16" t="s">
+      <c r="C50" s="41"/>
+      <c r="D50" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E50" s="16"/>
+      <c r="E50" s="41"/>
       <c r="F50" t="s">
         <v>11</v>
       </c>
@@ -4568,10 +5413,10 @@
         <v>20</v>
       </c>
       <c r="J50" t="s">
+        <v>50</v>
+      </c>
+      <c r="K50" t="s">
         <v>51</v>
-      </c>
-      <c r="K50" t="s">
-        <v>52</v>
       </c>
       <c r="L50" t="s">
         <v>25</v>
@@ -4579,21 +5424,21 @@
       <c r="M50" t="s">
         <v>16</v>
       </c>
-      <c r="N50" s="16" t="s">
+      <c r="N50" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="16"/>
-      <c r="S50" s="16"/>
+      <c r="O50" s="41"/>
+      <c r="P50" s="41"/>
+      <c r="Q50" s="41"/>
+      <c r="R50" s="41"/>
+      <c r="S50" s="41"/>
       <c r="T50" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" s="16" t="s">
-        <v>78</v>
+      <c r="A51" s="41" t="s">
+        <v>76</v>
       </c>
       <c r="B51" t="s">
         <v>4</v>
@@ -4635,25 +5480,25 @@
         <f>E51-L51</f>
         <v>4.5900000000000034</v>
       </c>
-      <c r="N51" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="17"/>
-      <c r="S51" s="17"/>
-      <c r="T51" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="U51" s="23"/>
+      <c r="N51" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="O51" s="42"/>
+      <c r="P51" s="42"/>
+      <c r="Q51" s="42"/>
+      <c r="R51" s="42"/>
+      <c r="S51" s="42"/>
+      <c r="T51" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="U51" s="47"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52" s="16" t="s">
+      <c r="A52" s="41"/>
+      <c r="B52" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D52" t="s">
@@ -4690,19 +5535,19 @@
         <f>E52-L52</f>
         <v>0.93999999999999773</v>
       </c>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="17"/>
-      <c r="S52" s="17"/>
-      <c r="T52" s="23"/>
-      <c r="U52" s="23"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="42"/>
+      <c r="S52" s="42"/>
+      <c r="T52" s="47"/>
+      <c r="U52" s="47"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
       <c r="D53" t="s">
         <v>9</v>
       </c>
@@ -4737,19 +5582,19 @@
         <f>E53-L53</f>
         <v>2.3999999999999915</v>
       </c>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
-      <c r="R53" s="17"/>
-      <c r="S53" s="17"/>
-      <c r="T53" s="23"/>
-      <c r="U53" s="23"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="42"/>
+      <c r="P53" s="42"/>
+      <c r="Q53" s="42"/>
+      <c r="R53" s="42"/>
+      <c r="S53" s="42"/>
+      <c r="T53" s="47"/>
+      <c r="U53" s="47"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
       <c r="D54" t="s">
         <v>10</v>
       </c>
@@ -4784,19 +5629,19 @@
         <f>E54-L54</f>
         <v>7.210000000000008</v>
       </c>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
-      <c r="R54" s="17"/>
-      <c r="S54" s="17"/>
-      <c r="T54" s="23"/>
-      <c r="U54" s="23"/>
+      <c r="N54" s="42"/>
+      <c r="O54" s="42"/>
+      <c r="P54" s="42"/>
+      <c r="Q54" s="42"/>
+      <c r="R54" s="42"/>
+      <c r="S54" s="42"/>
+      <c r="T54" s="47"/>
+      <c r="U54" s="47"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
       <c r="D55" t="s">
         <v>14</v>
       </c>
@@ -4835,33 +5680,33 @@
         <f>E55-L55</f>
         <v>3.7850000000000108</v>
       </c>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
-      <c r="R55" s="17"/>
-      <c r="S55" s="17"/>
-      <c r="T55" s="23"/>
-      <c r="U55" s="23"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="42"/>
+      <c r="R55" s="42"/>
+      <c r="S55" s="42"/>
+      <c r="T55" s="47"/>
+      <c r="U55" s="47"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16" t="s">
+      <c r="C58" s="41"/>
+      <c r="D58" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E58" s="16"/>
+      <c r="E58" s="41"/>
       <c r="F58" t="s">
         <v>11</v>
       </c>
@@ -4875,10 +5720,10 @@
         <v>20</v>
       </c>
       <c r="J58" t="s">
+        <v>50</v>
+      </c>
+      <c r="K58" t="s">
         <v>51</v>
-      </c>
-      <c r="K58" t="s">
-        <v>52</v>
       </c>
       <c r="L58" t="s">
         <v>25</v>
@@ -4886,24 +5731,24 @@
       <c r="M58" t="s">
         <v>16</v>
       </c>
-      <c r="N58" s="16" t="s">
+      <c r="N58" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="16"/>
-      <c r="R58" s="16"/>
-      <c r="S58" s="16"/>
+      <c r="O58" s="41"/>
+      <c r="P58" s="41"/>
+      <c r="Q58" s="41"/>
+      <c r="R58" s="41"/>
+      <c r="S58" s="41"/>
       <c r="T58" t="s">
         <v>23</v>
       </c>
       <c r="V58" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A59" s="16" t="s">
-        <v>82</v>
+      <c r="A59" s="41" t="s">
+        <v>79</v>
       </c>
       <c r="B59" t="s">
         <v>4</v>
@@ -4945,26 +5790,26 @@
         <f>E59-L59</f>
         <v>3.9500000000000028</v>
       </c>
-      <c r="N59" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
-      <c r="R59" s="17"/>
-      <c r="S59" s="17"/>
-      <c r="T59" s="18"/>
-      <c r="U59" s="18"/>
+      <c r="N59" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="O59" s="42"/>
+      <c r="P59" s="42"/>
+      <c r="Q59" s="42"/>
+      <c r="R59" s="42"/>
+      <c r="S59" s="42"/>
+      <c r="T59" s="43"/>
+      <c r="U59" s="43"/>
       <c r="V59">
         <v>79.25</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" s="16" t="s">
+      <c r="A60" s="41"/>
+      <c r="B60" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D60" t="s">
@@ -5001,22 +5846,22 @@
         <f>E60-L60</f>
         <v>2.480000000000004</v>
       </c>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
-      <c r="R60" s="17"/>
-      <c r="S60" s="17"/>
-      <c r="T60" s="18"/>
-      <c r="U60" s="18"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="42"/>
+      <c r="R60" s="42"/>
+      <c r="S60" s="42"/>
+      <c r="T60" s="43"/>
+      <c r="U60" s="43"/>
       <c r="V60">
         <v>76.540000000000006</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
       <c r="D61" t="s">
         <v>9</v>
       </c>
@@ -5051,22 +5896,22 @@
         <f>E61-L61</f>
         <v>2.7599999999999909</v>
       </c>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
-      <c r="R61" s="17"/>
-      <c r="S61" s="17"/>
-      <c r="T61" s="18"/>
-      <c r="U61" s="18"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="42"/>
+      <c r="P61" s="42"/>
+      <c r="Q61" s="42"/>
+      <c r="R61" s="42"/>
+      <c r="S61" s="42"/>
+      <c r="T61" s="43"/>
+      <c r="U61" s="43"/>
       <c r="V61">
         <v>95.87</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="41"/>
       <c r="D62" t="s">
         <v>10</v>
       </c>
@@ -5101,22 +5946,22 @@
         <f>E62-L62</f>
         <v>11.460000000000008</v>
       </c>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
-      <c r="R62" s="17"/>
-      <c r="S62" s="17"/>
-      <c r="T62" s="18"/>
-      <c r="U62" s="18"/>
+      <c r="N62" s="42"/>
+      <c r="O62" s="42"/>
+      <c r="P62" s="42"/>
+      <c r="Q62" s="42"/>
+      <c r="R62" s="42"/>
+      <c r="S62" s="42"/>
+      <c r="T62" s="43"/>
+      <c r="U62" s="43"/>
       <c r="V62">
         <v>69.930000000000007</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
       <c r="D63" t="s">
         <v>14</v>
       </c>
@@ -5155,14 +6000,14 @@
         <f>E63-L63</f>
         <v>5.1625000000000085</v>
       </c>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
-      <c r="R63" s="17"/>
-      <c r="S63" s="17"/>
-      <c r="T63" s="18"/>
-      <c r="U63" s="18"/>
+      <c r="N63" s="42"/>
+      <c r="O63" s="42"/>
+      <c r="P63" s="42"/>
+      <c r="Q63" s="42"/>
+      <c r="R63" s="42"/>
+      <c r="S63" s="42"/>
+      <c r="T63" s="43"/>
+      <c r="U63" s="43"/>
       <c r="V63">
         <f>AVERAGE(V59:V62)</f>
         <v>80.397500000000008</v>
@@ -5171,21 +6016,21 @@
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
       <c r="B66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16" t="s">
+      <c r="C67" s="41"/>
+      <c r="D67" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E67" s="16"/>
+      <c r="E67" s="41"/>
       <c r="F67" t="s">
         <v>11</v>
       </c>
@@ -5199,10 +6044,10 @@
         <v>20</v>
       </c>
       <c r="J67" t="s">
+        <v>50</v>
+      </c>
+      <c r="K67" t="s">
         <v>51</v>
-      </c>
-      <c r="K67" t="s">
-        <v>52</v>
       </c>
       <c r="L67" t="s">
         <v>25</v>
@@ -5210,21 +6055,21 @@
       <c r="M67" t="s">
         <v>16</v>
       </c>
-      <c r="N67" s="16" t="s">
+      <c r="N67" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
-      <c r="R67" s="16"/>
-      <c r="S67" s="16"/>
+      <c r="O67" s="41"/>
+      <c r="P67" s="41"/>
+      <c r="Q67" s="41"/>
+      <c r="R67" s="41"/>
+      <c r="S67" s="41"/>
       <c r="T67" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A68" s="16" t="s">
-        <v>47</v>
+      <c r="A68" s="41" t="s">
+        <v>46</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
@@ -5266,26 +6111,26 @@
         <f>E68-L68</f>
         <v>5.8999999999999915</v>
       </c>
-      <c r="N68" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
-      <c r="R68" s="17"/>
-      <c r="S68" s="17"/>
-      <c r="T68" s="18"/>
-      <c r="U68" s="18"/>
+      <c r="N68" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="O68" s="42"/>
+      <c r="P68" s="42"/>
+      <c r="Q68" s="42"/>
+      <c r="R68" s="42"/>
+      <c r="S68" s="42"/>
+      <c r="T68" s="43"/>
+      <c r="U68" s="43"/>
       <c r="V68">
         <v>81.64</v>
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C69" s="16" t="s">
+      <c r="A69" s="41"/>
+      <c r="B69" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D69" t="s">
@@ -5322,22 +6167,22 @@
         <f>E69-L69</f>
         <v>4.1899999999999977</v>
       </c>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
-      <c r="R69" s="17"/>
-      <c r="S69" s="17"/>
-      <c r="T69" s="18"/>
-      <c r="U69" s="18"/>
+      <c r="N69" s="42"/>
+      <c r="O69" s="42"/>
+      <c r="P69" s="42"/>
+      <c r="Q69" s="42"/>
+      <c r="R69" s="42"/>
+      <c r="S69" s="42"/>
+      <c r="T69" s="43"/>
+      <c r="U69" s="43"/>
       <c r="V69">
         <v>78.8</v>
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A70" s="16"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
+      <c r="A70" s="41"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="41"/>
       <c r="D70" t="s">
         <v>9</v>
       </c>
@@ -5372,22 +6217,22 @@
         <f>E70-L70</f>
         <v>2.2999999999999972</v>
       </c>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
-      <c r="R70" s="17"/>
-      <c r="S70" s="17"/>
-      <c r="T70" s="18"/>
-      <c r="U70" s="18"/>
+      <c r="N70" s="42"/>
+      <c r="O70" s="42"/>
+      <c r="P70" s="42"/>
+      <c r="Q70" s="42"/>
+      <c r="R70" s="42"/>
+      <c r="S70" s="42"/>
+      <c r="T70" s="43"/>
+      <c r="U70" s="43"/>
       <c r="V70">
         <v>95.75</v>
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
+      <c r="A71" s="41"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="41"/>
       <c r="D71" t="s">
         <v>10</v>
       </c>
@@ -5422,22 +6267,22 @@
         <f>E71-L71</f>
         <v>7.6899999999999977</v>
       </c>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
-      <c r="R71" s="17"/>
-      <c r="S71" s="17"/>
-      <c r="T71" s="18"/>
-      <c r="U71" s="18"/>
+      <c r="N71" s="42"/>
+      <c r="O71" s="42"/>
+      <c r="P71" s="42"/>
+      <c r="Q71" s="42"/>
+      <c r="R71" s="42"/>
+      <c r="S71" s="42"/>
+      <c r="T71" s="43"/>
+      <c r="U71" s="43"/>
       <c r="V71">
         <v>66.900000000000006</v>
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
+      <c r="A72" s="41"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="41"/>
       <c r="D72" t="s">
         <v>14</v>
       </c>
@@ -5476,14 +6321,14 @@
         <f>E72-L72</f>
         <v>5.0200000000000102</v>
       </c>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
-      <c r="R72" s="17"/>
-      <c r="S72" s="17"/>
-      <c r="T72" s="18"/>
-      <c r="U72" s="18"/>
+      <c r="N72" s="42"/>
+      <c r="O72" s="42"/>
+      <c r="P72" s="42"/>
+      <c r="Q72" s="42"/>
+      <c r="R72" s="42"/>
+      <c r="S72" s="42"/>
+      <c r="T72" s="43"/>
+      <c r="U72" s="43"/>
       <c r="V72">
         <f>AVERAGE(V68:V71)</f>
         <v>80.772500000000008</v>
@@ -5492,132 +6337,33 @@
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="12"/>
       <c r="B75" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W75" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="X75" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E76" s="16"/>
-      <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s">
-        <v>15</v>
-      </c>
-      <c r="H76" t="s">
-        <v>19</v>
-      </c>
-      <c r="I76" t="s">
-        <v>20</v>
-      </c>
-      <c r="J76" t="s">
-        <v>51</v>
-      </c>
-      <c r="K76" t="s">
-        <v>52</v>
-      </c>
-      <c r="L76" t="s">
-        <v>25</v>
-      </c>
-      <c r="M76" t="s">
-        <v>16</v>
-      </c>
-      <c r="N76" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="O76" s="16"/>
-      <c r="P76" s="16"/>
-      <c r="Q76" s="16"/>
-      <c r="R76" s="16"/>
-      <c r="S76" s="16"/>
-      <c r="T76" t="s">
-        <v>23</v>
-      </c>
       <c r="V76" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="W76" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X76" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Y76" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="Z76" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A77" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B77" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" t="s">
-        <v>5</v>
-      </c>
-      <c r="D77" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77">
-        <v>78.760000000000005</v>
-      </c>
-      <c r="F77">
-        <v>88.48</v>
-      </c>
-      <c r="G77">
-        <f>E77-F77</f>
-        <v>-9.7199999999999989</v>
-      </c>
-      <c r="H77">
-        <v>84.2</v>
-      </c>
-      <c r="I77">
-        <f>E77 - H77</f>
-        <v>-5.4399999999999977</v>
-      </c>
-      <c r="J77">
-        <v>83.6</v>
-      </c>
-      <c r="K77">
-        <f>E77 - J77</f>
-        <v>-4.8399999999999892</v>
-      </c>
-      <c r="L77">
-        <v>75.2</v>
-      </c>
-      <c r="M77">
-        <f>E77-L77</f>
-        <v>3.5600000000000023</v>
-      </c>
-      <c r="N77" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
-      <c r="R77" s="17"/>
-      <c r="S77" s="17"/>
-      <c r="T77" s="18"/>
-      <c r="U77" s="18"/>
       <c r="V77">
         <v>80.709999999999994</v>
       </c>
@@ -5630,57 +6376,11 @@
       <c r="Y77">
         <v>75.489999999999995</v>
       </c>
+      <c r="Z77">
+        <v>77.83</v>
+      </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A78" s="16"/>
-      <c r="B78" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78">
-        <v>80.59</v>
-      </c>
-      <c r="F78">
-        <v>83.83</v>
-      </c>
-      <c r="G78">
-        <f t="shared" ref="G78:G81" si="18">E78-F78</f>
-        <v>-3.2399999999999949</v>
-      </c>
-      <c r="H78">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="I78">
-        <f>E78 - H78</f>
-        <v>2.4900000000000091</v>
-      </c>
-      <c r="J78">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="K78">
-        <f t="shared" ref="K78:K81" si="19">E78 - J78</f>
-        <v>0.99000000000000909</v>
-      </c>
-      <c r="L78">
-        <v>74.27</v>
-      </c>
-      <c r="M78">
-        <f>E78-L78</f>
-        <v>6.3200000000000074</v>
-      </c>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
-      <c r="R78" s="17"/>
-      <c r="S78" s="17"/>
-      <c r="T78" s="18"/>
-      <c r="U78" s="18"/>
       <c r="V78">
         <v>80.38</v>
       </c>
@@ -5693,53 +6393,11 @@
       <c r="Y78">
         <v>78.97</v>
       </c>
+      <c r="Z78">
+        <v>81.31</v>
+      </c>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A79" s="16"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" t="s">
-        <v>9</v>
-      </c>
-      <c r="E79">
-        <v>93.05</v>
-      </c>
-      <c r="F79">
-        <v>96.59</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="18"/>
-        <v>-3.5400000000000063</v>
-      </c>
-      <c r="H79">
-        <v>95.3</v>
-      </c>
-      <c r="I79">
-        <f>E79 - H79</f>
-        <v>-2.25</v>
-      </c>
-      <c r="J79">
-        <v>95.8</v>
-      </c>
-      <c r="K79">
-        <f t="shared" si="19"/>
-        <v>-2.75</v>
-      </c>
-      <c r="L79">
-        <v>93.29</v>
-      </c>
-      <c r="M79">
-        <f>E79-L79</f>
-        <v>-0.24000000000000909</v>
-      </c>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
-      <c r="R79" s="17"/>
-      <c r="S79" s="17"/>
-      <c r="T79" s="18"/>
-      <c r="U79" s="18"/>
       <c r="V79">
         <v>94.07</v>
       </c>
@@ -5752,53 +6410,11 @@
       <c r="Y79">
         <v>91.8</v>
       </c>
+      <c r="Z79">
+        <v>93.17</v>
+      </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A80" s="16"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80">
-        <v>82.82</v>
-      </c>
-      <c r="F80">
-        <v>82.92</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="18"/>
-        <v>-0.10000000000000853</v>
-      </c>
-      <c r="H80">
-        <v>74.7</v>
-      </c>
-      <c r="I80" s="15">
-        <f>E80 - H80</f>
-        <v>8.1199999999999903</v>
-      </c>
-      <c r="J80">
-        <v>77.599999999999994</v>
-      </c>
-      <c r="K80" s="15">
-        <f>E80 - J80</f>
-        <v>5.2199999999999989</v>
-      </c>
-      <c r="L80">
-        <v>58.91</v>
-      </c>
-      <c r="M80">
-        <f>E80-L80</f>
-        <v>23.909999999999997</v>
-      </c>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
-      <c r="R80" s="17"/>
-      <c r="S80" s="17"/>
-      <c r="T80" s="18"/>
-      <c r="U80" s="18"/>
       <c r="V80">
         <v>80.55</v>
       </c>
@@ -5811,57 +6427,11 @@
       <c r="Y80">
         <v>83.35</v>
       </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A81" s="16"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" t="s">
-        <v>14</v>
-      </c>
-      <c r="E81">
-        <f>AVERAGE(E77:E80)</f>
-        <v>83.805000000000007</v>
-      </c>
-      <c r="F81" s="2">
-        <f>AVERAGE(F77:F80)</f>
-        <v>87.954999999999998</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="18"/>
-        <v>-4.1499999999999915</v>
-      </c>
-      <c r="H81" s="2">
-        <f>AVERAGE(H77:H80)</f>
-        <v>83.075000000000003</v>
-      </c>
-      <c r="I81">
-        <f>E81 - H81</f>
-        <v>0.73000000000000398</v>
-      </c>
-      <c r="J81">
-        <v>84.1</v>
-      </c>
-      <c r="K81">
-        <f t="shared" si="19"/>
-        <v>-0.29499999999998749</v>
-      </c>
-      <c r="L81" s="2">
-        <f>AVERAGE(L77:L80)</f>
-        <v>75.41749999999999</v>
-      </c>
-      <c r="M81">
-        <f>E81-L81</f>
-        <v>8.3875000000000171</v>
-      </c>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
-      <c r="R81" s="17"/>
-      <c r="S81" s="17"/>
-      <c r="T81" s="18"/>
-      <c r="U81" s="18"/>
+      <c r="Z80">
+        <v>81.72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="V81">
         <f>AVERAGE(V77:V80)</f>
         <v>83.927499999999995</v>
@@ -5878,332 +6448,2951 @@
         <f>AVERAGE(Y77:Y80)</f>
         <v>82.402500000000003</v>
       </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Z81">
+        <f>AVERAGE(Z77:Z80)</f>
+        <v>83.507499999999993</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A82" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B82" s="16"/>
+      <c r="C82" t="s">
+        <v>102</v>
+      </c>
+      <c r="D82" s="16">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>101</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G82" t="s">
+        <v>104</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K82" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="M82" t="s">
+        <v>107</v>
+      </c>
+      <c r="N82" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="O82" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="P82" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q82" s="17"/>
+      <c r="R82" s="17"/>
+      <c r="S82" s="17"/>
+      <c r="T82" s="18"/>
+      <c r="U82" s="18"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83">
+        <v>83.5</v>
+      </c>
+      <c r="D83" s="20">
+        <v>82.62</v>
+      </c>
+      <c r="E83">
+        <v>83.59</v>
+      </c>
+      <c r="F83">
+        <v>82.71</v>
+      </c>
+      <c r="G83">
+        <v>83.59</v>
+      </c>
+      <c r="H83">
+        <v>83.89</v>
+      </c>
+      <c r="I83" s="15">
+        <v>77.78</v>
+      </c>
+      <c r="K83">
+        <v>84.91</v>
+      </c>
+      <c r="L83">
+        <v>84.65</v>
+      </c>
+      <c r="M83">
+        <v>78.959999999999994</v>
+      </c>
+      <c r="O83" s="20">
+        <v>79.88</v>
+      </c>
+      <c r="P83">
+        <v>80.47</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A84" s="16"/>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84">
+        <v>80.930000000000007</v>
+      </c>
+      <c r="D84" s="20">
+        <v>81.06</v>
+      </c>
+      <c r="E84">
+        <v>81.739999999999995</v>
+      </c>
+      <c r="F84" s="2">
+        <v>80.72</v>
+      </c>
+      <c r="G84">
+        <v>80.2</v>
+      </c>
+      <c r="H84" s="2">
+        <v>80.760000000000005</v>
+      </c>
+      <c r="I84" s="15">
+        <v>81.53</v>
+      </c>
+      <c r="K84">
+        <v>79.14</v>
+      </c>
+      <c r="L84">
+        <v>79.39</v>
+      </c>
+      <c r="M84">
+        <v>77.09</v>
+      </c>
+      <c r="N84" s="17"/>
+      <c r="O84" s="33">
+        <v>80.03</v>
+      </c>
+      <c r="P84">
+        <v>80.55</v>
+      </c>
+      <c r="Q84" s="17"/>
+      <c r="R84" s="17"/>
+      <c r="S84" s="17"/>
+      <c r="T84" s="18"/>
+      <c r="U84" s="18"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A85" s="16"/>
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85">
+        <v>95.33</v>
+      </c>
+      <c r="D85" s="20">
+        <v>95.75</v>
+      </c>
+      <c r="E85">
+        <v>95.75</v>
+      </c>
+      <c r="F85" s="2">
+        <v>95.63</v>
+      </c>
+      <c r="G85">
+        <v>95.93</v>
+      </c>
+      <c r="H85" s="2">
+        <v>95.39</v>
+      </c>
+      <c r="I85" s="15">
+        <v>93.53</v>
+      </c>
+      <c r="K85">
+        <v>96.65</v>
+      </c>
+      <c r="L85">
+        <v>96.47</v>
+      </c>
+      <c r="M85">
+        <v>96.29</v>
+      </c>
+      <c r="N85" s="17"/>
+      <c r="O85" s="33">
+        <v>94.91</v>
+      </c>
+      <c r="P85" s="17">
+        <v>93.71</v>
+      </c>
+      <c r="Q85" s="17"/>
+      <c r="R85" s="17"/>
+      <c r="S85" s="17"/>
+      <c r="T85" s="18"/>
+      <c r="U85" s="18"/>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A86" s="16"/>
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86">
+        <v>81.14</v>
+      </c>
+      <c r="D86" s="20">
+        <v>79.25</v>
+      </c>
+      <c r="E86">
+        <v>80.55</v>
+      </c>
+      <c r="F86" s="2">
+        <v>80.42</v>
+      </c>
+      <c r="G86">
+        <v>80.09</v>
+      </c>
+      <c r="H86" s="2">
+        <v>79.430000000000007</v>
+      </c>
+      <c r="I86" s="15">
+        <v>82.99</v>
+      </c>
+      <c r="K86">
+        <v>74.08</v>
+      </c>
+      <c r="L86">
+        <v>73.98</v>
+      </c>
+      <c r="M86">
+        <v>70.040000000000006</v>
+      </c>
+      <c r="N86" s="17"/>
+      <c r="O86" s="33">
+        <v>81.19</v>
+      </c>
+      <c r="P86" s="17">
+        <v>81.209999999999994</v>
+      </c>
+      <c r="Q86" s="17"/>
+      <c r="R86" s="17"/>
+      <c r="S86" s="17"/>
+      <c r="T86" s="18"/>
+      <c r="U86" s="18"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87">
+        <f t="shared" ref="C87:I87" si="18">AVERAGE(C83:C86)</f>
+        <v>85.224999999999994</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="18"/>
+        <v>84.67</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="18"/>
+        <v>85.407499999999999</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="18"/>
+        <v>84.87</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="18"/>
+        <v>84.952500000000015</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="18"/>
+        <v>84.867500000000007</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="18"/>
+        <v>83.957499999999996</v>
+      </c>
+      <c r="K87">
+        <f>AVERAGE(K83:K86)</f>
+        <v>83.695000000000007</v>
+      </c>
+      <c r="L87">
+        <f>AVERAGE(L83:L86)</f>
+        <v>83.622500000000002</v>
+      </c>
+      <c r="O87">
+        <f>AVERAGE(O83:O86)</f>
+        <v>84.002499999999998</v>
+      </c>
+      <c r="P87">
+        <f>AVERAGE(P83:P86)</f>
+        <v>83.984999999999985</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>108</v>
+      </c>
+      <c r="B89" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C89" s="27">
+        <v>8</v>
+      </c>
+      <c r="D89" s="27">
+        <v>16</v>
+      </c>
+      <c r="E89" s="27">
+        <v>32</v>
+      </c>
+      <c r="F89" s="32">
+        <v>64</v>
+      </c>
+      <c r="G89" s="27">
+        <v>128</v>
+      </c>
+      <c r="H89" s="32">
+        <v>256</v>
+      </c>
+      <c r="I89" s="28">
+        <v>512</v>
+      </c>
+      <c r="N89" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="O89" s="51"/>
+      <c r="P89" s="51"/>
+      <c r="Q89" s="51"/>
+      <c r="R89" s="51"/>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B90" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" s="23">
+        <v>83.35</v>
+      </c>
+      <c r="D90" s="23">
+        <v>82.79</v>
+      </c>
+      <c r="E90" s="23">
+        <v>81.44</v>
+      </c>
+      <c r="F90" s="24">
+        <v>77.650000000000006</v>
+      </c>
+      <c r="G90" s="23">
+        <v>73.09</v>
+      </c>
+      <c r="H90" s="24">
+        <v>64.97</v>
+      </c>
+      <c r="I90" s="25">
+        <v>56.29</v>
+      </c>
+      <c r="J90" s="2"/>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B91" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="30">
+        <v>83.83</v>
+      </c>
+      <c r="G91" s="30"/>
+      <c r="H91" s="30"/>
+      <c r="I91" s="31">
+        <v>74.11</v>
+      </c>
+      <c r="J91" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V93" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V94">
+        <v>77.44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="P95" t="s">
+        <v>132</v>
+      </c>
+      <c r="V95">
+        <v>75.55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>115</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>116</v>
+      </c>
+      <c r="H96" t="s">
+        <v>117</v>
+      </c>
+      <c r="I96" t="s">
+        <v>118</v>
+      </c>
+      <c r="J96" t="s">
+        <v>119</v>
+      </c>
+      <c r="L96" t="s">
+        <v>128</v>
+      </c>
+      <c r="M96" t="s">
+        <v>127</v>
+      </c>
+      <c r="P96" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>127</v>
+      </c>
+      <c r="S96" t="s">
+        <v>133</v>
+      </c>
+      <c r="V96">
+        <v>95.93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97">
+        <v>79.739999999999995</v>
+      </c>
+      <c r="C97">
+        <v>79.98</v>
+      </c>
+      <c r="G97">
+        <v>82.96</v>
+      </c>
+      <c r="H97">
+        <v>81.010000000000005</v>
+      </c>
+      <c r="M97">
+        <v>81.88</v>
+      </c>
+      <c r="N97">
+        <v>82.52</v>
+      </c>
+      <c r="P97">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="Q97">
+        <v>74.61</v>
+      </c>
+      <c r="S97">
+        <v>82.62</v>
+      </c>
+      <c r="V97">
+        <v>66.680000000000007</v>
+      </c>
+    </row>
+    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98">
+        <v>79.61</v>
+      </c>
+      <c r="C98">
+        <v>79.180000000000007</v>
+      </c>
+      <c r="G98">
+        <v>79.56</v>
+      </c>
+      <c r="H98">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="M98">
+        <v>80.03</v>
+      </c>
+      <c r="N98">
+        <v>79.91</v>
+      </c>
+      <c r="P98">
+        <v>77.47</v>
+      </c>
+      <c r="Q98">
+        <v>78.8</v>
+      </c>
+      <c r="S98">
+        <v>81.19</v>
+      </c>
+      <c r="V98">
+        <f>AVERAGE(V94:V97)</f>
+        <v>78.900000000000006</v>
+      </c>
+    </row>
+    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99">
+        <v>94.25</v>
+      </c>
+      <c r="C99">
+        <v>94.55</v>
+      </c>
+      <c r="G99">
+        <v>95.79</v>
+      </c>
+      <c r="H99">
+        <v>94.73</v>
+      </c>
+      <c r="M99">
+        <v>94.91</v>
+      </c>
+      <c r="N99">
+        <v>94.91</v>
+      </c>
+      <c r="P99">
+        <v>94.31</v>
+      </c>
+      <c r="Q99">
+        <v>90.12</v>
+      </c>
+      <c r="S99">
+        <v>95.39</v>
+      </c>
+    </row>
+    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100">
+        <v>78.92</v>
+      </c>
+      <c r="C100">
+        <v>81.290000000000006</v>
+      </c>
+      <c r="G100">
+        <v>75.709999999999994</v>
+      </c>
+      <c r="H100">
+        <v>75.94</v>
+      </c>
+      <c r="M100">
+        <v>80.91</v>
+      </c>
+      <c r="N100">
+        <v>80.83</v>
+      </c>
+      <c r="P100">
+        <v>81.77</v>
+      </c>
+      <c r="Q100">
+        <v>71.89</v>
+      </c>
+      <c r="S100">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101">
+        <f>AVERAGE(B97:B100)</f>
+        <v>83.13</v>
+      </c>
+      <c r="C101">
+        <f>AVERAGE(C97:C100)</f>
+        <v>83.750000000000014</v>
+      </c>
+      <c r="G101">
+        <f>AVERAGE(G97:G100)</f>
+        <v>83.504999999999995</v>
+      </c>
+      <c r="H101">
+        <f>AVERAGE(H97:H100)</f>
+        <v>82.695000000000007</v>
+      </c>
+      <c r="M101">
+        <f>AVERAGE(M97:M100)</f>
+        <v>84.432500000000005</v>
+      </c>
+      <c r="N101">
+        <f>AVERAGE(N97:N100)</f>
+        <v>84.542500000000004</v>
+      </c>
+      <c r="P101">
+        <f>AVERAGE(P97:P100)</f>
+        <v>83.662499999999994</v>
+      </c>
+      <c r="Q101">
+        <f>AVERAGE(Q97:Q100)</f>
+        <v>78.855000000000004</v>
+      </c>
+      <c r="S101">
+        <f>AVERAGE(S97:S100)</f>
+        <v>83.55</v>
+      </c>
+    </row>
+    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>0</v>
       </c>
-      <c r="B100" s="16" t="s">
+      <c r="B104" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16" t="s">
+      <c r="C104" s="41"/>
+      <c r="D104" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E100" s="16"/>
-      <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s">
-        <v>15</v>
-      </c>
-      <c r="H100" t="s">
+      <c r="E104" s="41"/>
+      <c r="F104" t="s">
         <v>19</v>
       </c>
-      <c r="I100" t="s">
+      <c r="G104" t="s">
         <v>20</v>
       </c>
-      <c r="J100" t="s">
+      <c r="H104" t="s">
+        <v>50</v>
+      </c>
+      <c r="I104" t="s">
         <v>51</v>
       </c>
-      <c r="K100" t="s">
-        <v>52</v>
-      </c>
-      <c r="L100" t="s">
+      <c r="J104" t="s">
         <v>25</v>
       </c>
-      <c r="M100" t="s">
+      <c r="K104" t="s">
         <v>16</v>
       </c>
-      <c r="N100" s="16" t="s">
+      <c r="L104" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="O100" s="16"/>
-      <c r="P100" s="16"/>
-      <c r="Q100" s="16"/>
-      <c r="R100" s="16"/>
-      <c r="S100" s="16"/>
-      <c r="T100" t="s">
+      <c r="M104" s="41"/>
+      <c r="N104" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A101" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B101" t="s">
+      <c r="P104" s="34"/>
+      <c r="AB104" s="41"/>
+      <c r="AC104" s="41"/>
+    </row>
+    <row r="105" spans="1:31" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B105" t="s">
         <v>4</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C105" t="s">
         <v>5</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D105" t="s">
         <v>7</v>
       </c>
-      <c r="E101">
-        <v>77.58</v>
-      </c>
-      <c r="F101">
-        <v>88.48</v>
-      </c>
-      <c r="G101">
-        <f>E101-F101</f>
-        <v>-10.900000000000006</v>
-      </c>
-      <c r="H101">
+      <c r="E105" s="19">
+        <v>83.45</v>
+      </c>
+      <c r="F105">
         <v>84.2</v>
       </c>
-      <c r="I101">
-        <f>E101 - H101</f>
-        <v>-6.6200000000000045</v>
-      </c>
-      <c r="J101">
+      <c r="G105">
+        <f>E105 - F105</f>
+        <v>-0.75</v>
+      </c>
+      <c r="H105">
         <v>83.6</v>
-      </c>
-      <c r="K101">
-        <f>E101 - J101</f>
-        <v>-6.019999999999996</v>
-      </c>
-      <c r="L101">
-        <v>75.2</v>
-      </c>
-      <c r="M101">
-        <f>E101-L101</f>
-        <v>2.3799999999999955</v>
-      </c>
-      <c r="N101" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
-      <c r="R101" s="17"/>
-      <c r="S101" s="17"/>
-      <c r="T101" s="22"/>
-      <c r="U101" s="22"/>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A102" s="16"/>
-      <c r="B102" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C102" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D102" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102">
-        <v>76.11</v>
-      </c>
-      <c r="F102">
-        <v>83.83</v>
-      </c>
-      <c r="G102">
-        <f t="shared" ref="G102:G105" si="20">E102-F102</f>
-        <v>-7.7199999999999989</v>
-      </c>
-      <c r="H102">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="I102">
-        <f>E102 - H102</f>
-        <v>-1.9899999999999949</v>
-      </c>
-      <c r="J102">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="K102">
-        <f t="shared" ref="K102:K105" si="21">E102 - J102</f>
-        <v>-3.4899999999999949</v>
-      </c>
-      <c r="L102">
-        <v>74.27</v>
-      </c>
-      <c r="M102">
-        <f>E102-L102</f>
-        <v>1.8400000000000034</v>
-      </c>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
-      <c r="R102" s="17"/>
-      <c r="S102" s="17"/>
-      <c r="T102" s="22"/>
-      <c r="U102" s="22"/>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A103" s="16"/>
-      <c r="B103" s="16"/>
-      <c r="C103" s="16"/>
-      <c r="D103" t="s">
-        <v>9</v>
-      </c>
-      <c r="E103">
-        <v>94.97</v>
-      </c>
-      <c r="F103">
-        <v>96.59</v>
-      </c>
-      <c r="G103">
-        <f t="shared" si="20"/>
-        <v>-1.6200000000000045</v>
-      </c>
-      <c r="H103">
-        <v>95.3</v>
-      </c>
-      <c r="I103">
-        <f>E103 - H103</f>
-        <v>-0.32999999999999829</v>
-      </c>
-      <c r="J103">
-        <v>95.8</v>
-      </c>
-      <c r="K103">
-        <f t="shared" si="21"/>
-        <v>-0.82999999999999829</v>
-      </c>
-      <c r="L103">
-        <v>93.29</v>
-      </c>
-      <c r="M103">
-        <f>E103-L103</f>
-        <v>1.6799999999999926</v>
-      </c>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
-      <c r="R103" s="17"/>
-      <c r="S103" s="17"/>
-      <c r="T103" s="22"/>
-      <c r="U103" s="22"/>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A104" s="16"/>
-      <c r="B104" s="16"/>
-      <c r="C104" s="16"/>
-      <c r="D104" t="s">
-        <v>10</v>
-      </c>
-      <c r="E104">
-        <v>65.48</v>
-      </c>
-      <c r="F104">
-        <v>82.92</v>
-      </c>
-      <c r="G104">
-        <f t="shared" si="20"/>
-        <v>-17.439999999999998</v>
-      </c>
-      <c r="H104">
-        <v>74.7</v>
-      </c>
-      <c r="I104">
-        <f>E104 - H104</f>
-        <v>-9.2199999999999989</v>
-      </c>
-      <c r="J104">
-        <v>77.599999999999994</v>
-      </c>
-      <c r="K104">
-        <f t="shared" si="21"/>
-        <v>-12.11999999999999</v>
-      </c>
-      <c r="L104">
-        <v>58.91</v>
-      </c>
-      <c r="M104">
-        <f>E104-L104</f>
-        <v>6.5700000000000074</v>
-      </c>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
-      <c r="R104" s="17"/>
-      <c r="S104" s="17"/>
-      <c r="T104" s="22"/>
-      <c r="U104" s="22"/>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A105" s="16"/>
-      <c r="B105" s="16"/>
-      <c r="C105" s="16"/>
-      <c r="D105" t="s">
-        <v>14</v>
-      </c>
-      <c r="E105">
-        <f>AVERAGE(E101:E104)</f>
-        <v>78.534999999999997</v>
-      </c>
-      <c r="F105" s="2">
-        <f>AVERAGE(F101:F104)</f>
-        <v>87.954999999999998</v>
-      </c>
-      <c r="G105">
-        <f t="shared" si="20"/>
-        <v>-9.4200000000000017</v>
-      </c>
-      <c r="H105" s="2">
-        <f>AVERAGE(H101:H104)</f>
-        <v>83.075000000000003</v>
       </c>
       <c r="I105">
         <f>E105 - H105</f>
+        <v>-0.14999999999999147</v>
+      </c>
+      <c r="J105">
+        <v>75.2</v>
+      </c>
+      <c r="K105">
+        <f>E105-J105</f>
+        <v>8.25</v>
+      </c>
+      <c r="L105" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="M105" s="42"/>
+      <c r="N105" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="O105" s="43"/>
+      <c r="P105" s="35"/>
+      <c r="AB105" s="36"/>
+      <c r="AC105" s="36"/>
+      <c r="AD105" s="37"/>
+      <c r="AE105" s="37"/>
+    </row>
+    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A106" s="41"/>
+      <c r="B106" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C106" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="19">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="F106">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="G106">
+        <f>E106 - F106</f>
+        <v>-0.5</v>
+      </c>
+      <c r="H106">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="I106">
+        <f>E106 - H106</f>
+        <v>-2</v>
+      </c>
+      <c r="J106">
+        <v>74.27</v>
+      </c>
+      <c r="K106">
+        <f>E106-J106</f>
+        <v>3.3299999999999983</v>
+      </c>
+      <c r="L106" s="42"/>
+      <c r="M106" s="42"/>
+      <c r="N106" s="43"/>
+      <c r="O106" s="43"/>
+      <c r="P106" s="35"/>
+      <c r="AB106" s="36"/>
+      <c r="AC106" s="36"/>
+      <c r="AD106" s="37"/>
+      <c r="AE106" s="37"/>
+    </row>
+    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A107" s="41"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="41"/>
+      <c r="D107" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" s="19">
+        <v>95.57</v>
+      </c>
+      <c r="F107">
+        <v>95.3</v>
+      </c>
+      <c r="G107">
+        <f>E107 - F107</f>
+        <v>0.26999999999999602</v>
+      </c>
+      <c r="H107">
+        <v>95.8</v>
+      </c>
+      <c r="I107">
+        <f>E107 - H107</f>
+        <v>-0.23000000000000398</v>
+      </c>
+      <c r="J107">
+        <v>93.29</v>
+      </c>
+      <c r="K107">
+        <f>E107-J107</f>
+        <v>2.2799999999999869</v>
+      </c>
+      <c r="L107" s="42"/>
+      <c r="M107" s="42"/>
+      <c r="N107" s="43"/>
+      <c r="O107" s="43"/>
+      <c r="P107" s="35"/>
+      <c r="AB107" s="36"/>
+      <c r="AC107" s="36"/>
+      <c r="AD107" s="37"/>
+      <c r="AE107" s="37"/>
+    </row>
+    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A108" s="41"/>
+      <c r="B108" s="41"/>
+      <c r="C108" s="41"/>
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="19">
+        <v>75.53</v>
+      </c>
+      <c r="F108">
+        <v>74.7</v>
+      </c>
+      <c r="G108" s="19">
+        <f>E108 - F108</f>
+        <v>0.82999999999999829</v>
+      </c>
+      <c r="H108">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="I108" s="19">
+        <f>E108 - H108</f>
+        <v>-2.0699999999999932</v>
+      </c>
+      <c r="J108">
+        <v>58.91</v>
+      </c>
+      <c r="K108">
+        <f>E108-J108</f>
+        <v>16.620000000000005</v>
+      </c>
+      <c r="L108" s="42"/>
+      <c r="M108" s="42"/>
+      <c r="N108" s="43"/>
+      <c r="O108" s="43"/>
+      <c r="P108" s="35"/>
+      <c r="AB108" s="36"/>
+      <c r="AC108" s="36"/>
+      <c r="AD108" s="37"/>
+      <c r="AE108" s="37"/>
+    </row>
+    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A109" s="41"/>
+      <c r="B109" s="41"/>
+      <c r="C109" s="41"/>
+      <c r="D109" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109">
+        <f>AVERAGE(E105:E108)</f>
+        <v>83.037499999999994</v>
+      </c>
+      <c r="F109" s="2">
+        <f>AVERAGE(F105:F108)</f>
+        <v>83.075000000000003</v>
+      </c>
+      <c r="G109">
+        <f>E109 - F109</f>
+        <v>-3.7500000000008527E-2</v>
+      </c>
+      <c r="H109">
+        <v>84.1</v>
+      </c>
+      <c r="I109">
+        <f>E109 - H109</f>
+        <v>-1.0625</v>
+      </c>
+      <c r="J109" s="2">
+        <f>AVERAGE(J105:J108)</f>
+        <v>75.41749999999999</v>
+      </c>
+      <c r="K109">
+        <f>E109-J109</f>
+        <v>7.6200000000000045</v>
+      </c>
+      <c r="L109" s="42"/>
+      <c r="M109" s="42"/>
+      <c r="N109" s="43"/>
+      <c r="O109" s="43"/>
+      <c r="P109" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>149</v>
+      </c>
+      <c r="R109" t="s">
+        <v>151</v>
+      </c>
+      <c r="S109" t="s">
+        <v>155</v>
+      </c>
+      <c r="T109" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE109" s="37"/>
+    </row>
+    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>138</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110">
+        <v>77.73</v>
+      </c>
+      <c r="D110" t="s">
+        <v>140</v>
+      </c>
+      <c r="E110">
+        <v>82.13</v>
+      </c>
+      <c r="F110" t="s">
+        <v>144</v>
+      </c>
+      <c r="G110">
+        <v>81.98</v>
+      </c>
+      <c r="H110" t="s">
+        <v>143</v>
+      </c>
+      <c r="I110">
+        <v>83.11</v>
+      </c>
+      <c r="J110" t="s">
+        <v>145</v>
+      </c>
+      <c r="K110">
+        <v>82.37</v>
+      </c>
+      <c r="L110">
+        <v>1248</v>
+      </c>
+      <c r="M110">
+        <v>82.62</v>
+      </c>
+      <c r="N110" t="s">
+        <v>146</v>
+      </c>
+      <c r="O110">
+        <v>84.91</v>
+      </c>
+      <c r="P110">
+        <v>84.57</v>
+      </c>
+      <c r="Q110" s="19">
+        <v>84.33</v>
+      </c>
+      <c r="R110">
+        <v>82.96</v>
+      </c>
+      <c r="S110">
+        <v>84.03</v>
+      </c>
+      <c r="T110" t="s">
+        <v>0</v>
+      </c>
+      <c r="U110" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="V110" s="41"/>
+      <c r="W110" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="X110" s="41"/>
+      <c r="Y110" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z110" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB110" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC110" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD110" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111">
+        <v>76.66</v>
+      </c>
+      <c r="E111">
+        <v>81.36</v>
+      </c>
+      <c r="G111">
+        <v>81.84</v>
+      </c>
+      <c r="I111">
+        <v>81.14</v>
+      </c>
+      <c r="K111">
+        <v>80.16</v>
+      </c>
+      <c r="M111">
+        <v>79.86</v>
+      </c>
+      <c r="O111">
+        <v>80.03</v>
+      </c>
+      <c r="P111">
+        <v>79.91</v>
+      </c>
+      <c r="Q111">
+        <v>81.31</v>
+      </c>
+      <c r="R111">
+        <v>80.59</v>
+      </c>
+      <c r="S111">
+        <v>80.89</v>
+      </c>
+      <c r="T111" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="U111" t="s">
+        <v>4</v>
+      </c>
+      <c r="V111" t="s">
+        <v>5</v>
+      </c>
+      <c r="W111" t="s">
+        <v>7</v>
+      </c>
+      <c r="X111" s="19">
+        <v>84.33</v>
+      </c>
+      <c r="Y111">
+        <v>84.2</v>
+      </c>
+      <c r="Z111">
+        <f>X111 - Y111</f>
+        <v>0.12999999999999545</v>
+      </c>
+      <c r="AA111">
+        <v>83.6</v>
+      </c>
+      <c r="AB111">
+        <f>X111 - AA111</f>
+        <v>0.73000000000000398</v>
+      </c>
+      <c r="AC111">
+        <v>75.2</v>
+      </c>
+      <c r="AD111">
+        <f>X111-AC111</f>
+        <v>9.1299999999999955</v>
+      </c>
+    </row>
+    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112">
+        <v>96.59</v>
+      </c>
+      <c r="E112">
+        <v>96.17</v>
+      </c>
+      <c r="G112">
+        <v>96.11</v>
+      </c>
+      <c r="I112">
+        <v>96.05</v>
+      </c>
+      <c r="K112">
+        <v>95.33</v>
+      </c>
+      <c r="M112">
+        <v>95.09</v>
+      </c>
+      <c r="O112">
+        <v>95.75</v>
+      </c>
+      <c r="P112">
+        <v>95.59</v>
+      </c>
+      <c r="Q112">
+        <v>95.63</v>
+      </c>
+      <c r="R112">
+        <v>94.55</v>
+      </c>
+      <c r="S112">
+        <v>95.63</v>
+      </c>
+      <c r="T112" s="49"/>
+      <c r="U112" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="V112" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="W112" t="s">
+        <v>8</v>
+      </c>
+      <c r="X112">
+        <v>81.31</v>
+      </c>
+      <c r="Y112">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="Z112">
+        <f>X112 - Y112</f>
+        <v>3.210000000000008</v>
+      </c>
+      <c r="AA112">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="AB112">
+        <f>X112 - AA112</f>
+        <v>1.710000000000008</v>
+      </c>
+      <c r="AC112">
+        <v>74.27</v>
+      </c>
+      <c r="AD112">
+        <f>X112-AC112</f>
+        <v>7.0400000000000063</v>
+      </c>
+    </row>
+    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113">
+        <v>67.849999999999994</v>
+      </c>
+      <c r="E113">
+        <v>81.459999999999994</v>
+      </c>
+      <c r="G113">
+        <v>82.32</v>
+      </c>
+      <c r="I113">
+        <v>81.39</v>
+      </c>
+      <c r="K113">
+        <v>81.36</v>
+      </c>
+      <c r="M113">
+        <v>81.209999999999994</v>
+      </c>
+      <c r="O113">
+        <v>79.790000000000006</v>
+      </c>
+      <c r="P113">
+        <v>79.58</v>
+      </c>
+      <c r="Q113">
+        <v>81.62</v>
+      </c>
+      <c r="R113">
+        <v>81.39</v>
+      </c>
+      <c r="S113">
+        <v>79.84</v>
+      </c>
+      <c r="T113" s="49"/>
+      <c r="U113" s="41"/>
+      <c r="V113" s="41"/>
+      <c r="W113" t="s">
+        <v>9</v>
+      </c>
+      <c r="X113">
+        <v>95.63</v>
+      </c>
+      <c r="Y113">
+        <v>95.3</v>
+      </c>
+      <c r="Z113">
+        <f>X113 - Y113</f>
+        <v>0.32999999999999829</v>
+      </c>
+      <c r="AA113">
+        <v>95.8</v>
+      </c>
+      <c r="AB113">
+        <f>X113 - AA113</f>
+        <v>-0.17000000000000171</v>
+      </c>
+      <c r="AC113">
+        <v>93.29</v>
+      </c>
+      <c r="AD113">
+        <f>X113-AC113</f>
+        <v>2.3399999999999892</v>
+      </c>
+    </row>
+    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114">
+        <f>AVERAGE(E110:E113)</f>
+        <v>85.28</v>
+      </c>
+      <c r="G114">
+        <f>AVERAGE(G110:G113)</f>
+        <v>85.5625</v>
+      </c>
+      <c r="I114">
+        <f>AVERAGE(I110:I113)</f>
+        <v>85.422499999999999</v>
+      </c>
+      <c r="K114">
+        <f>AVERAGE(K110:K113)</f>
+        <v>84.805000000000007</v>
+      </c>
+      <c r="M114">
+        <f>AVERAGE(M110:M113)</f>
+        <v>84.695000000000007</v>
+      </c>
+      <c r="O114">
+        <f>AVERAGE(O110:O113)</f>
+        <v>85.12</v>
+      </c>
+      <c r="P114">
+        <f>AVERAGE(P110:P113)</f>
+        <v>84.912499999999994</v>
+      </c>
+      <c r="Q114">
+        <f>AVERAGE(Q110:Q113)</f>
+        <v>85.722499999999997</v>
+      </c>
+      <c r="R114">
+        <f>AVERAGE(R110:R113)</f>
+        <v>84.872500000000002</v>
+      </c>
+      <c r="S114">
+        <f>AVERAGE(S110:S113)</f>
+        <v>85.097499999999997</v>
+      </c>
+      <c r="T114" s="49"/>
+      <c r="U114" s="41"/>
+      <c r="V114" s="41"/>
+      <c r="W114" t="s">
+        <v>10</v>
+      </c>
+      <c r="X114">
+        <v>81.62</v>
+      </c>
+      <c r="Y114">
+        <v>74.7</v>
+      </c>
+      <c r="Z114" s="19">
+        <f>X114 - Y114</f>
+        <v>6.9200000000000017</v>
+      </c>
+      <c r="AA114">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="AB114" s="19">
+        <f>X114 - AA114</f>
+        <v>4.0200000000000102</v>
+      </c>
+      <c r="AC114">
+        <v>58.91</v>
+      </c>
+      <c r="AD114">
+        <f>X114-AC114</f>
+        <v>22.710000000000008</v>
+      </c>
+    </row>
+    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="T115" s="49"/>
+      <c r="U115" s="41"/>
+      <c r="V115" s="41"/>
+      <c r="W115" t="s">
+        <v>14</v>
+      </c>
+      <c r="X115">
+        <f>AVERAGE(X111:X114)</f>
+        <v>85.722499999999997</v>
+      </c>
+      <c r="Y115" s="2">
+        <f>AVERAGE(Y111:Y114)</f>
+        <v>83.075000000000003</v>
+      </c>
+      <c r="Z115">
+        <f>X115 - Y115</f>
+        <v>2.6474999999999937</v>
+      </c>
+      <c r="AA115">
+        <v>84.1</v>
+      </c>
+      <c r="AB115">
+        <f>X115 - AA115</f>
+        <v>1.6225000000000023</v>
+      </c>
+      <c r="AC115" s="2">
+        <f>AVERAGE(AC111:AC114)</f>
+        <v>75.41749999999999</v>
+      </c>
+      <c r="AD115">
+        <f>X115-AC115</f>
+        <v>10.305000000000007</v>
+      </c>
+    </row>
+    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" t="s">
+        <v>124</v>
+      </c>
+      <c r="C117" t="s">
+        <v>125</v>
+      </c>
+      <c r="D117" t="s">
+        <v>126</v>
+      </c>
+      <c r="F117" t="s">
+        <v>131</v>
+      </c>
+      <c r="G117" t="s">
+        <v>134</v>
+      </c>
+      <c r="H117" t="s">
+        <v>135</v>
+      </c>
+      <c r="J117" t="s">
+        <v>141</v>
+      </c>
+      <c r="K117" t="s">
+        <v>158</v>
+      </c>
+      <c r="L117" t="s">
+        <v>142</v>
+      </c>
+      <c r="M117" t="s">
+        <v>147</v>
+      </c>
+      <c r="N117" t="s">
+        <v>148</v>
+      </c>
+      <c r="O117" t="s">
+        <v>149</v>
+      </c>
+      <c r="P117" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>155</v>
+      </c>
+      <c r="R117" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" s="15">
+        <v>60.6</v>
+      </c>
+      <c r="C118">
+        <v>58.7</v>
+      </c>
+      <c r="D118">
+        <v>60.2</v>
+      </c>
+      <c r="F118">
+        <v>55.38</v>
+      </c>
+      <c r="G118">
+        <v>58.8</v>
+      </c>
+      <c r="H118">
+        <v>57.56</v>
+      </c>
+      <c r="J118">
+        <v>58.1</v>
+      </c>
+      <c r="K118">
+        <v>55.91</v>
+      </c>
+      <c r="L118">
+        <v>57.31</v>
+      </c>
+      <c r="M118">
+        <v>58.71</v>
+      </c>
+      <c r="N118">
+        <v>57.03</v>
+      </c>
+      <c r="O118">
+        <v>53.98</v>
+      </c>
+      <c r="P118">
+        <v>58.92</v>
+      </c>
+      <c r="Q118">
+        <v>58.88</v>
+      </c>
+      <c r="R118">
+        <v>58.67</v>
+      </c>
+    </row>
+    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119">
+        <v>50.1</v>
+      </c>
+      <c r="C119">
+        <v>53.4</v>
+      </c>
+      <c r="D119" s="15">
+        <v>54.8</v>
+      </c>
+      <c r="F119">
+        <v>53.29</v>
+      </c>
+      <c r="G119">
+        <v>55.35</v>
+      </c>
+      <c r="H119">
+        <v>55.49</v>
+      </c>
+      <c r="J119">
+        <v>56.56</v>
+      </c>
+      <c r="K119">
+        <v>57.82</v>
+      </c>
+      <c r="L119">
+        <v>56.01</v>
+      </c>
+      <c r="M119">
+        <v>55.58</v>
+      </c>
+      <c r="N119">
+        <v>56.52</v>
+      </c>
+      <c r="O119">
+        <v>57.87</v>
+      </c>
+      <c r="P119">
+        <v>56.08</v>
+      </c>
+      <c r="Q119">
+        <v>56.52</v>
+      </c>
+      <c r="R119">
+        <v>56.11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120" s="15">
+        <v>74.8</v>
+      </c>
+      <c r="C120">
+        <v>74.2</v>
+      </c>
+      <c r="D120">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="F120">
+        <v>69.38</v>
+      </c>
+      <c r="G120">
+        <v>72.489999999999995</v>
+      </c>
+      <c r="H120">
+        <v>71.459999999999994</v>
+      </c>
+      <c r="J120">
+        <v>72.09</v>
+      </c>
+      <c r="K120">
+        <v>70.08</v>
+      </c>
+      <c r="L120">
+        <v>73.150000000000006</v>
+      </c>
+      <c r="M120">
+        <v>73.98</v>
+      </c>
+      <c r="N120">
+        <v>71.86</v>
+      </c>
+      <c r="O120">
+        <v>69.23</v>
+      </c>
+      <c r="P120">
+        <v>71.819999999999993</v>
+      </c>
+      <c r="Q120">
+        <v>72.38</v>
+      </c>
+      <c r="R120">
+        <v>72.760000000000005</v>
+      </c>
+    </row>
+    <row r="121" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121" s="15">
+        <v>77</v>
+      </c>
+      <c r="C121">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="D121">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="F121">
+        <v>72.27</v>
+      </c>
+      <c r="G121">
+        <v>74.06</v>
+      </c>
+      <c r="H121">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="J121">
+        <v>73.790000000000006</v>
+      </c>
+      <c r="K121">
+        <v>72.209999999999994</v>
+      </c>
+      <c r="L121">
+        <v>74.430000000000007</v>
+      </c>
+      <c r="M121">
+        <v>74.84</v>
+      </c>
+      <c r="N121">
+        <v>73.05</v>
+      </c>
+      <c r="O121">
+        <v>70.989999999999995</v>
+      </c>
+      <c r="P121">
+        <v>73.97</v>
+      </c>
+      <c r="Q121">
+        <v>73.56</v>
+      </c>
+      <c r="R121">
+        <v>74.02</v>
+      </c>
+    </row>
+    <row r="122" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122">
+        <f>AVERAGE(B118:B121)</f>
+        <v>65.625</v>
+      </c>
+      <c r="C122">
+        <f t="shared" ref="C122" si="19">AVERAGE(C118:C121)</f>
+        <v>65.550000000000011</v>
+      </c>
+      <c r="D122" s="15">
+        <f>AVERAGE(D118:D121)</f>
+        <v>66.05</v>
+      </c>
+      <c r="F122">
+        <f>AVERAGE(F118:F121)</f>
+        <v>62.58</v>
+      </c>
+      <c r="G122">
+        <f>AVERAGE(G118:G121)</f>
+        <v>65.174999999999997</v>
+      </c>
+      <c r="H122">
+        <f>AVERAGE(H118:H121)</f>
+        <v>64.402500000000003</v>
+      </c>
+      <c r="J122">
+        <f t="shared" ref="J122:O122" si="20">AVERAGE(J118:J121)</f>
+        <v>65.135000000000005</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="20"/>
+        <v>64.004999999999995</v>
+      </c>
+      <c r="L122">
+        <f t="shared" si="20"/>
+        <v>65.224999999999994</v>
+      </c>
+      <c r="M122">
+        <f t="shared" si="20"/>
+        <v>65.777500000000003</v>
+      </c>
+      <c r="N122">
+        <f t="shared" si="20"/>
+        <v>64.615000000000009</v>
+      </c>
+      <c r="O122">
+        <f t="shared" si="20"/>
+        <v>63.017499999999998</v>
+      </c>
+      <c r="P122">
+        <f>AVERAGE(P118:P121)</f>
+        <v>65.197499999999991</v>
+      </c>
+      <c r="Q122">
+        <f>AVERAGE(Q118:Q121)</f>
+        <v>65.335000000000008</v>
+      </c>
+      <c r="R122">
+        <f>AVERAGE(R118:R121)</f>
+        <v>65.39</v>
+      </c>
+    </row>
+    <row r="123" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>160</v>
+      </c>
+      <c r="G123" s="39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="124" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>120</v>
+      </c>
+      <c r="B124" t="s">
+        <v>152</v>
+      </c>
+      <c r="C124" t="s">
+        <v>150</v>
+      </c>
+      <c r="D124" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="E124" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="G124" t="s">
+        <v>161</v>
+      </c>
+      <c r="H124" t="s">
+        <v>164</v>
+      </c>
+      <c r="I124" t="s">
+        <v>163</v>
+      </c>
+      <c r="J124" t="s">
+        <v>165</v>
+      </c>
+      <c r="K124" t="s">
+        <v>166</v>
+      </c>
+      <c r="L124" t="s">
+        <v>165</v>
+      </c>
+      <c r="M124" t="s">
+        <v>172</v>
+      </c>
+      <c r="N124" t="s">
+        <v>174</v>
+      </c>
+      <c r="O124" t="s">
+        <v>173</v>
+      </c>
+      <c r="P124" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>173</v>
+      </c>
+      <c r="R124" t="s">
+        <v>176</v>
+      </c>
+      <c r="S124" t="s">
+        <v>178</v>
+      </c>
+      <c r="T124" t="s">
+        <v>179</v>
+      </c>
+      <c r="U124" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="125" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125">
+        <v>57.03</v>
+      </c>
+      <c r="C125">
+        <v>57.07</v>
+      </c>
+      <c r="D125">
+        <v>57.51</v>
+      </c>
+      <c r="E125">
+        <v>56.61</v>
+      </c>
+      <c r="H125">
+        <v>59.74</v>
+      </c>
+      <c r="I125">
+        <v>60.53</v>
+      </c>
+      <c r="J125">
+        <v>59.37</v>
+      </c>
+      <c r="L125">
+        <v>60.03</v>
+      </c>
+      <c r="M125">
+        <v>59.99</v>
+      </c>
+      <c r="O125">
+        <v>58.67</v>
+      </c>
+      <c r="Q125">
+        <v>57.56</v>
+      </c>
+      <c r="S125">
+        <v>57.4</v>
+      </c>
+      <c r="T125">
+        <v>56.94</v>
+      </c>
+      <c r="U125">
+        <v>58.3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>121</v>
+      </c>
+      <c r="B126">
+        <v>56.52</v>
+      </c>
+      <c r="C126">
+        <v>56.61</v>
+      </c>
+      <c r="D126">
+        <v>55.21</v>
+      </c>
+      <c r="E126">
+        <v>55.14</v>
+      </c>
+      <c r="H126">
+        <v>52.53</v>
+      </c>
+      <c r="I126">
+        <v>53.26</v>
+      </c>
+      <c r="J126">
+        <v>55.17</v>
+      </c>
+      <c r="L126">
+        <v>55.74</v>
+      </c>
+      <c r="M126">
+        <v>55.74</v>
+      </c>
+      <c r="O126">
+        <v>54.52</v>
+      </c>
+      <c r="Q126">
+        <v>54.57</v>
+      </c>
+      <c r="S126">
+        <v>54.46</v>
+      </c>
+      <c r="T126">
+        <v>54.55</v>
+      </c>
+      <c r="U126">
+        <v>55.05</v>
+      </c>
+    </row>
+    <row r="127" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>122</v>
+      </c>
+      <c r="B127">
+        <v>71.86</v>
+      </c>
+      <c r="C127">
+        <v>71.3</v>
+      </c>
+      <c r="D127">
+        <v>72.38</v>
+      </c>
+      <c r="E127">
+        <v>72.2</v>
+      </c>
+      <c r="H127" s="15">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="I127">
+        <v>74.569999999999993</v>
+      </c>
+      <c r="J127">
+        <v>72.97</v>
+      </c>
+      <c r="L127">
+        <v>72.790000000000006</v>
+      </c>
+      <c r="M127">
+        <v>72.739999999999995</v>
+      </c>
+      <c r="O127">
+        <v>73.709999999999994</v>
+      </c>
+      <c r="Q127">
+        <v>71.62</v>
+      </c>
+      <c r="S127">
+        <v>71.39</v>
+      </c>
+      <c r="T127">
+        <v>72.11</v>
+      </c>
+      <c r="U127">
+        <v>71.37</v>
+      </c>
+    </row>
+    <row r="128" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>123</v>
+      </c>
+      <c r="B128">
+        <v>73.05</v>
+      </c>
+      <c r="C128">
+        <v>73.239999999999995</v>
+      </c>
+      <c r="D128">
+        <v>73.77</v>
+      </c>
+      <c r="E128">
+        <v>73.08</v>
+      </c>
+      <c r="H128">
+        <v>76.22</v>
+      </c>
+      <c r="I128">
+        <v>76.11</v>
+      </c>
+      <c r="J128">
+        <v>74.709999999999994</v>
+      </c>
+      <c r="L128">
+        <v>74.680000000000007</v>
+      </c>
+      <c r="M128">
+        <v>75.010000000000005</v>
+      </c>
+      <c r="O128">
+        <v>75.760000000000005</v>
+      </c>
+      <c r="Q128">
+        <v>73.17</v>
+      </c>
+      <c r="S128">
+        <v>73.08</v>
+      </c>
+      <c r="T128">
+        <v>73.86</v>
+      </c>
+      <c r="U128">
+        <v>73.349999999999994</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129">
+        <f t="shared" ref="B129" si="21">AVERAGE(B125:B128)</f>
+        <v>64.615000000000009</v>
+      </c>
+      <c r="C129">
+        <f>AVERAGE(C125:C128)</f>
+        <v>64.555000000000007</v>
+      </c>
+      <c r="D129">
+        <f>AVERAGE(D125:D128)</f>
+        <v>64.717500000000001</v>
+      </c>
+      <c r="E129">
+        <f>AVERAGE(E125:E128)</f>
+        <v>64.257499999999993</v>
+      </c>
+      <c r="H129">
+        <f>AVERAGE(H125:H128)</f>
+        <v>65.847499999999997</v>
+      </c>
+      <c r="I129">
+        <f>AVERAGE(I125:I128)</f>
+        <v>66.117499999999993</v>
+      </c>
+      <c r="J129">
+        <f>AVERAGE(J125:J128)</f>
+        <v>65.554999999999993</v>
+      </c>
+      <c r="L129">
+        <f>AVERAGE(L125:L128)</f>
+        <v>65.81</v>
+      </c>
+      <c r="M129">
+        <f>AVERAGE(M125:M128)</f>
+        <v>65.87</v>
+      </c>
+      <c r="O129">
+        <f>AVERAGE(O125:O128)</f>
+        <v>65.664999999999992</v>
+      </c>
+      <c r="Q129">
+        <f>AVERAGE(Q125:Q128)</f>
+        <v>64.23</v>
+      </c>
+      <c r="S129">
+        <f>AVERAGE(S125:S128)</f>
+        <v>64.082499999999996</v>
+      </c>
+      <c r="T129">
+        <f t="shared" ref="T129:U129" si="22">AVERAGE(T125:T128)</f>
+        <v>64.364999999999995</v>
+      </c>
+      <c r="U129">
+        <f t="shared" si="22"/>
+        <v>64.517499999999998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G130" s="39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" t="s">
+        <v>152</v>
+      </c>
+      <c r="C131" t="s">
+        <v>150</v>
+      </c>
+      <c r="D131" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="E131" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="G131" t="s">
+        <v>161</v>
+      </c>
+      <c r="H131" t="s">
+        <v>164</v>
+      </c>
+      <c r="I131" t="s">
+        <v>163</v>
+      </c>
+      <c r="J131" t="s">
+        <v>165</v>
+      </c>
+      <c r="K131" t="s">
+        <v>166</v>
+      </c>
+      <c r="L131" t="s">
+        <v>165</v>
+      </c>
+      <c r="M131" t="s">
+        <v>172</v>
+      </c>
+      <c r="N131" t="s">
+        <v>174</v>
+      </c>
+      <c r="O131" t="s">
+        <v>173</v>
+      </c>
+      <c r="P131" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>173</v>
+      </c>
+      <c r="R131" t="s">
+        <v>176</v>
+      </c>
+      <c r="S131" t="s">
+        <v>178</v>
+      </c>
+      <c r="T131" t="s">
+        <v>179</v>
+      </c>
+      <c r="U131" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" s="19">
+        <v>84.33</v>
+      </c>
+      <c r="C132">
+        <v>83.64</v>
+      </c>
+      <c r="D132">
+        <v>83.69</v>
+      </c>
+      <c r="E132">
+        <v>81.59</v>
+      </c>
+      <c r="H132">
+        <v>81.25</v>
+      </c>
+      <c r="I132">
+        <v>80.86</v>
+      </c>
+      <c r="J132">
+        <v>84.08</v>
+      </c>
+      <c r="L132">
+        <v>84.52</v>
+      </c>
+      <c r="M132">
+        <v>84.52</v>
+      </c>
+      <c r="O132">
+        <v>81.489999999999995</v>
+      </c>
+      <c r="Q132">
+        <v>84.81</v>
+      </c>
+      <c r="S132">
+        <v>84.77</v>
+      </c>
+      <c r="T132">
+        <v>84.42</v>
+      </c>
+      <c r="U132">
+        <v>83.94</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133">
+        <v>81.31</v>
+      </c>
+      <c r="C133">
+        <v>81.31</v>
+      </c>
+      <c r="D133">
+        <v>79.27</v>
+      </c>
+      <c r="E133">
+        <v>78.97</v>
+      </c>
+      <c r="H133">
+        <v>79.14</v>
+      </c>
+      <c r="I133">
+        <v>79.739999999999995</v>
+      </c>
+      <c r="J133">
+        <v>79.61</v>
+      </c>
+      <c r="L133">
+        <v>80.38</v>
+      </c>
+      <c r="M133">
+        <v>80.55</v>
+      </c>
+      <c r="O133">
+        <v>79.52</v>
+      </c>
+      <c r="Q133">
+        <v>79.739999999999995</v>
+      </c>
+      <c r="S133">
+        <v>79.819999999999993</v>
+      </c>
+      <c r="T133">
+        <v>79.44</v>
+      </c>
+      <c r="U133">
+        <v>80.25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134">
+        <v>95.63</v>
+      </c>
+      <c r="C134">
+        <v>95.63</v>
+      </c>
+      <c r="D134">
+        <v>94.85</v>
+      </c>
+      <c r="E134">
+        <v>95.69</v>
+      </c>
+      <c r="H134">
+        <v>95.93</v>
+      </c>
+      <c r="I134">
+        <v>96.05</v>
+      </c>
+      <c r="J134">
+        <v>95.51</v>
+      </c>
+      <c r="L134">
+        <v>95.93</v>
+      </c>
+      <c r="M134">
+        <v>95.93</v>
+      </c>
+      <c r="O134">
+        <v>95.69</v>
+      </c>
+      <c r="Q134">
+        <v>95.39</v>
+      </c>
+      <c r="S134">
+        <v>95.33</v>
+      </c>
+      <c r="T134">
+        <v>95.69</v>
+      </c>
+      <c r="U134">
+        <v>95.69</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135">
+        <v>81.62</v>
+      </c>
+      <c r="C135">
+        <v>81.209999999999994</v>
+      </c>
+      <c r="D135">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="E135">
+        <v>80.17</v>
+      </c>
+      <c r="H135">
+        <v>72.91</v>
+      </c>
+      <c r="I135">
+        <v>74.03</v>
+      </c>
+      <c r="J135">
+        <v>78.11</v>
+      </c>
+      <c r="L135">
+        <v>80.069999999999993</v>
+      </c>
+      <c r="M135">
+        <v>77.67</v>
+      </c>
+      <c r="O135">
+        <v>76.02</v>
+      </c>
+      <c r="Q135">
+        <v>80.42</v>
+      </c>
+      <c r="S135">
+        <v>81.11</v>
+      </c>
+      <c r="T135">
+        <v>80.959999999999994</v>
+      </c>
+      <c r="U135">
+        <v>79.94</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>14</v>
+      </c>
+      <c r="B136">
+        <f>AVERAGE(B132:B135)</f>
+        <v>85.722499999999997</v>
+      </c>
+      <c r="C136">
+        <f>AVERAGE(C132:C135)</f>
+        <v>85.447499999999991</v>
+      </c>
+      <c r="D136">
+        <f>AVERAGE(D132:D135)</f>
+        <v>84.449999999999989</v>
+      </c>
+      <c r="E136">
+        <f>AVERAGE(E132:E135)</f>
+        <v>84.105000000000004</v>
+      </c>
+      <c r="H136">
+        <f>AVERAGE(H132:H135)</f>
+        <v>82.307500000000005</v>
+      </c>
+      <c r="I136">
+        <f>AVERAGE(I132:I135)</f>
+        <v>82.669999999999987</v>
+      </c>
+      <c r="J136">
+        <f>AVERAGE(J132:J135)</f>
+        <v>84.327500000000001</v>
+      </c>
+      <c r="L136">
+        <f>AVERAGE(L132:L135)</f>
+        <v>85.224999999999994</v>
+      </c>
+      <c r="M136">
+        <f>AVERAGE(M132:M135)</f>
+        <v>84.667500000000004</v>
+      </c>
+      <c r="O136">
+        <f>AVERAGE(O132:O135)</f>
+        <v>83.179999999999993</v>
+      </c>
+      <c r="Q136">
+        <f>AVERAGE(Q132:Q135)</f>
+        <v>85.09</v>
+      </c>
+      <c r="S136">
+        <f>AVERAGE(S132:S135)</f>
+        <v>85.257499999999993</v>
+      </c>
+      <c r="T136">
+        <f t="shared" ref="T136:U136" si="23">AVERAGE(T132:T135)</f>
+        <v>85.127499999999998</v>
+      </c>
+      <c r="U136">
+        <f t="shared" si="23"/>
+        <v>84.954999999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>167</v>
+      </c>
+      <c r="B138" t="s">
+        <v>166</v>
+      </c>
+      <c r="C138" t="s">
+        <v>165</v>
+      </c>
+      <c r="D138" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A139" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="B139" t="s">
+        <v>177</v>
+      </c>
+      <c r="C139">
+        <v>98.82</v>
+      </c>
+      <c r="D139">
+        <v>98.11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A140" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C140">
+        <v>62.48</v>
+      </c>
+      <c r="D140">
+        <v>62.23</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A141" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="C141">
+        <v>78.48</v>
+      </c>
+      <c r="D141">
+        <v>78.38</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A142" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="C142">
+        <v>70.86</v>
+      </c>
+      <c r="D142">
+        <v>71.680000000000007</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C143">
+        <f>AVERAGE(C139:C142)</f>
+        <v>77.66</v>
+      </c>
+      <c r="D143">
+        <f>AVERAGE(D139:D142)</f>
+        <v>77.599999999999994</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A164" s="12"/>
+      <c r="B164" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C165" s="41"/>
+      <c r="D165" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E165" s="41"/>
+      <c r="F165" t="s">
+        <v>11</v>
+      </c>
+      <c r="G165" t="s">
+        <v>15</v>
+      </c>
+      <c r="H165" t="s">
+        <v>19</v>
+      </c>
+      <c r="I165" t="s">
+        <v>20</v>
+      </c>
+      <c r="J165" t="s">
+        <v>50</v>
+      </c>
+      <c r="K165" t="s">
+        <v>51</v>
+      </c>
+      <c r="L165" t="s">
+        <v>25</v>
+      </c>
+      <c r="M165" t="s">
+        <v>16</v>
+      </c>
+      <c r="N165" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="O165" s="41"/>
+      <c r="P165" s="41"/>
+      <c r="Q165" s="41"/>
+      <c r="R165" s="41"/>
+      <c r="S165" s="41"/>
+      <c r="T165" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A166" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B166" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166" t="s">
+        <v>5</v>
+      </c>
+      <c r="D166" t="s">
+        <v>7</v>
+      </c>
+      <c r="E166">
+        <v>78.56</v>
+      </c>
+      <c r="F166">
+        <v>88.48</v>
+      </c>
+      <c r="G166">
+        <f>E166-F166</f>
+        <v>-9.9200000000000017</v>
+      </c>
+      <c r="H166">
+        <v>84.2</v>
+      </c>
+      <c r="I166">
+        <f>E166 - H166</f>
+        <v>-5.6400000000000006</v>
+      </c>
+      <c r="J166">
+        <v>83.6</v>
+      </c>
+      <c r="K166">
+        <f>E166 - J166</f>
+        <v>-5.039999999999992</v>
+      </c>
+      <c r="L166">
+        <v>75.2</v>
+      </c>
+      <c r="M166">
+        <f>E166-L166</f>
+        <v>3.3599999999999994</v>
+      </c>
+      <c r="N166" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="O166" s="42"/>
+      <c r="P166" s="42"/>
+      <c r="Q166" s="42"/>
+      <c r="R166" s="42"/>
+      <c r="S166" s="42"/>
+      <c r="T166" s="43"/>
+      <c r="U166" s="43"/>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A167" s="41"/>
+      <c r="B167" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C167" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" t="s">
+        <v>8</v>
+      </c>
+      <c r="E167">
+        <v>75.3</v>
+      </c>
+      <c r="F167">
+        <v>83.83</v>
+      </c>
+      <c r="G167">
+        <f t="shared" ref="G167:G170" si="24">E167-F167</f>
+        <v>-8.5300000000000011</v>
+      </c>
+      <c r="H167">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="I167">
+        <f>E167 - H167</f>
+        <v>-2.7999999999999972</v>
+      </c>
+      <c r="J167">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="K167">
+        <f t="shared" ref="K167:K168" si="25">E167 - J167</f>
+        <v>-4.2999999999999972</v>
+      </c>
+      <c r="L167">
+        <v>74.27</v>
+      </c>
+      <c r="M167">
+        <f>E167-L167</f>
+        <v>1.0300000000000011</v>
+      </c>
+      <c r="N167" s="42"/>
+      <c r="O167" s="42"/>
+      <c r="P167" s="42"/>
+      <c r="Q167" s="42"/>
+      <c r="R167" s="42"/>
+      <c r="S167" s="42"/>
+      <c r="T167" s="43"/>
+      <c r="U167" s="43"/>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A168" s="41"/>
+      <c r="B168" s="41"/>
+      <c r="C168" s="41"/>
+      <c r="D168" t="s">
+        <v>9</v>
+      </c>
+      <c r="E168">
+        <v>95.39</v>
+      </c>
+      <c r="F168">
+        <v>96.59</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="24"/>
+        <v>-1.2000000000000028</v>
+      </c>
+      <c r="H168">
+        <v>95.3</v>
+      </c>
+      <c r="I168">
+        <f>E168 - H168</f>
+        <v>9.0000000000003411E-2</v>
+      </c>
+      <c r="J168">
+        <v>95.8</v>
+      </c>
+      <c r="K168">
+        <f t="shared" si="25"/>
+        <v>-0.40999999999999659</v>
+      </c>
+      <c r="L168">
+        <v>93.29</v>
+      </c>
+      <c r="M168">
+        <f>E168-L168</f>
+        <v>2.0999999999999943</v>
+      </c>
+      <c r="N168" s="42"/>
+      <c r="O168" s="42"/>
+      <c r="P168" s="42"/>
+      <c r="Q168" s="42"/>
+      <c r="R168" s="42"/>
+      <c r="S168" s="42"/>
+      <c r="T168" s="43"/>
+      <c r="U168" s="43"/>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A169" s="41"/>
+      <c r="B169" s="41"/>
+      <c r="C169" s="41"/>
+      <c r="D169" t="s">
+        <v>10</v>
+      </c>
+      <c r="E169">
+        <v>66.84</v>
+      </c>
+      <c r="F169">
+        <v>82.92</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="24"/>
+        <v>-16.079999999999998</v>
+      </c>
+      <c r="H169">
+        <v>74.7</v>
+      </c>
+      <c r="I169" s="19">
+        <f>E169 - H169</f>
+        <v>-7.8599999999999994</v>
+      </c>
+      <c r="J169">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="K169" s="19">
+        <f>E169 - J169</f>
+        <v>-10.759999999999991</v>
+      </c>
+      <c r="L169">
+        <v>58.91</v>
+      </c>
+      <c r="M169">
+        <f>E169-L169</f>
+        <v>7.9300000000000068</v>
+      </c>
+      <c r="N169" s="42"/>
+      <c r="O169" s="42"/>
+      <c r="P169" s="42"/>
+      <c r="Q169" s="42"/>
+      <c r="R169" s="42"/>
+      <c r="S169" s="42"/>
+      <c r="T169" s="43"/>
+      <c r="U169" s="43"/>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A170" s="41"/>
+      <c r="B170" s="41"/>
+      <c r="C170" s="41"/>
+      <c r="D170" t="s">
+        <v>14</v>
+      </c>
+      <c r="E170">
+        <f>AVERAGE(E166:E169)</f>
+        <v>79.022500000000008</v>
+      </c>
+      <c r="F170" s="2">
+        <f>AVERAGE(F166:F169)</f>
+        <v>87.954999999999998</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="24"/>
+        <v>-8.9324999999999903</v>
+      </c>
+      <c r="H170" s="2">
+        <f>AVERAGE(H166:H169)</f>
+        <v>83.075000000000003</v>
+      </c>
+      <c r="I170">
+        <f>E170 - H170</f>
+        <v>-4.0524999999999949</v>
+      </c>
+      <c r="J170">
+        <v>84.1</v>
+      </c>
+      <c r="K170">
+        <f t="shared" ref="K170" si="26">E170 - J170</f>
+        <v>-5.0774999999999864</v>
+      </c>
+      <c r="L170" s="2">
+        <f>AVERAGE(L166:L169)</f>
+        <v>75.41749999999999</v>
+      </c>
+      <c r="M170">
+        <f>E170-L170</f>
+        <v>3.6050000000000182</v>
+      </c>
+      <c r="N170" s="42"/>
+      <c r="O170" s="42"/>
+      <c r="P170" s="42"/>
+      <c r="Q170" s="42"/>
+      <c r="R170" s="42"/>
+      <c r="S170" s="42"/>
+      <c r="T170" s="43"/>
+      <c r="U170" s="43"/>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B180" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C180" s="41"/>
+      <c r="D180" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E180" s="41"/>
+      <c r="F180" t="s">
+        <v>11</v>
+      </c>
+      <c r="G180" t="s">
+        <v>15</v>
+      </c>
+      <c r="H180" t="s">
+        <v>19</v>
+      </c>
+      <c r="I180" t="s">
+        <v>20</v>
+      </c>
+      <c r="J180" t="s">
+        <v>50</v>
+      </c>
+      <c r="K180" t="s">
+        <v>51</v>
+      </c>
+      <c r="L180" t="s">
+        <v>25</v>
+      </c>
+      <c r="M180" t="s">
+        <v>16</v>
+      </c>
+      <c r="N180" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="O180" s="41"/>
+      <c r="P180" s="41"/>
+      <c r="Q180" s="41"/>
+      <c r="R180" s="41"/>
+      <c r="S180" s="41"/>
+      <c r="T180" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A181" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B181" t="s">
+        <v>4</v>
+      </c>
+      <c r="C181" t="s">
+        <v>5</v>
+      </c>
+      <c r="D181" t="s">
+        <v>7</v>
+      </c>
+      <c r="E181">
+        <v>77.58</v>
+      </c>
+      <c r="F181">
+        <v>88.48</v>
+      </c>
+      <c r="G181">
+        <f>E181-F181</f>
+        <v>-10.900000000000006</v>
+      </c>
+      <c r="H181">
+        <v>84.2</v>
+      </c>
+      <c r="I181">
+        <f>E181 - H181</f>
+        <v>-6.6200000000000045</v>
+      </c>
+      <c r="J181">
+        <v>83.6</v>
+      </c>
+      <c r="K181">
+        <f>E181 - J181</f>
+        <v>-6.019999999999996</v>
+      </c>
+      <c r="L181">
+        <v>75.2</v>
+      </c>
+      <c r="M181">
+        <f>E181-L181</f>
+        <v>2.3799999999999955</v>
+      </c>
+      <c r="N181" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="O181" s="42"/>
+      <c r="P181" s="42"/>
+      <c r="Q181" s="42"/>
+      <c r="R181" s="42"/>
+      <c r="S181" s="42"/>
+      <c r="T181" s="48"/>
+      <c r="U181" s="48"/>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A182" s="41"/>
+      <c r="B182" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C182" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182" t="s">
+        <v>8</v>
+      </c>
+      <c r="E182">
+        <v>76.11</v>
+      </c>
+      <c r="F182">
+        <v>83.83</v>
+      </c>
+      <c r="G182">
+        <f t="shared" ref="G182:G185" si="27">E182-F182</f>
+        <v>-7.7199999999999989</v>
+      </c>
+      <c r="H182">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="I182">
+        <f>E182 - H182</f>
+        <v>-1.9899999999999949</v>
+      </c>
+      <c r="J182">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="K182">
+        <f t="shared" ref="K182:K185" si="28">E182 - J182</f>
+        <v>-3.4899999999999949</v>
+      </c>
+      <c r="L182">
+        <v>74.27</v>
+      </c>
+      <c r="M182">
+        <f>E182-L182</f>
+        <v>1.8400000000000034</v>
+      </c>
+      <c r="N182" s="42"/>
+      <c r="O182" s="42"/>
+      <c r="P182" s="42"/>
+      <c r="Q182" s="42"/>
+      <c r="R182" s="42"/>
+      <c r="S182" s="42"/>
+      <c r="T182" s="48"/>
+      <c r="U182" s="48"/>
+    </row>
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A183" s="41"/>
+      <c r="B183" s="41"/>
+      <c r="C183" s="41"/>
+      <c r="D183" t="s">
+        <v>9</v>
+      </c>
+      <c r="E183">
+        <v>94.97</v>
+      </c>
+      <c r="F183">
+        <v>96.59</v>
+      </c>
+      <c r="G183">
+        <f t="shared" si="27"/>
+        <v>-1.6200000000000045</v>
+      </c>
+      <c r="H183">
+        <v>95.3</v>
+      </c>
+      <c r="I183">
+        <f>E183 - H183</f>
+        <v>-0.32999999999999829</v>
+      </c>
+      <c r="J183">
+        <v>95.8</v>
+      </c>
+      <c r="K183">
+        <f t="shared" si="28"/>
+        <v>-0.82999999999999829</v>
+      </c>
+      <c r="L183">
+        <v>93.29</v>
+      </c>
+      <c r="M183">
+        <f>E183-L183</f>
+        <v>1.6799999999999926</v>
+      </c>
+      <c r="N183" s="42"/>
+      <c r="O183" s="42"/>
+      <c r="P183" s="42"/>
+      <c r="Q183" s="42"/>
+      <c r="R183" s="42"/>
+      <c r="S183" s="42"/>
+      <c r="T183" s="48"/>
+      <c r="U183" s="48"/>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A184" s="41"/>
+      <c r="B184" s="41"/>
+      <c r="C184" s="41"/>
+      <c r="D184" t="s">
+        <v>10</v>
+      </c>
+      <c r="E184">
+        <v>65.48</v>
+      </c>
+      <c r="F184">
+        <v>82.92</v>
+      </c>
+      <c r="G184">
+        <f t="shared" si="27"/>
+        <v>-17.439999999999998</v>
+      </c>
+      <c r="H184">
+        <v>74.7</v>
+      </c>
+      <c r="I184">
+        <f>E184 - H184</f>
+        <v>-9.2199999999999989</v>
+      </c>
+      <c r="J184">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="K184">
+        <f t="shared" si="28"/>
+        <v>-12.11999999999999</v>
+      </c>
+      <c r="L184">
+        <v>58.91</v>
+      </c>
+      <c r="M184">
+        <f>E184-L184</f>
+        <v>6.5700000000000074</v>
+      </c>
+      <c r="N184" s="42"/>
+      <c r="O184" s="42"/>
+      <c r="P184" s="42"/>
+      <c r="Q184" s="42"/>
+      <c r="R184" s="42"/>
+      <c r="S184" s="42"/>
+      <c r="T184" s="48"/>
+      <c r="U184" s="48"/>
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A185" s="41"/>
+      <c r="B185" s="41"/>
+      <c r="C185" s="41"/>
+      <c r="D185" t="s">
+        <v>14</v>
+      </c>
+      <c r="E185">
+        <f>AVERAGE(E181:E184)</f>
+        <v>78.534999999999997</v>
+      </c>
+      <c r="F185" s="2">
+        <f>AVERAGE(F181:F184)</f>
+        <v>87.954999999999998</v>
+      </c>
+      <c r="G185">
+        <f t="shared" si="27"/>
+        <v>-9.4200000000000017</v>
+      </c>
+      <c r="H185" s="2">
+        <f>AVERAGE(H181:H184)</f>
+        <v>83.075000000000003</v>
+      </c>
+      <c r="I185">
+        <f>E185 - H185</f>
         <v>-4.5400000000000063</v>
       </c>
-      <c r="J105">
+      <c r="J185">
         <v>84.1</v>
       </c>
-      <c r="K105">
-        <f t="shared" si="21"/>
+      <c r="K185">
+        <f t="shared" si="28"/>
         <v>-5.5649999999999977</v>
       </c>
-      <c r="L105" s="2">
-        <f>AVERAGE(L101:L104)</f>
+      <c r="L185" s="2">
+        <f>AVERAGE(L181:L184)</f>
         <v>75.41749999999999</v>
       </c>
-      <c r="M105">
-        <f>E105-L105</f>
+      <c r="M185">
+        <f>E185-L185</f>
         <v>3.1175000000000068</v>
       </c>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
-      <c r="R105" s="17"/>
-      <c r="S105" s="17"/>
-      <c r="T105" s="22"/>
-      <c r="U105" s="22"/>
+      <c r="N185" s="42"/>
+      <c r="O185" s="42"/>
+      <c r="P185" s="42"/>
+      <c r="Q185" s="42"/>
+      <c r="R185" s="42"/>
+      <c r="S185" s="42"/>
+      <c r="T185" s="48"/>
+      <c r="U185" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="88">
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="N76:S76"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="N77:S81"/>
+  <mergeCells count="103">
+    <mergeCell ref="V112:V115"/>
+    <mergeCell ref="U110:V110"/>
+    <mergeCell ref="W110:X110"/>
+    <mergeCell ref="AB104:AC104"/>
+    <mergeCell ref="T111:T115"/>
+    <mergeCell ref="A105:A109"/>
     <mergeCell ref="A59:A63"/>
     <mergeCell ref="N59:S63"/>
     <mergeCell ref="T59:U63"/>
     <mergeCell ref="B60:B63"/>
     <mergeCell ref="C60:C63"/>
-    <mergeCell ref="N67:S67"/>
     <mergeCell ref="A68:A72"/>
     <mergeCell ref="N68:S72"/>
     <mergeCell ref="T68:U72"/>
     <mergeCell ref="B69:B72"/>
     <mergeCell ref="C69:C72"/>
-    <mergeCell ref="T77:U81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="N51:S55"/>
-    <mergeCell ref="T51:U55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="N89:R89"/>
+    <mergeCell ref="L105:M109"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="D104:E104"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="N1:S1"/>
@@ -6231,8 +9420,8 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="N25:S25"/>
-    <mergeCell ref="A101:A105"/>
-    <mergeCell ref="N101:S105"/>
+    <mergeCell ref="A181:A185"/>
+    <mergeCell ref="N181:S185"/>
     <mergeCell ref="A26:A30"/>
     <mergeCell ref="N26:S30"/>
     <mergeCell ref="T26:U30"/>
@@ -6247,15 +9436,15 @@
     <mergeCell ref="B43:B46"/>
     <mergeCell ref="C43:C46"/>
     <mergeCell ref="B50:C50"/>
-    <mergeCell ref="T101:U105"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="T181:U185"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="C182:C185"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="N33:S33"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="N100:S100"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="D180:E180"/>
+    <mergeCell ref="N180:S180"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="N50:S50"/>
     <mergeCell ref="B58:C58"/>
@@ -6263,14 +9452,35 @@
     <mergeCell ref="N58:S58"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A166:A170"/>
+    <mergeCell ref="N166:S170"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="N34:S38"/>
     <mergeCell ref="T34:U38"/>
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="C35:C38"/>
+    <mergeCell ref="N105:O109"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="N51:S55"/>
+    <mergeCell ref="T51:U55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="N67:S67"/>
+    <mergeCell ref="T166:U170"/>
+    <mergeCell ref="B167:B170"/>
+    <mergeCell ref="C167:C170"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="N165:S165"/>
+    <mergeCell ref="U112:U115"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6290,10 +9500,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6301,10 +9511,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6383,24 +9593,24 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16"/>
+      <c r="E2" s="41"/>
       <c r="F2" t="s">
         <v>11</v>
       </c>
@@ -6414,10 +9624,10 @@
         <v>20</v>
       </c>
       <c r="J2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" t="s">
         <v>51</v>
-      </c>
-      <c r="K2" t="s">
-        <v>52</v>
       </c>
       <c r="L2" t="s">
         <v>25</v>
@@ -6425,21 +9635,21 @@
       <c r="M2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
       <c r="T2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>53</v>
+      <c r="A3" s="41" t="s">
+        <v>52</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -6481,23 +9691,23 @@
         <f>E3-L3</f>
         <v>3.6599999999999966</v>
       </c>
-      <c r="N3" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
+      <c r="N3" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
@@ -6534,19 +9744,19 @@
         <f>E4-L4</f>
         <v>1.0100000000000051</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
       <c r="D5" t="s">
         <v>9</v>
       </c>
@@ -6581,19 +9791,19 @@
         <f>E5-L5</f>
         <v>-0.49000000000000909</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
       <c r="D6" t="s">
         <v>10</v>
       </c>
@@ -6628,19 +9838,19 @@
         <f>E6-L6</f>
         <v>15.52000000000001</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
       <c r="D7" t="s">
         <v>14</v>
       </c>
@@ -6679,25 +9889,25 @@
         <f>E7-L7</f>
         <v>4.9250000000000114</v>
       </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="T3:U7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="N2:S2"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="N3:S7"/>
+    <mergeCell ref="T3:U7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6722,14 +9932,14 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16"/>
+      <c r="E1" s="41"/>
       <c r="F1" t="s">
         <v>11</v>
       </c>
@@ -6748,20 +9958,20 @@
       <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
       <c r="R1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="41" t="s">
         <v>27</v>
       </c>
       <c r="B2" t="s">
@@ -6782,21 +9992,21 @@
       <c r="J2">
         <v>75.2</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
@@ -6811,19 +10021,19 @@
       <c r="J3">
         <v>74.27</v>
       </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
       <c r="D4" t="s">
         <v>9</v>
       </c>
@@ -6836,19 +10046,19 @@
       <c r="J4">
         <v>93.29</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
       <c r="D5" t="s">
         <v>10</v>
       </c>
@@ -6861,19 +10071,19 @@
       <c r="J5">
         <v>58.91</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
       <c r="D6" t="s">
         <v>14</v>
       </c>
@@ -6889,25 +10099,25 @@
         <f>AVERAGE(J2:J5)</f>
         <v>75.41749999999999</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="R2:S6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="L1:Q1"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="L2:Q6"/>
+    <mergeCell ref="R2:S6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
